--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2140 +418,2356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2.1483749208574</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9.662416032530651</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.008305995793276469</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.008876252869967963</v>
+      </c>
+      <c r="E2">
         <v>0.8442897455598958</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>3.45653227423985</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3.993555407882371</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1120814792490968</v>
+      </c>
+      <c r="I2">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="J2">
         <v>2.749533701911824</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>3.64156662350461</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>15.77820286614056</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>9.928476601929569</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.09402167197724577</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.3907596129899135</v>
       </c>
-      <c r="N2" t="n">
-        <v>52.69603545531716</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>53.6393920036528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.206235135353559</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9.922645035748692</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.009844143162401741</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.01052000340144351</v>
+      </c>
+      <c r="E3">
         <v>1.000639698441358</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.6588709801845</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3.071965698371054</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1541120339675081</v>
+      </c>
+      <c r="I3">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="J3">
         <v>2.38436125712666</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>3.157921056320405</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>13.42054036890117</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>8.444911132675724</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N3" t="n">
-        <v>46.48569791412859</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>47.78270492484869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.228876088852056</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10.02447377613836</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.01168992000535207</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.01249250403921417</v>
+      </c>
+      <c r="E4">
         <v>1.188259641899112</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2.836129045530132</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3.276763411595791</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1541120339675081</v>
+      </c>
+      <c r="I4">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="J4">
         <v>2.276957596895729</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>3.015672360089756</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>14.87140959797157</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>9.357874498370398</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N4" t="n">
-        <v>49.22661487591031</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>50.52374861042522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.611256636826677</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>11.74424805827496</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.01045940211005185</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.01117750361403373</v>
+      </c>
+      <c r="E5">
         <v>1.063179679593943</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.98830647027675</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4.60794854755658</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.2101527735920566</v>
+      </c>
+      <c r="I5">
+        <v>1.557571522518465</v>
+      </c>
+      <c r="J5">
         <v>2.964341022373684</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>3.926064015965907</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>15.59684421250677</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>9.814356181217732</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.1074533394025665</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.4465824148456156</v>
       </c>
-      <c r="N5" t="n">
-        <v>56.88103998095124</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>58.64948237856574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.558427745330182</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>11.50664766403241</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.008921254740926579</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.009533753082558185</v>
+      </c>
+      <c r="E6">
         <v>0.9068297267124805</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>3.545161306912666</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4.095954264494739</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.1821324037797823</v>
+      </c>
+      <c r="I6">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="J6">
         <v>2.87841809418894</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>3.81226505898139</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>15.77820286614056</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>9.928476601929569</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N6" t="n">
-        <v>55.43483139914999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>56.96747162078741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.91313601680664</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>13.10196459680385</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.008613625267101523</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.009205002976263076</v>
+      </c>
+      <c r="E7">
         <v>0.8755597361361881</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3.811048404931117</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>4.403150834331844</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1961425886859195</v>
+      </c>
+      <c r="I7">
+        <v>1.453733421017234</v>
+      </c>
+      <c r="J7">
         <v>2.362880525080473</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>3.129471317074275</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>13.96461632980258</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>8.787272394811225</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.1343166742532083</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.5582280185570194</v>
       </c>
-      <c r="N7" t="n">
-        <v>54.05025847385552</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>55.70072586126784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.235140688785267</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>14.55019557123468</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.006767848424151196</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.007232502338492415</v>
+      </c>
+      <c r="E8">
         <v>0.6879397926784333</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>5.229112927696183</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>6.04153254012974</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.3222342528411533</v>
+      </c>
+      <c r="I8">
+        <v>2.388276334528312</v>
+      </c>
+      <c r="J8">
         <v>2.534726381449962</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>3.357069231043313</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>9.793367296225181</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>6.162502718439041</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.147748341678529</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.6140508204127213</v>
       </c>
-      <c r="N8" t="n">
-        <v>52.3601541581972</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>55.071129399481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3.750851296251034</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>16.86962799122156</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E9">
         <v>0.437779868068094</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>4.342822600968016</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5.017543974006055</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.3922851773718389</v>
+      </c>
+      <c r="I9">
+        <v>2.907466842034467</v>
+      </c>
+      <c r="J9">
         <v>1.245882458678795</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>1.650084876275527</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>8.523856720788585</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>5.363659773456201</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N9" t="n">
-        <v>47.48343424947151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>50.78348195773238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>4.201154704721148</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>18.89488849452716</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.003999183159725707</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.004273751381836427</v>
+      </c>
+      <c r="E10">
         <v>0.4065098774918017</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2.747500012857317</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3.174364554983423</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.5744175811516211</v>
+      </c>
+      <c r="I10">
+        <v>4.25736216155047</v>
+      </c>
+      <c r="J10">
         <v>0.8377485498012588</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>1.109539830599061</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>9.612008642591375</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>6.048382297727207</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N10" t="n">
-        <v>47.17460508702153</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>52.00665939794572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.92068300130614</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>13.13590751026707</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.005229701055025924</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.005588751807016867</v>
+      </c>
+      <c r="E11">
         <v>0.5315898397969715</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.418064522765066</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.638381705797896</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.560407396245484</v>
+      </c>
+      <c r="I11">
+        <v>4.153524060049239</v>
+      </c>
+      <c r="J11">
         <v>0.859229281847445</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>1.137989569845191</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>9.793367296225181</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>6.162502718439041</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N11" t="n">
-        <v>37.74145408590708</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>42.45574459295378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2.316924241346213</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>10.42047443320929</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.006460218950326142</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.006903752232197307</v>
+      </c>
+      <c r="E12">
         <v>0.6566698021021412</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2.1270967841476</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>2.457572558696843</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.4203055471841132</v>
+      </c>
+      <c r="I12">
+        <v>3.115143045036929</v>
+      </c>
+      <c r="J12">
         <v>0.5799797652470252</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.7681429596455039</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>13.60189902253498</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>8.559031553387557</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>41.49425133926747</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>45.03014346477038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2.050264122363913</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>9.221158157508762</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.006767848424151196</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.007232502338492415</v>
+      </c>
+      <c r="E13">
         <v>0.6879397926784333</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1.5953225881107</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1.843179419022632</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.140101849061371</v>
+      </c>
+      <c r="I13">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="J13">
         <v>0.6014604972932114</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.7965926988916336</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>7.979780759887184</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>5.021298511320698</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>29.80376439550132</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>30.98271191348934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.300596995413674</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>5.849495420162003</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.005537330528850979</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.005917501913311976</v>
+      </c>
+      <c r="E14">
         <v>0.5628598303732637</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1.152177424746616</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.33118513596079</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.2101527735920566</v>
+      </c>
+      <c r="I14">
+        <v>1.557571522518465</v>
+      </c>
+      <c r="J14">
         <v>0.4940568370622809</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.6543440026609847</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>9.249291335323782</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>5.82014145630354</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>26.41968576853579</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>28.18779023603077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.8251369719452311</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.711091871978986</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.005537330528850979</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.005917501913311976</v>
+      </c>
+      <c r="E15">
         <v>0.5628598303732637</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.26588709801845</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I15">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J15">
         <v>0.2362880525080473</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.3129471317074274</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>6.710270184450586</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>4.222455566337862</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>17.15967060768581</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>18.22068535673658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.4050215014731166</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.82160302252627</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.005229701055025924</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.005588751807016867</v>
+      </c>
+      <c r="E16">
         <v>0.5315898397969715</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.08862903267281663</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.1023988566123685</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.09807129434295973</v>
+      </c>
+      <c r="I16">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="J16">
         <v>0.4296146409237225</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.5689947849225954</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>6.34755287718299</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>3.994214724914193</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N16" t="n">
-        <v>14.36410345136109</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>15.18940050696466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.2867854109809646</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.289830711602453</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E17">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.1772580653456333</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.05604073962454841</v>
+      </c>
+      <c r="I17">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="J17">
         <v>0.4510953729699086</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.5974445241687252</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>6.16619422354919</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>3.880094304202359</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>13.33769890649503</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>13.80928213781673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1987372584868086</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.8938300545315242</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E18">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.26588709801845</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18">
         <v>0.3866531768313503</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.5120953064303359</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>5.440759609013989</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>3.423612621355023</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>11.61823741480529</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>11.61836413860011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1811276279879776</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.8146299231173384</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.003076294738250545</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.003287501062951099</v>
+      </c>
+      <c r="E19">
         <v>0.3126999057629243</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.26588709801845</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.0280203698122742</v>
+      </c>
+      <c r="I19">
+        <v>0.2076762030024619</v>
+      </c>
+      <c r="J19">
         <v>0.3651724447851641</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.4836455671842062</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>8.34249806715478</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>5.249539352744369</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>16.32547285133057</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>16.56138063047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.3119420259792948</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.402973756479861</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.003076294738250545</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.003287501062951099</v>
+      </c>
+      <c r="E20">
         <v>0.3126999057629243</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.26588709801845</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.05604073962454841</v>
+      </c>
+      <c r="I20">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="J20">
         <v>0.5584990332008393</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.7396932203993741</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>15.23412690523917</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>9.58611533979407</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N20" t="n">
-        <v>28.79146461873036</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>29.26306897068453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.02387423043204</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.60492192651051</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.003076294738250545</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.003287501062951099</v>
+      </c>
+      <c r="E21">
         <v>0.3126999057629243</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.8862903267281665</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1.023988566123685</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.280203698122742</v>
+      </c>
+      <c r="I21">
+        <v>2.07676203002462</v>
+      </c>
+      <c r="J21">
         <v>0.6659026934317698</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.881941916630023</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>22.12575574332355</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>13.92269132684376</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N21" t="n">
-        <v>45.52039739980571</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>47.87757433427777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.286736303348216</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>10.2847027793564</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E22">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>2.392983882166051</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2.764769128533949</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.6024379509638951</v>
+      </c>
+      <c r="I22">
+        <v>4.465038364552932</v>
+      </c>
+      <c r="J22">
         <v>1.847342955972007</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>2.44667757516716</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>23.93934227966155</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>15.0638955339621</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N22" t="n">
-        <v>61.55608927569247</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>66.62373455626904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3.569723668263057</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>16.05499806810421</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E23">
         <v>0.437779868068094</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3.45653227423985</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3.993555407882371</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.5463972113393469</v>
+      </c>
+      <c r="I23">
+        <v>4.049685958548007</v>
+      </c>
+      <c r="J23">
         <v>2.040669544387682</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>2.702725228382328</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>20.31216920698557</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>12.78148711972542</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N23" t="n">
-        <v>65.76947401435827</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>70.3658528731002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>4.226311319719478</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>19.00803153940457</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.009228884214751631</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.009862503188853294</v>
+      </c>
+      <c r="E24">
         <v>0.9380997172887729</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3.899677437603932</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4.505549690944212</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.5884277660577583</v>
+      </c>
+      <c r="I24">
+        <v>4.361200263051701</v>
+      </c>
+      <c r="J24">
         <v>2.706572237819452</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>3.584667145012351</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>19.76809324608415</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>12.43912585758992</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.09402167197724577</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.3907596129899135</v>
       </c>
-      <c r="N24" t="n">
-        <v>71.57013836064874</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>76.5204000087323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2.737039711818328</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>12.309963282662</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.006152589476501089</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.006575002125902197</v>
+      </c>
+      <c r="E25">
         <v>0.6253998115258486</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>4.076935502949567</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>4.71034740416895</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.3082240679350162</v>
+      </c>
+      <c r="I25">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="J25">
         <v>2.513245649403777</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>3.328619491797184</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>21.03760382152075</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>13.23796880257276</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.1074533394025665</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.4465824148456156</v>
       </c>
-      <c r="N25" t="n">
-        <v>65.13731182214386</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>67.73039653575536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2.251517042350553</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>10.12630251652803</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.008305995793276469</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.008876252869967963</v>
+      </c>
+      <c r="E26">
         <v>0.8442897455598958</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3.45653227423985</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3.993555407882371</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I26">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J26">
         <v>3.093225414650802</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>4.096762451442687</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>17.22907209521097</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>10.84143996762424</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.09402167197724577</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.3907596129899135</v>
       </c>
-      <c r="N26" t="n">
-        <v>56.42578419624983</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>57.48698903099284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2.243970057851056</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>10.0923596030648</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.009536513688576685</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.0101912532951484</v>
+      </c>
+      <c r="E27">
         <v>0.9693697078650654</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>2.570241947511684</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.969566841758686</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1541120339675081</v>
+      </c>
+      <c r="I27">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="J27">
         <v>3.372474931251222</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>4.466609061642374</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>17.41043074884477</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>10.95556038833607</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N27" t="n">
-        <v>55.3371376789384</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>56.63412356902602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2.110639998359906</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>9.492701465214546</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.008305995793276469</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.008876252869967963</v>
+      </c>
+      <c r="E28">
         <v>0.8442897455598958</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2.747500012857317</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>3.174364554983423</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.2381731434043307</v>
+      </c>
+      <c r="I28">
+        <v>1.765247725520927</v>
+      </c>
+      <c r="J28">
         <v>2.513245649403777</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>3.328619491797184</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>13.60189902253498</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>8.559031553387557</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.1074533394025665</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.4465824148456156</v>
       </c>
-      <c r="N28" t="n">
-        <v>46.93463324414004</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>48.93862437014199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2.608740975326842</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>11.73293375378722</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.007998366319451413</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.008547502763672854</v>
+      </c>
+      <c r="E29">
         <v>0.8130197549836035</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>3.279274208894216</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>3.788757694657634</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1821324037797823</v>
+      </c>
+      <c r="I29">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="J29">
         <v>2.813975898050382</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>3.726915841243001</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>17.22907209521097</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>10.84143996762424</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N29" t="n">
-        <v>57.25765537178369</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>58.7902322315237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.274157995849051</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>10.2281312569177</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.0107670315838769</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.01150625372032884</v>
+      </c>
+      <c r="E30">
         <v>1.094449670170235</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>3.102016143548583</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3.583959981432896</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1681222188736453</v>
+      </c>
+      <c r="I30">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="J30">
         <v>2.448803453265219</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>3.243270274058794</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>15.23412690523917</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>9.58611533979407</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.1074533394025665</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.4465824148456156</v>
       </c>
-      <c r="N30" t="n">
-        <v>51.35983380610777</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>52.77475246513264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2.845213156311147</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>12.79647837563486</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.01045940211005185</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.01117750361403373</v>
+      </c>
+      <c r="E31">
         <v>1.063179679593943</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>4.431451633640835</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>5.119942830618425</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.2381731434043307</v>
+      </c>
+      <c r="I31">
+        <v>1.765247725520927</v>
+      </c>
+      <c r="J31">
         <v>2.276957596895729</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>3.015672360089756</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>13.60189902253498</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>8.559031553387557</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N31" t="n">
-        <v>53.85879454937933</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>55.86293351980857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>3.53953573026506</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>15.91922641425132</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.007998366319451413</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.008547502763672854</v>
+      </c>
+      <c r="E32">
         <v>0.8130197549836035</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>5.938145189078718</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>6.860723393028688</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.3362444377472905</v>
+      </c>
+      <c r="I32">
+        <v>2.492114436029544</v>
+      </c>
+      <c r="J32">
         <v>2.405841989172846</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>3.186370795566535</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>10.88151921802798</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>6.847225242710046</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.1880433439544915</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.781519225979827</v>
       </c>
-      <c r="N32" t="n">
-        <v>57.36916866333856</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>60.19807667355962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>4.226311319719478</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>19.00803153940457</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.007998366319451413</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.008547502763672854</v>
+      </c>
+      <c r="E33">
         <v>0.8130197549836035</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3.899677437603932</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>4.505549690944212</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.5043666566209357</v>
+      </c>
+      <c r="I33">
+        <v>3.738171654044316</v>
+      </c>
+      <c r="J33">
         <v>1.589574171417773</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>2.105280704213603</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>8.34249806715478</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>5.249539352744369</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N33" t="n">
-        <v>50.02449828162987</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>54.26758572873935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>4.382282332709126</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>19.7095184176445</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E34">
         <v>0.437779868068094</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>2.6588709801845</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>3.071965698371054</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.6304583207761696</v>
+      </c>
+      <c r="I34">
+        <v>4.672714567555394</v>
+      </c>
+      <c r="J34">
         <v>0.9666329420783754</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>1.28023826607584</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>9.612008642591375</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>6.048382297727207</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N34" t="n">
-        <v>48.24124072736465</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>53.54470930455079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2.940808293304803</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>13.22642194616901</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.004922071581200871</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.005260001700721757</v>
+      </c>
+      <c r="E35">
         <v>0.500319849220679</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.32943549009225</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1.535982849185527</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.5183768415270728</v>
+      </c>
+      <c r="I35">
+        <v>3.842009755545547</v>
+      </c>
+      <c r="J35">
         <v>1.009594406170748</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>1.337137744568099</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>10.88151921802798</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>6.847225242710046</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N35" t="n">
-        <v>39.68262158031137</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>44.0433461075035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2.495536207834358</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>11.22379005183889</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.005537330528850979</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.005917501913311976</v>
+      </c>
+      <c r="E36">
         <v>0.5628598303732637</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>2.038467751474784</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2.355173702084475</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.4343157320902502</v>
+      </c>
+      <c r="I36">
+        <v>3.218981146538159</v>
+      </c>
+      <c r="J36">
         <v>0.8162678177550727</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>1.081090091352931</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>13.96461632980258</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>8.787272394811225</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N36" t="n">
-        <v>43.5383749156995</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>47.19205196571237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2.128249628858736</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>9.571901596628727</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.005844960002676034</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.006246252019607087</v>
+      </c>
+      <c r="E37">
         <v>0.5941298209495562</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1.861209686129149</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>2.150375988859738</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.1961425886859195</v>
+      </c>
+      <c r="I37">
+        <v>1.453733421017234</v>
+      </c>
+      <c r="J37">
         <v>0.515537569108467</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.6827937419071146</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>7.979780759887184</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>5.021298511320698</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>30.51112226365204</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>32.16139956537214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.8855128479412232</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>3.982635179684765</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.004922071581200871</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.005260001700721757</v>
+      </c>
+      <c r="E38">
         <v>0.500319849220679</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.26588709801845</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.1681222188736453</v>
+      </c>
+      <c r="I38">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="J38">
         <v>0.3866531768313503</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.5120953064303359</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>5.259400955380189</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>3.309492200643189</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>15.41411525556849</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>16.82863262257642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.5685394989622629</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2.557032814229424</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E39">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.26588709801845</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.08406110943682263</v>
+      </c>
+      <c r="I39">
+        <v>0.6230286090073859</v>
+      </c>
+      <c r="J39">
         <v>0.1933265884156751</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.2560476532151679</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>5.078042301746392</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>3.195371779931354</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>12.70564288480689</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>13.41292268894333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.5735708219619291</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.579661423204905</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.005537330528850979</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.005917501913311976</v>
+      </c>
+      <c r="E40">
         <v>0.5628598303732637</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.1772580653456333</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.09807129434295973</v>
+      </c>
+      <c r="I40">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="J40">
         <v>0.3222109806927919</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.4267460886919465</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>7.435704798985785</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>4.678937249185199</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>16.96728430219504</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>17.79260247843108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.2716914419819665</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.221944884676007</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.005229701055025924</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.005588751807016867</v>
+      </c>
+      <c r="E41">
         <v>0.5315898397969715</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.08862903267281663</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.1023988566123685</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.0700509245306855</v>
+      </c>
+      <c r="I41">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="J41">
         <v>0.343691712738978</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.4551958279380763</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>7.617063452619584</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>4.793057669897035</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>15.43049241998883</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>16.02009290277766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.2666601189823001</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.199316275700525</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E42">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="J42">
         <v>0.343691712738978</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.4551958279380763</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>6.710270184450586</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>4.222455566337862</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>13.54494350669962</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>13.54517583365679</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.2213782119853058</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.9956587949211911</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E43">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.08862903267281663</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.1023988566123685</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.04203055471841131</v>
+      </c>
+      <c r="I43">
+        <v>0.3115143045036929</v>
+      </c>
+      <c r="J43">
         <v>0.3222109806927919</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.4267460886919465</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>9.06793268168998</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>5.706021035591704</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>17.21517426330916</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>17.56890920822349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.3597395944761223</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.617945541746936</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E44">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.3545161306912665</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.4095954264494739</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.05604073962454841</v>
+      </c>
+      <c r="I44">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="J44">
         <v>0.5370183011546531</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.7112434811532443</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>12.51374710073217</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>7.874309029116554</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>24.56758032582112</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>25.03910019524541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.038968199431039</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.672807753436953</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E45">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1.152177424746616</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1.33118513596079</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.2521833283104679</v>
+      </c>
+      <c r="I45">
+        <v>1.869085827022158</v>
+      </c>
+      <c r="J45">
         <v>0.9666329420783754</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>1.28023826607584</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>26.29700477690094</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>16.54746100321595</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N45" t="n">
-        <v>53.54519569142823</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>55.66659157055567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2.354659163843707</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>10.5901890005254</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E46">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>2.747500012857317</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>3.174364554983423</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.672488875494581</v>
+      </c>
+      <c r="I46">
+        <v>4.984228872059087</v>
+      </c>
+      <c r="J46">
         <v>2.040669544387682</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>2.702725228382328</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>29.01738458140793</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>18.25926731389345</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N46" t="n">
-        <v>71.18925566827465</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>76.84603677772573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>3.41375265527341</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>15.35351118986428</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E47">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>2.6588709801845</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>3.071965698371054</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.560407396245484</v>
+      </c>
+      <c r="I47">
+        <v>4.153524060049239</v>
+      </c>
+      <c r="J47">
         <v>1.890304420064379</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>2.50357705365942</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>18.31722401701376</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>11.52616249189525</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N47" t="n">
-        <v>59.33426181313209</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>64.04836223448659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>3.861540402243689</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>17.36745738868215</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E48">
         <v>0.437779868068094</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>2.924758078202949</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>3.379162268208161</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.4483259169963872</v>
+      </c>
+      <c r="I48">
+        <v>3.322819248039391</v>
+      </c>
+      <c r="J48">
         <v>2.169553936664799</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>2.873423663859107</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>16.50363748067577</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>10.38495828477691</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N48" t="n">
-        <v>60.04508712257722</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>63.81652797646758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2.77225897281599</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>12.46836354549037</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.005229701055025924</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.005588751807016867</v>
+      </c>
+      <c r="E49">
         <v>0.5315898397969715</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>3.367903241567032</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>3.891156551270001</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.3082240679350162</v>
+      </c>
+      <c r="I49">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="J49">
         <v>2.728052969865638</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>3.613116884258481</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>22.30711439695736</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>14.03681174755559</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N49" t="n">
-        <v>65.8601067891945</v>
+      <c r="P49">
+        <v>68.4531281409086</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.1483749208574</v>
+        <v>4.129511075420514</v>
       </c>
       <c r="C2">
-        <v>9.662416032530651</v>
+        <v>18.5726679427685</v>
       </c>
       <c r="D2">
-        <v>0.008876252869967963</v>
+        <v>0.01706153994766298</v>
       </c>
       <c r="E2">
-        <v>0.8442897455598958</v>
+        <v>1.622856337273812</v>
       </c>
       <c r="F2">
-        <v>3.45653227423985</v>
+        <v>6.643993173838272</v>
       </c>
       <c r="G2">
-        <v>3.993555407882371</v>
+        <v>7.676235245091265</v>
       </c>
       <c r="H2">
-        <v>0.1120814792490968</v>
+        <v>0.2154380529279047</v>
       </c>
       <c r="I2">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="J2">
-        <v>2.749533701911824</v>
+        <v>5.285031846189793</v>
       </c>
       <c r="K2">
-        <v>3.64156662350461</v>
+        <v>6.999658000868143</v>
       </c>
       <c r="L2">
-        <v>15.77820286614056</v>
+        <v>30.32816239539594</v>
       </c>
       <c r="M2">
-        <v>9.928476601929569</v>
+        <v>19.08407777975683</v>
       </c>
       <c r="N2">
-        <v>0.09402167197724577</v>
+        <v>0.1807242916448856</v>
       </c>
       <c r="O2">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="P2">
-        <v>53.6393920036528</v>
+        <v>103.1032624740871</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.206235135353559</v>
+        <v>4.240727415859237</v>
       </c>
       <c r="C3">
-        <v>9.922645035748692</v>
+        <v>19.07286860164868</v>
       </c>
       <c r="D3">
-        <v>0.01052000340144351</v>
+        <v>0.02022108438241538</v>
       </c>
       <c r="E3">
-        <v>1.000639698441358</v>
+        <v>1.923385288620814</v>
       </c>
       <c r="F3">
-        <v>2.6588709801845</v>
+        <v>5.110763979875595</v>
       </c>
       <c r="G3">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="H3">
-        <v>0.1541120339675081</v>
+        <v>0.2962273227758689</v>
       </c>
       <c r="I3">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="J3">
-        <v>2.38436125712666</v>
+        <v>4.583113554117712</v>
       </c>
       <c r="K3">
-        <v>3.157921056320405</v>
+        <v>6.070015922627844</v>
       </c>
       <c r="L3">
-        <v>13.42054036890117</v>
+        <v>25.79636801447472</v>
       </c>
       <c r="M3">
-        <v>8.444911132675724</v>
+        <v>16.23243397358628</v>
       </c>
       <c r="N3">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O3">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P3">
-        <v>47.78270492484869</v>
+        <v>91.84579808908043</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.228876088852056</v>
+        <v>4.28424685342222</v>
       </c>
       <c r="C4">
-        <v>10.02447377613836</v>
+        <v>19.26859929425397</v>
       </c>
       <c r="D4">
-        <v>0.01249250403921417</v>
+        <v>0.02401253770411826</v>
       </c>
       <c r="E4">
-        <v>1.188259641899112</v>
+        <v>2.284020030237217</v>
       </c>
       <c r="F4">
-        <v>2.836129045530132</v>
+        <v>5.451481578533969</v>
       </c>
       <c r="G4">
-        <v>3.276763411595791</v>
+        <v>6.298449431869755</v>
       </c>
       <c r="H4">
-        <v>0.1541120339675081</v>
+        <v>0.2962273227758689</v>
       </c>
       <c r="I4">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="J4">
-        <v>2.276957596895729</v>
+        <v>4.376666997625922</v>
       </c>
       <c r="K4">
-        <v>3.015672360089756</v>
+        <v>5.796591781968932</v>
       </c>
       <c r="L4">
-        <v>14.87140959797157</v>
+        <v>28.58516455658008</v>
       </c>
       <c r="M4">
-        <v>9.357874498370398</v>
+        <v>17.98729170046046</v>
       </c>
       <c r="N4">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O4">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P4">
-        <v>50.52374861042522</v>
+        <v>97.1145108020748</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.611256636826677</v>
+        <v>5.019241798930318</v>
       </c>
       <c r="C5">
-        <v>11.74424805827496</v>
+        <v>22.57427321380996</v>
       </c>
       <c r="D5">
-        <v>0.01117750361403373</v>
+        <v>0.02148490215631634</v>
       </c>
       <c r="E5">
-        <v>1.063179679593943</v>
+        <v>2.043596869159614</v>
       </c>
       <c r="F5">
-        <v>3.98830647027675</v>
+        <v>7.666145969813393</v>
       </c>
       <c r="G5">
-        <v>4.60794854755658</v>
+        <v>8.857194513566844</v>
       </c>
       <c r="H5">
-        <v>0.2101527735920566</v>
+        <v>0.403946349239821</v>
       </c>
       <c r="I5">
-        <v>1.557571522518465</v>
+        <v>2.993894962445672</v>
       </c>
       <c r="J5">
-        <v>2.964341022373684</v>
+        <v>5.697924959173371</v>
       </c>
       <c r="K5">
-        <v>3.926064015965907</v>
+        <v>7.54650628218597</v>
       </c>
       <c r="L5">
-        <v>15.59684421250677</v>
+        <v>29.97956282763277</v>
       </c>
       <c r="M5">
-        <v>9.814356181217732</v>
+        <v>18.86472056389756</v>
       </c>
       <c r="N5">
-        <v>0.1074533394025665</v>
+        <v>0.2065420475941549</v>
       </c>
       <c r="O5">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="P5">
-        <v>58.64948237856574</v>
+        <v>112.7334361887402</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.558427745330182</v>
+        <v>4.9176964446167</v>
       </c>
       <c r="C6">
-        <v>11.50664766403241</v>
+        <v>22.11756826439762</v>
       </c>
       <c r="D6">
-        <v>0.009533753082558185</v>
+        <v>0.01832535772156394</v>
       </c>
       <c r="E6">
-        <v>0.9068297267124805</v>
+        <v>1.743067917812613</v>
       </c>
       <c r="F6">
-        <v>3.545161306912666</v>
+        <v>6.814351973167458</v>
       </c>
       <c r="G6">
-        <v>4.095954264494739</v>
+        <v>7.873061789837196</v>
       </c>
       <c r="H6">
-        <v>0.1821324037797823</v>
+        <v>0.3500868360078451</v>
       </c>
       <c r="I6">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="J6">
-        <v>2.87841809418894</v>
+        <v>5.53276771397994</v>
       </c>
       <c r="K6">
-        <v>3.81226505898139</v>
+        <v>7.327766969658838</v>
       </c>
       <c r="L6">
-        <v>15.77820286614056</v>
+        <v>30.32816239539594</v>
       </c>
       <c r="M6">
-        <v>9.928476601929569</v>
+        <v>19.08407777975683</v>
       </c>
       <c r="N6">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O6">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P6">
-        <v>56.96747162078741</v>
+        <v>109.5003496423518</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.91313601680664</v>
+        <v>5.599500966436714</v>
       </c>
       <c r="C7">
-        <v>13.10196459680385</v>
+        <v>25.18401578188049</v>
       </c>
       <c r="D7">
-        <v>0.009205002976263076</v>
+        <v>0.01769344883461346</v>
       </c>
       <c r="E7">
-        <v>0.8755597361361881</v>
+        <v>1.682962127543212</v>
       </c>
       <c r="F7">
-        <v>3.811048404931117</v>
+        <v>7.325428371155021</v>
       </c>
       <c r="G7">
-        <v>4.403150834331844</v>
+        <v>8.463541424074984</v>
       </c>
       <c r="H7">
-        <v>0.1961425886859195</v>
+        <v>0.3770165926238331</v>
       </c>
       <c r="I7">
-        <v>1.453733421017234</v>
+        <v>2.794301964949294</v>
       </c>
       <c r="J7">
-        <v>2.362880525080473</v>
+        <v>4.541824242819353</v>
       </c>
       <c r="K7">
-        <v>3.129471317074275</v>
+        <v>6.015331094496063</v>
       </c>
       <c r="L7">
-        <v>13.96461632980258</v>
+        <v>26.84216671776422</v>
       </c>
       <c r="M7">
-        <v>8.787272394811225</v>
+        <v>16.8905056211641</v>
       </c>
       <c r="N7">
-        <v>0.1343166742532083</v>
+        <v>0.2581775594926936</v>
       </c>
       <c r="O7">
-        <v>0.5582280185570194</v>
+        <v>1.073001161417983</v>
       </c>
       <c r="P7">
-        <v>55.70072586126784</v>
+        <v>107.0654670746526</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.235140688785267</v>
+        <v>6.218444078443536</v>
       </c>
       <c r="C8">
-        <v>14.55019557123468</v>
+        <v>27.96774118782235</v>
       </c>
       <c r="D8">
-        <v>0.007232502338492415</v>
+        <v>0.01390199551291057</v>
       </c>
       <c r="E8">
-        <v>0.6879397926784333</v>
+        <v>1.32232738592681</v>
       </c>
       <c r="F8">
-        <v>5.229112927696183</v>
+        <v>10.051169160422</v>
       </c>
       <c r="G8">
-        <v>6.04153254012974</v>
+        <v>11.61276614000986</v>
       </c>
       <c r="H8">
-        <v>0.3222342528411533</v>
+        <v>0.6193844021677259</v>
       </c>
       <c r="I8">
-        <v>2.388276334528312</v>
+        <v>4.590638942416698</v>
       </c>
       <c r="J8">
-        <v>2.534726381449962</v>
+        <v>4.872138733206214</v>
       </c>
       <c r="K8">
-        <v>3.357069231043313</v>
+        <v>6.452809719550321</v>
       </c>
       <c r="L8">
-        <v>9.793367296225181</v>
+        <v>18.82437665921127</v>
       </c>
       <c r="M8">
-        <v>6.162502718439041</v>
+        <v>11.84528965640079</v>
       </c>
       <c r="N8">
-        <v>0.147748341678529</v>
+        <v>0.283995315441963</v>
       </c>
       <c r="O8">
-        <v>0.6140508204127213</v>
+        <v>1.180301277559781</v>
       </c>
       <c r="P8">
-        <v>55.071129399481</v>
+        <v>105.8552846540922</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.750851296251034</v>
+        <v>7.209720156266963</v>
       </c>
       <c r="C9">
-        <v>16.86962799122156</v>
+        <v>32.42605140827615</v>
       </c>
       <c r="D9">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E9">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F9">
-        <v>4.342822600968016</v>
+        <v>8.347581167130137</v>
       </c>
       <c r="G9">
-        <v>5.017543974006055</v>
+        <v>9.644500692550563</v>
       </c>
       <c r="H9">
-        <v>0.3922851773718389</v>
+        <v>0.7540331852476662</v>
       </c>
       <c r="I9">
-        <v>2.907466842034467</v>
+        <v>5.588603929898587</v>
       </c>
       <c r="J9">
-        <v>1.245882458678795</v>
+        <v>2.39478005530475</v>
       </c>
       <c r="K9">
-        <v>1.650084876275527</v>
+        <v>3.171720031643378</v>
       </c>
       <c r="L9">
-        <v>8.523856720788585</v>
+        <v>16.38417968486907</v>
       </c>
       <c r="M9">
-        <v>5.363659773456201</v>
+        <v>10.30978914538587</v>
       </c>
       <c r="N9">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O9">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P9">
-        <v>50.78348195773238</v>
+        <v>97.61375873312632</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>4.201154704721148</v>
+        <v>8.075273414464</v>
       </c>
       <c r="C10">
-        <v>18.89488849452716</v>
+        <v>36.31891740564801</v>
       </c>
       <c r="D10">
-        <v>0.004273751381836427</v>
+        <v>0.008214815530356249</v>
       </c>
       <c r="E10">
-        <v>0.4065098774918017</v>
+        <v>0.7813752735022055</v>
       </c>
       <c r="F10">
-        <v>2.747500012857317</v>
+        <v>5.281122779204781</v>
       </c>
       <c r="G10">
-        <v>3.174364554983423</v>
+        <v>6.101622887123826</v>
       </c>
       <c r="H10">
-        <v>0.5744175811516211</v>
+        <v>1.104120021255511</v>
       </c>
       <c r="I10">
-        <v>4.25736216155047</v>
+        <v>8.183312897351502</v>
       </c>
       <c r="J10">
-        <v>0.8377485498012588</v>
+        <v>1.610283140635952</v>
       </c>
       <c r="K10">
-        <v>1.109539830599061</v>
+        <v>2.132708297139513</v>
       </c>
       <c r="L10">
-        <v>9.612008642591375</v>
+        <v>18.47577709144812</v>
       </c>
       <c r="M10">
-        <v>6.048382297727207</v>
+        <v>11.62593244054152</v>
       </c>
       <c r="N10">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O10">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P10">
-        <v>52.00665939794572</v>
+        <v>99.96489620802743</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.92068300130614</v>
+        <v>5.614007445624371</v>
       </c>
       <c r="C11">
-        <v>13.13590751026707</v>
+        <v>25.24925934608223</v>
       </c>
       <c r="D11">
-        <v>0.005588751807016867</v>
+        <v>0.01074245107815817</v>
       </c>
       <c r="E11">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="F11">
-        <v>1.418064522765066</v>
+        <v>2.725740789266984</v>
       </c>
       <c r="G11">
-        <v>1.638381705797896</v>
+        <v>3.149224715934877</v>
       </c>
       <c r="H11">
-        <v>0.560407396245484</v>
+        <v>1.077190264639523</v>
       </c>
       <c r="I11">
-        <v>4.153524060049239</v>
+        <v>7.983719899855125</v>
       </c>
       <c r="J11">
-        <v>0.859229281847445</v>
+        <v>1.65157245193431</v>
       </c>
       <c r="K11">
-        <v>1.137989569845191</v>
+        <v>2.187393125271295</v>
       </c>
       <c r="L11">
-        <v>9.793367296225181</v>
+        <v>18.82437665921127</v>
       </c>
       <c r="M11">
-        <v>6.162502718439041</v>
+        <v>11.84528965640079</v>
       </c>
       <c r="N11">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O11">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P11">
-        <v>42.45574459295378</v>
+        <v>81.60655098406089</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>2.316924241346213</v>
+        <v>4.453489110611581</v>
       </c>
       <c r="C12">
-        <v>10.42047443320929</v>
+        <v>20.0297742099412</v>
       </c>
       <c r="D12">
-        <v>0.006903752232197307</v>
+        <v>0.01327008662596009</v>
       </c>
       <c r="E12">
-        <v>0.6566698021021412</v>
+        <v>1.262221595657409</v>
       </c>
       <c r="F12">
-        <v>2.1270967841476</v>
+        <v>4.088611183900476</v>
       </c>
       <c r="G12">
-        <v>2.457572558696843</v>
+        <v>4.723837073902315</v>
       </c>
       <c r="H12">
-        <v>0.4203055471841132</v>
+        <v>0.807892698479642</v>
       </c>
       <c r="I12">
-        <v>3.115143045036929</v>
+        <v>5.987789924891343</v>
       </c>
       <c r="J12">
-        <v>0.5799797652470252</v>
+        <v>1.114811405055659</v>
       </c>
       <c r="K12">
-        <v>0.7681429596455039</v>
+        <v>1.476490359558124</v>
       </c>
       <c r="L12">
-        <v>13.60189902253498</v>
+        <v>26.14496758223789</v>
       </c>
       <c r="M12">
-        <v>8.559031553387557</v>
+        <v>16.45179118944555</v>
       </c>
       <c r="P12">
-        <v>45.03014346477038</v>
+        <v>86.55494642030715</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>2.050264122363913</v>
+        <v>3.940926845980933</v>
       </c>
       <c r="C13">
-        <v>9.221158157508762</v>
+        <v>17.72450160814558</v>
       </c>
       <c r="D13">
-        <v>0.007232502338492415</v>
+        <v>0.01390199551291057</v>
       </c>
       <c r="E13">
-        <v>0.6879397926784333</v>
+        <v>1.32232738592681</v>
       </c>
       <c r="F13">
-        <v>1.5953225881107</v>
+        <v>3.066458387925358</v>
       </c>
       <c r="G13">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="H13">
-        <v>0.140101849061371</v>
+        <v>0.2692975661598808</v>
       </c>
       <c r="I13">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="J13">
-        <v>0.6014604972932114</v>
+        <v>1.156100716354017</v>
       </c>
       <c r="K13">
-        <v>0.7965926988916336</v>
+        <v>1.531175187689907</v>
       </c>
       <c r="L13">
-        <v>7.979780759887184</v>
+        <v>15.33838098157956</v>
       </c>
       <c r="M13">
-        <v>5.021298511320698</v>
+        <v>9.651717497808056</v>
       </c>
       <c r="P13">
-        <v>30.98271191348934</v>
+        <v>59.55359595347354</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.300596995413674</v>
+        <v>2.499949913340051</v>
       </c>
       <c r="C14">
-        <v>5.849495420162003</v>
+        <v>11.24364089743714</v>
       </c>
       <c r="D14">
-        <v>0.005917501913311976</v>
+        <v>0.01137435996510865</v>
       </c>
       <c r="E14">
-        <v>0.5628598303732637</v>
+        <v>1.081904224849208</v>
       </c>
       <c r="F14">
-        <v>1.152177424746616</v>
+        <v>2.214664391279425</v>
       </c>
       <c r="G14">
-        <v>1.33118513596079</v>
+        <v>2.558745081697087</v>
       </c>
       <c r="H14">
-        <v>0.2101527735920566</v>
+        <v>0.403946349239821</v>
       </c>
       <c r="I14">
-        <v>1.557571522518465</v>
+        <v>2.993894962445672</v>
       </c>
       <c r="J14">
-        <v>0.4940568370622809</v>
+        <v>0.9496541598622286</v>
       </c>
       <c r="K14">
-        <v>0.6543440026609847</v>
+        <v>1.257751047030994</v>
       </c>
       <c r="L14">
-        <v>9.249291335323782</v>
+        <v>17.77857795592177</v>
       </c>
       <c r="M14">
-        <v>5.82014145630354</v>
+        <v>11.18721800882297</v>
       </c>
       <c r="P14">
-        <v>28.18779023603077</v>
+        <v>54.18132135189148</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.8251369719452311</v>
+        <v>1.58604172451748</v>
       </c>
       <c r="C15">
-        <v>3.711091871978986</v>
+        <v>7.133296352726076</v>
       </c>
       <c r="D15">
-        <v>0.005917501913311976</v>
+        <v>0.01137435996510865</v>
       </c>
       <c r="E15">
-        <v>0.5628598303732637</v>
+        <v>1.081904224849208</v>
       </c>
       <c r="F15">
-        <v>0.26588709801845</v>
+        <v>0.5110763979875595</v>
       </c>
       <c r="G15">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H15">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I15">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J15">
-        <v>0.2362880525080473</v>
+        <v>0.4541824242819353</v>
       </c>
       <c r="K15">
-        <v>0.3129471317074274</v>
+        <v>0.6015331094496061</v>
       </c>
       <c r="L15">
-        <v>6.710270184450586</v>
+        <v>12.89818400723736</v>
       </c>
       <c r="M15">
-        <v>4.222455566337862</v>
+        <v>8.116216986793138</v>
       </c>
       <c r="P15">
-        <v>18.22068535673658</v>
+        <v>35.02299400905655</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,49 +1156,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.4050215014731166</v>
+        <v>0.7785143830710803</v>
       </c>
       <c r="C16">
-        <v>1.82160302252627</v>
+        <v>3.501404612161275</v>
       </c>
       <c r="D16">
-        <v>0.005588751807016867</v>
+        <v>0.01074245107815817</v>
       </c>
       <c r="E16">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="F16">
-        <v>0.08862903267281663</v>
+        <v>0.1703587993291865</v>
       </c>
       <c r="G16">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="H16">
-        <v>0.09807129434295973</v>
+        <v>0.1885082963119165</v>
       </c>
       <c r="I16">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="J16">
-        <v>0.4296146409237225</v>
+        <v>0.8257862259671551</v>
       </c>
       <c r="K16">
-        <v>0.5689947849225954</v>
+        <v>1.093696562635647</v>
       </c>
       <c r="L16">
-        <v>6.34755287718299</v>
+        <v>12.20098487171101</v>
       </c>
       <c r="M16">
-        <v>3.994214724914193</v>
+        <v>7.677502555074588</v>
       </c>
       <c r="N16">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O16">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P16">
-        <v>15.18940050696466</v>
+        <v>29.19639259123146</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,43 +1206,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.2867854109809646</v>
+        <v>0.5512462091310757</v>
       </c>
       <c r="C17">
-        <v>1.289830711602453</v>
+        <v>2.479255439666989</v>
       </c>
       <c r="D17">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E17">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F17">
-        <v>0.1772580653456333</v>
+        <v>0.340717598658373</v>
       </c>
       <c r="G17">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="H17">
-        <v>0.05604073962454841</v>
+        <v>0.1077190264639523</v>
       </c>
       <c r="I17">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="J17">
-        <v>0.4510953729699086</v>
+        <v>0.8670755372655129</v>
       </c>
       <c r="K17">
-        <v>0.5974445241687252</v>
+        <v>1.14838139076743</v>
       </c>
       <c r="L17">
-        <v>6.16619422354919</v>
+        <v>11.85238530394784</v>
       </c>
       <c r="M17">
-        <v>3.880094304202359</v>
+        <v>7.458145339215315</v>
       </c>
       <c r="P17">
-        <v>13.80928213781673</v>
+        <v>26.54359021700102</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,37 +1250,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1987372584868086</v>
+        <v>0.3820039519417101</v>
       </c>
       <c r="C18">
-        <v>0.8938300545315242</v>
+        <v>1.718080523979756</v>
       </c>
       <c r="D18">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E18">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F18">
-        <v>0.26588709801845</v>
+        <v>0.5110763979875595</v>
       </c>
       <c r="G18">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="J18">
-        <v>0.3866531768313503</v>
+        <v>0.7432076033704396</v>
       </c>
       <c r="K18">
-        <v>0.5120953064303359</v>
+        <v>0.9843269063720828</v>
       </c>
       <c r="L18">
-        <v>5.440759609013989</v>
+        <v>10.45798703289515</v>
       </c>
       <c r="M18">
-        <v>3.423612621355023</v>
+        <v>6.580716475778218</v>
       </c>
       <c r="P18">
-        <v>11.61836413860011</v>
+        <v>22.33230472150081</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,43 +1288,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1811276279879776</v>
+        <v>0.3481555005038373</v>
       </c>
       <c r="C19">
-        <v>0.8146299231173384</v>
+        <v>1.565845540842309</v>
       </c>
       <c r="D19">
-        <v>0.003287501062951099</v>
+        <v>0.006319088869504805</v>
       </c>
       <c r="E19">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="F19">
-        <v>0.26588709801845</v>
+        <v>0.5110763979875595</v>
       </c>
       <c r="G19">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H19">
-        <v>0.0280203698122742</v>
+        <v>0.05385951323197617</v>
       </c>
       <c r="I19">
-        <v>0.2076762030024619</v>
+        <v>0.3991859949927561</v>
       </c>
       <c r="J19">
-        <v>0.3651724447851641</v>
+        <v>0.7019182920720819</v>
       </c>
       <c r="K19">
-        <v>0.4836455671842062</v>
+        <v>0.9296420782403003</v>
       </c>
       <c r="L19">
-        <v>8.34249806715478</v>
+        <v>16.03558011710591</v>
       </c>
       <c r="M19">
-        <v>5.249539352744369</v>
+        <v>10.0904319295266</v>
       </c>
       <c r="P19">
-        <v>16.56138063047</v>
+        <v>31.83355199030463</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1332,49 +1332,49 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.3119420259792948</v>
+        <v>0.5996011397566083</v>
       </c>
       <c r="C20">
-        <v>1.402973756479861</v>
+        <v>2.6967339870062</v>
       </c>
       <c r="D20">
-        <v>0.003287501062951099</v>
+        <v>0.006319088869504805</v>
       </c>
       <c r="E20">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="F20">
-        <v>0.26588709801845</v>
+        <v>0.5110763979875595</v>
       </c>
       <c r="G20">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H20">
-        <v>0.05604073962454841</v>
+        <v>0.1077190264639523</v>
       </c>
       <c r="I20">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="J20">
-        <v>0.5584990332008393</v>
+        <v>1.073522093757302</v>
       </c>
       <c r="K20">
-        <v>0.7396932203993741</v>
+        <v>1.421805531426342</v>
       </c>
       <c r="L20">
-        <v>15.23412690523917</v>
+        <v>29.28236369210643</v>
       </c>
       <c r="M20">
-        <v>9.58611533979407</v>
+        <v>18.42600613217902</v>
       </c>
       <c r="N20">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O20">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P20">
-        <v>29.26306897068453</v>
+        <v>56.24817448856128</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,49 +1382,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.02387423043204</v>
+        <v>1.968045676459191</v>
       </c>
       <c r="C21">
-        <v>4.60492192651051</v>
+        <v>8.851376876705833</v>
       </c>
       <c r="D21">
-        <v>0.003287501062951099</v>
+        <v>0.006319088869504805</v>
       </c>
       <c r="E21">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="F21">
-        <v>0.8862903267281665</v>
+        <v>1.703587993291864</v>
       </c>
       <c r="G21">
-        <v>1.023988566123685</v>
+        <v>1.968265447459299</v>
       </c>
       <c r="H21">
-        <v>0.280203698122742</v>
+        <v>0.5385951323197616</v>
       </c>
       <c r="I21">
-        <v>2.07676203002462</v>
+        <v>3.991859949927563</v>
       </c>
       <c r="J21">
-        <v>0.6659026934317698</v>
+        <v>1.279968650249091</v>
       </c>
       <c r="K21">
-        <v>0.881941916630023</v>
+        <v>1.695229672085254</v>
       </c>
       <c r="L21">
-        <v>22.12575574332355</v>
+        <v>42.52914726710693</v>
       </c>
       <c r="M21">
-        <v>13.92269132684376</v>
+        <v>26.76158033483142</v>
       </c>
       <c r="N21">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O21">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P21">
-        <v>47.87757433427777</v>
+        <v>92.02815186409079</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1432,49 +1432,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>2.286736303348216</v>
+        <v>4.395463193860946</v>
       </c>
       <c r="C22">
-        <v>10.2847027793564</v>
+        <v>19.76879995313416</v>
       </c>
       <c r="D22">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E22">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F22">
-        <v>2.392983882166051</v>
+        <v>4.599687581888037</v>
       </c>
       <c r="G22">
-        <v>2.764769128533949</v>
+        <v>5.314316708140104</v>
       </c>
       <c r="H22">
-        <v>0.6024379509638951</v>
+        <v>1.157979534487487</v>
       </c>
       <c r="I22">
-        <v>4.465038364552932</v>
+        <v>8.58249889234426</v>
       </c>
       <c r="J22">
-        <v>1.847342955972007</v>
+        <v>3.550880771658767</v>
       </c>
       <c r="K22">
-        <v>2.44667757516716</v>
+        <v>4.702895219333283</v>
       </c>
       <c r="L22">
-        <v>23.93934227966155</v>
+        <v>46.01514294473867</v>
       </c>
       <c r="M22">
-        <v>15.0638955339621</v>
+        <v>28.95515249342415</v>
       </c>
       <c r="N22">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O22">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P22">
-        <v>66.62373455626904</v>
+        <v>128.0611903746249</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1482,49 +1482,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>3.569723668263057</v>
+        <v>6.861564655763125</v>
       </c>
       <c r="C23">
-        <v>16.05499806810421</v>
+        <v>30.86020586743384</v>
       </c>
       <c r="D23">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E23">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F23">
-        <v>3.45653227423985</v>
+        <v>6.643993173838272</v>
       </c>
       <c r="G23">
-        <v>3.993555407882371</v>
+        <v>7.676235245091265</v>
       </c>
       <c r="H23">
-        <v>0.5463972113393469</v>
+        <v>1.050260508023535</v>
       </c>
       <c r="I23">
-        <v>4.049685958548007</v>
+        <v>7.784126902358746</v>
       </c>
       <c r="J23">
-        <v>2.040669544387682</v>
+        <v>3.922484573343988</v>
       </c>
       <c r="K23">
-        <v>2.702725228382328</v>
+        <v>5.195058672519327</v>
       </c>
       <c r="L23">
-        <v>20.31216920698557</v>
+        <v>39.04315158947524</v>
       </c>
       <c r="M23">
-        <v>12.78148711972542</v>
+        <v>24.56800817623869</v>
       </c>
       <c r="N23">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O23">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P23">
-        <v>70.3658528731002</v>
+        <v>135.2541243848214</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1532,49 +1532,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>4.226311319719478</v>
+        <v>8.123628345089536</v>
       </c>
       <c r="C24">
-        <v>19.00803153940457</v>
+        <v>36.53639595298721</v>
       </c>
       <c r="D24">
-        <v>0.009862503188853294</v>
+        <v>0.01895726660851442</v>
       </c>
       <c r="E24">
-        <v>0.9380997172887729</v>
+        <v>1.803173708082013</v>
       </c>
       <c r="F24">
-        <v>3.899677437603932</v>
+        <v>7.495787170484207</v>
       </c>
       <c r="G24">
-        <v>4.505549690944212</v>
+        <v>8.660367968820912</v>
       </c>
       <c r="H24">
-        <v>0.5884277660577583</v>
+        <v>1.1310497778715</v>
       </c>
       <c r="I24">
-        <v>4.361200263051701</v>
+        <v>8.382905894847882</v>
       </c>
       <c r="J24">
-        <v>2.706572237819452</v>
+        <v>5.202453223593078</v>
       </c>
       <c r="K24">
-        <v>3.584667145012351</v>
+        <v>6.89028834460458</v>
       </c>
       <c r="L24">
-        <v>19.76809324608415</v>
+        <v>37.9973528861857</v>
       </c>
       <c r="M24">
-        <v>12.43912585758992</v>
+        <v>23.90993652866086</v>
       </c>
       <c r="N24">
-        <v>0.09402167197724577</v>
+        <v>0.1807242916448856</v>
       </c>
       <c r="O24">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="P24">
-        <v>76.5204000087323</v>
+        <v>147.0841221724735</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1582,49 +1582,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.737039711818328</v>
+        <v>5.261016452057984</v>
       </c>
       <c r="C25">
-        <v>12.309963282662</v>
+        <v>23.66166595050599</v>
       </c>
       <c r="D25">
-        <v>0.006575002125902197</v>
+        <v>0.01263817773900961</v>
       </c>
       <c r="E25">
-        <v>0.6253998115258486</v>
+        <v>1.202115805388009</v>
       </c>
       <c r="F25">
-        <v>4.076935502949567</v>
+        <v>7.836504769142579</v>
       </c>
       <c r="G25">
-        <v>4.71034740416895</v>
+        <v>9.05402105831277</v>
       </c>
       <c r="H25">
-        <v>0.3082240679350162</v>
+        <v>0.5924546455517378</v>
       </c>
       <c r="I25">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="J25">
-        <v>2.513245649403777</v>
+        <v>4.830849421907858</v>
       </c>
       <c r="K25">
-        <v>3.328619491797184</v>
+        <v>6.398124891418537</v>
       </c>
       <c r="L25">
-        <v>21.03760382152075</v>
+        <v>40.43754986052791</v>
       </c>
       <c r="M25">
-        <v>13.23796880257276</v>
+        <v>25.44543703967577</v>
       </c>
       <c r="N25">
-        <v>0.1074533394025665</v>
+        <v>0.2065420475941549</v>
       </c>
       <c r="O25">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="P25">
-        <v>67.73039653575536</v>
+        <v>130.188366993877</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1632,49 +1632,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.251517042350553</v>
+        <v>4.327766290985195</v>
       </c>
       <c r="C26">
-        <v>10.12630251652803</v>
+        <v>19.46432998685925</v>
       </c>
       <c r="D26">
-        <v>0.008876252869967963</v>
+        <v>0.01706153994766298</v>
       </c>
       <c r="E26">
-        <v>0.8442897455598958</v>
+        <v>1.622856337273812</v>
       </c>
       <c r="F26">
-        <v>3.45653227423985</v>
+        <v>6.643993173838272</v>
       </c>
       <c r="G26">
-        <v>3.993555407882371</v>
+        <v>7.676235245091265</v>
       </c>
       <c r="H26">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I26">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J26">
-        <v>3.093225414650802</v>
+        <v>5.945660826963516</v>
       </c>
       <c r="K26">
-        <v>4.096762451442687</v>
+        <v>7.874615250976662</v>
       </c>
       <c r="L26">
-        <v>17.22907209521097</v>
+        <v>33.1169589375013</v>
       </c>
       <c r="M26">
-        <v>10.84143996762424</v>
+        <v>20.83893550663102</v>
       </c>
       <c r="N26">
-        <v>0.09402167197724577</v>
+        <v>0.1807242916448856</v>
       </c>
       <c r="O26">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="P26">
-        <v>57.48698903099284</v>
+        <v>110.4989429877167</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1682,49 +1682,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.243970057851056</v>
+        <v>4.313259811797537</v>
       </c>
       <c r="C27">
-        <v>10.0923596030648</v>
+        <v>19.3990864226575</v>
       </c>
       <c r="D27">
-        <v>0.0101912532951484</v>
+        <v>0.0195891754954649</v>
       </c>
       <c r="E27">
-        <v>0.9693697078650654</v>
+        <v>1.863279498351414</v>
       </c>
       <c r="F27">
-        <v>2.570241947511684</v>
+        <v>4.94040518054641</v>
       </c>
       <c r="G27">
-        <v>2.969566841758686</v>
+        <v>5.707969797631965</v>
       </c>
       <c r="H27">
-        <v>0.1541120339675081</v>
+        <v>0.2962273227758689</v>
       </c>
       <c r="I27">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="J27">
-        <v>3.372474931251222</v>
+        <v>6.482421873842167</v>
       </c>
       <c r="K27">
-        <v>4.466609061642374</v>
+        <v>8.585518016689832</v>
       </c>
       <c r="L27">
-        <v>17.41043074884477</v>
+        <v>33.4655585052645</v>
       </c>
       <c r="M27">
-        <v>10.95556038833607</v>
+        <v>21.0582927224903</v>
       </c>
       <c r="N27">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O27">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P27">
-        <v>56.63412356902602</v>
+        <v>108.8596027883674</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1732,49 +1732,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.110639998359906</v>
+        <v>4.056978679482212</v>
       </c>
       <c r="C28">
-        <v>9.492701465214546</v>
+        <v>18.24645012175969</v>
       </c>
       <c r="D28">
-        <v>0.008876252869967963</v>
+        <v>0.01706153994766298</v>
       </c>
       <c r="E28">
-        <v>0.8442897455598958</v>
+        <v>1.622856337273812</v>
       </c>
       <c r="F28">
-        <v>2.747500012857317</v>
+        <v>5.281122779204781</v>
       </c>
       <c r="G28">
-        <v>3.174364554983423</v>
+        <v>6.101622887123826</v>
       </c>
       <c r="H28">
-        <v>0.2381731434043307</v>
+        <v>0.4578058624717974</v>
       </c>
       <c r="I28">
-        <v>1.765247725520927</v>
+        <v>3.393080957438429</v>
       </c>
       <c r="J28">
-        <v>2.513245649403777</v>
+        <v>4.830849421907858</v>
       </c>
       <c r="K28">
-        <v>3.328619491797184</v>
+        <v>6.398124891418537</v>
       </c>
       <c r="L28">
-        <v>13.60189902253498</v>
+        <v>26.14496758223789</v>
       </c>
       <c r="M28">
-        <v>8.559031553387557</v>
+        <v>16.45179118944555</v>
       </c>
       <c r="N28">
-        <v>0.1074533394025665</v>
+        <v>0.2065420475941549</v>
       </c>
       <c r="O28">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="P28">
-        <v>48.93862437014199</v>
+        <v>94.06765522644058</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1782,49 +1782,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.608740975326842</v>
+        <v>5.014406305867769</v>
       </c>
       <c r="C29">
-        <v>11.73293375378722</v>
+        <v>22.55252535907604</v>
       </c>
       <c r="D29">
-        <v>0.008547502763672854</v>
+        <v>0.0164296310607125</v>
       </c>
       <c r="E29">
-        <v>0.8130197549836035</v>
+        <v>1.562750547004411</v>
       </c>
       <c r="F29">
-        <v>3.279274208894216</v>
+        <v>6.303275575179902</v>
       </c>
       <c r="G29">
-        <v>3.788757694657634</v>
+        <v>7.282582155599405</v>
       </c>
       <c r="H29">
-        <v>0.1821324037797823</v>
+        <v>0.3500868360078451</v>
       </c>
       <c r="I29">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="J29">
-        <v>2.813975898050382</v>
+        <v>5.408899780084866</v>
       </c>
       <c r="K29">
-        <v>3.726915841243001</v>
+        <v>7.163712485263492</v>
       </c>
       <c r="L29">
-        <v>17.22907209521097</v>
+        <v>33.1169589375013</v>
       </c>
       <c r="M29">
-        <v>10.84143996762424</v>
+        <v>20.83893550663102</v>
       </c>
       <c r="N29">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O29">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P29">
-        <v>58.7902322315237</v>
+        <v>113.0039793192761</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1832,49 +1832,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.274157995849051</v>
+        <v>4.371285728548175</v>
       </c>
       <c r="C30">
-        <v>10.2281312569177</v>
+        <v>19.66006067946455</v>
       </c>
       <c r="D30">
-        <v>0.01150625372032884</v>
+        <v>0.02211681104326682</v>
       </c>
       <c r="E30">
-        <v>1.094449670170235</v>
+        <v>2.103702659429015</v>
       </c>
       <c r="F30">
-        <v>3.102016143548583</v>
+        <v>5.962557976521528</v>
       </c>
       <c r="G30">
-        <v>3.583959981432896</v>
+        <v>6.888929066107544</v>
       </c>
       <c r="H30">
-        <v>0.1681222188736453</v>
+        <v>0.3231570793918569</v>
       </c>
       <c r="I30">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="J30">
-        <v>2.448803453265219</v>
+        <v>4.706981488012785</v>
       </c>
       <c r="K30">
-        <v>3.243270274058794</v>
+        <v>6.234070407023191</v>
       </c>
       <c r="L30">
-        <v>15.23412690523917</v>
+        <v>29.28236369210643</v>
       </c>
       <c r="M30">
-        <v>9.58611533979407</v>
+        <v>18.42600613217902</v>
       </c>
       <c r="N30">
-        <v>0.1074533394025665</v>
+        <v>0.2065420475941549</v>
       </c>
       <c r="O30">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="P30">
-        <v>52.77475246513264</v>
+        <v>101.4412906665125</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1882,49 +1882,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.845213156311147</v>
+        <v>5.468942653747772</v>
       </c>
       <c r="C31">
-        <v>12.79647837563486</v>
+        <v>24.5968237040646</v>
       </c>
       <c r="D31">
-        <v>0.01117750361403373</v>
+        <v>0.02148490215631634</v>
       </c>
       <c r="E31">
-        <v>1.063179679593943</v>
+        <v>2.043596869159614</v>
       </c>
       <c r="F31">
-        <v>4.431451633640835</v>
+        <v>8.517939966459325</v>
       </c>
       <c r="G31">
-        <v>5.119942830618425</v>
+        <v>9.841327237296492</v>
       </c>
       <c r="H31">
-        <v>0.2381731434043307</v>
+        <v>0.4578058624717974</v>
       </c>
       <c r="I31">
-        <v>1.765247725520927</v>
+        <v>3.393080957438429</v>
       </c>
       <c r="J31">
-        <v>2.276957596895729</v>
+        <v>4.376666997625922</v>
       </c>
       <c r="K31">
-        <v>3.015672360089756</v>
+        <v>5.796591781968932</v>
       </c>
       <c r="L31">
-        <v>13.60189902253498</v>
+        <v>26.14496758223789</v>
       </c>
       <c r="M31">
-        <v>8.559031553387557</v>
+        <v>16.45179118944555</v>
       </c>
       <c r="N31">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O31">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P31">
-        <v>55.86293351980857</v>
+        <v>107.3772554482548</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,49 +1932,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>3.53953573026506</v>
+        <v>6.803538739012486</v>
       </c>
       <c r="C32">
-        <v>15.91922641425132</v>
+        <v>30.5992316106268</v>
       </c>
       <c r="D32">
-        <v>0.008547502763672854</v>
+        <v>0.0164296310607125</v>
       </c>
       <c r="E32">
-        <v>0.8130197549836035</v>
+        <v>1.562750547004411</v>
       </c>
       <c r="F32">
-        <v>5.938145189078718</v>
+        <v>11.4140395550555</v>
       </c>
       <c r="G32">
-        <v>6.860723393028688</v>
+        <v>13.1873784979773</v>
       </c>
       <c r="H32">
-        <v>0.3362444377472905</v>
+        <v>0.6463141587837138</v>
       </c>
       <c r="I32">
-        <v>2.492114436029544</v>
+        <v>4.790231939913074</v>
       </c>
       <c r="J32">
-        <v>2.405841989172846</v>
+        <v>4.624402865416068</v>
       </c>
       <c r="K32">
-        <v>3.186370795566535</v>
+        <v>6.124700750759627</v>
       </c>
       <c r="L32">
-        <v>10.88151921802798</v>
+        <v>20.9159740657903</v>
       </c>
       <c r="M32">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="N32">
-        <v>0.1880433439544915</v>
+        <v>0.3614485832897712</v>
       </c>
       <c r="O32">
-        <v>0.781519225979827</v>
+        <v>1.502201625985177</v>
       </c>
       <c r="P32">
-        <v>60.19807667355962</v>
+        <v>115.7100755222314</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1982,49 +1982,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>4.226311319719478</v>
+        <v>8.123628345089536</v>
       </c>
       <c r="C33">
-        <v>19.00803153940457</v>
+        <v>36.53639595298721</v>
       </c>
       <c r="D33">
-        <v>0.008547502763672854</v>
+        <v>0.0164296310607125</v>
       </c>
       <c r="E33">
-        <v>0.8130197549836035</v>
+        <v>1.562750547004411</v>
       </c>
       <c r="F33">
-        <v>3.899677437603932</v>
+        <v>7.495787170484207</v>
       </c>
       <c r="G33">
-        <v>4.505549690944212</v>
+        <v>8.660367968820912</v>
       </c>
       <c r="H33">
-        <v>0.5043666566209357</v>
+        <v>0.9694712381755711</v>
       </c>
       <c r="I33">
-        <v>3.738171654044316</v>
+        <v>7.185347909869614</v>
       </c>
       <c r="J33">
-        <v>1.589574171417773</v>
+        <v>3.055409036078474</v>
       </c>
       <c r="K33">
-        <v>2.105280704213603</v>
+        <v>4.046677281751896</v>
       </c>
       <c r="L33">
-        <v>8.34249806715478</v>
+        <v>16.03558011710591</v>
       </c>
       <c r="M33">
-        <v>5.249539352744369</v>
+        <v>10.0904319295266</v>
       </c>
       <c r="N33">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O33">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P33">
-        <v>54.26758572873935</v>
+        <v>104.3107486163193</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2032,49 +2032,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>4.382282332709126</v>
+        <v>8.423428914967834</v>
       </c>
       <c r="C34">
-        <v>19.7095184176445</v>
+        <v>37.88476294649031</v>
       </c>
       <c r="D34">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E34">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F34">
-        <v>2.6588709801845</v>
+        <v>5.110763979875595</v>
       </c>
       <c r="G34">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="H34">
-        <v>0.6304583207761696</v>
+        <v>1.211839047719464</v>
       </c>
       <c r="I34">
-        <v>4.672714567555394</v>
+        <v>8.981684887337012</v>
       </c>
       <c r="J34">
-        <v>0.9666329420783754</v>
+        <v>1.858019008426099</v>
       </c>
       <c r="K34">
-        <v>1.28023826607584</v>
+        <v>2.460817265930207</v>
       </c>
       <c r="L34">
-        <v>9.612008642591375</v>
+        <v>18.47577709144812</v>
       </c>
       <c r="M34">
-        <v>6.048382297727207</v>
+        <v>11.62593244054152</v>
       </c>
       <c r="N34">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O34">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P34">
-        <v>53.54470930455079</v>
+        <v>102.921267585394</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2082,49 +2082,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.940808293304803</v>
+        <v>5.652691390124796</v>
       </c>
       <c r="C35">
-        <v>13.22642194616901</v>
+        <v>25.42324218395359</v>
       </c>
       <c r="D35">
-        <v>0.005260001700721757</v>
+        <v>0.01011054219120769</v>
       </c>
       <c r="E35">
-        <v>0.500319849220679</v>
+        <v>0.9616926443104069</v>
       </c>
       <c r="F35">
-        <v>1.32943549009225</v>
+        <v>2.555381989937798</v>
       </c>
       <c r="G35">
-        <v>1.535982849185527</v>
+        <v>2.952398171188947</v>
       </c>
       <c r="H35">
-        <v>0.5183768415270728</v>
+        <v>0.996400994791559</v>
       </c>
       <c r="I35">
-        <v>3.842009755545547</v>
+        <v>7.38494090736599</v>
       </c>
       <c r="J35">
-        <v>1.009594406170748</v>
+        <v>1.940597631022814</v>
       </c>
       <c r="K35">
-        <v>1.337137744568099</v>
+        <v>2.570186922193772</v>
       </c>
       <c r="L35">
-        <v>10.88151921802798</v>
+        <v>20.9159740657903</v>
       </c>
       <c r="M35">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="N35">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O35">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P35">
-        <v>44.0433461075035</v>
+        <v>84.65816826651867</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2132,49 +2132,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.495536207834358</v>
+        <v>4.796809118052867</v>
       </c>
       <c r="C36">
-        <v>11.22379005183889</v>
+        <v>21.5738718960496</v>
       </c>
       <c r="D36">
-        <v>0.005917501913311976</v>
+        <v>0.01137435996510865</v>
       </c>
       <c r="E36">
-        <v>0.5628598303732637</v>
+        <v>1.081904224849208</v>
       </c>
       <c r="F36">
-        <v>2.038467751474784</v>
+        <v>3.918252384571289</v>
       </c>
       <c r="G36">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="H36">
-        <v>0.4343157320902502</v>
+        <v>0.8348224550956307</v>
       </c>
       <c r="I36">
-        <v>3.218981146538159</v>
+        <v>6.187382922387723</v>
       </c>
       <c r="J36">
-        <v>0.8162678177550727</v>
+        <v>1.568993829337595</v>
       </c>
       <c r="K36">
-        <v>1.081090091352931</v>
+        <v>2.07802346900773</v>
       </c>
       <c r="L36">
-        <v>13.96461632980258</v>
+        <v>26.84216671776422</v>
       </c>
       <c r="M36">
-        <v>8.787272394811225</v>
+        <v>16.8905056211641</v>
       </c>
       <c r="N36">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O36">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P36">
-        <v>47.19205196571237</v>
+        <v>90.71047114367467</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2182,43 +2182,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>2.128249628858736</v>
+        <v>4.090827130920088</v>
       </c>
       <c r="C37">
-        <v>9.571901596628727</v>
+        <v>18.39868510489714</v>
       </c>
       <c r="D37">
-        <v>0.006246252019607087</v>
+        <v>0.01200626885205913</v>
       </c>
       <c r="E37">
-        <v>0.5941298209495562</v>
+        <v>1.142010015118608</v>
       </c>
       <c r="F37">
-        <v>1.861209686129149</v>
+        <v>3.577534785912917</v>
       </c>
       <c r="G37">
-        <v>2.150375988859738</v>
+        <v>4.133357439664526</v>
       </c>
       <c r="H37">
-        <v>0.1961425886859195</v>
+        <v>0.3770165926238331</v>
       </c>
       <c r="I37">
-        <v>1.453733421017234</v>
+        <v>2.794301964949294</v>
       </c>
       <c r="J37">
-        <v>0.515537569108467</v>
+        <v>0.9909434711605862</v>
       </c>
       <c r="K37">
-        <v>0.6827937419071146</v>
+        <v>1.312435875162777</v>
       </c>
       <c r="L37">
-        <v>7.979780759887184</v>
+        <v>15.33838098157956</v>
       </c>
       <c r="M37">
-        <v>5.021298511320698</v>
+        <v>9.651717497808056</v>
       </c>
       <c r="P37">
-        <v>32.16139956537214</v>
+        <v>61.81921712864944</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2226,43 +2226,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.8855128479412232</v>
+        <v>1.702093558018759</v>
       </c>
       <c r="C38">
-        <v>3.982635179684765</v>
+        <v>7.65524486634018</v>
       </c>
       <c r="D38">
-        <v>0.005260001700721757</v>
+        <v>0.01011054219120769</v>
       </c>
       <c r="E38">
-        <v>0.500319849220679</v>
+        <v>0.9616926443104069</v>
       </c>
       <c r="F38">
-        <v>0.26588709801845</v>
+        <v>0.5110763979875595</v>
       </c>
       <c r="G38">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H38">
-        <v>0.1681222188736453</v>
+        <v>0.3231570793918569</v>
       </c>
       <c r="I38">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="J38">
-        <v>0.3866531768313503</v>
+        <v>0.7432076033704396</v>
       </c>
       <c r="K38">
-        <v>0.5120953064303359</v>
+        <v>0.9843269063720828</v>
       </c>
       <c r="L38">
-        <v>5.259400955380189</v>
+        <v>10.10938746513198</v>
       </c>
       <c r="M38">
-        <v>3.309492200643189</v>
+        <v>6.361359259918943</v>
       </c>
       <c r="P38">
-        <v>16.82863262257642</v>
+        <v>32.34725192722774</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2270,43 +2270,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.5685394989622629</v>
+        <v>1.092821432137044</v>
       </c>
       <c r="C39">
-        <v>2.557032814229424</v>
+        <v>4.915015169866138</v>
       </c>
       <c r="D39">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E39">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F39">
-        <v>0.26588709801845</v>
+        <v>0.5110763979875595</v>
       </c>
       <c r="G39">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H39">
-        <v>0.08406110943682263</v>
+        <v>0.1615785396959284</v>
       </c>
       <c r="I39">
-        <v>0.6230286090073859</v>
+        <v>1.197557984978268</v>
       </c>
       <c r="J39">
-        <v>0.1933265884156751</v>
+        <v>0.3716038016852198</v>
       </c>
       <c r="K39">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="L39">
-        <v>5.078042301746392</v>
+        <v>9.760787897368809</v>
       </c>
       <c r="M39">
-        <v>3.195371779931354</v>
+        <v>6.142002044059672</v>
       </c>
       <c r="P39">
-        <v>13.41292268894333</v>
+        <v>25.78172564760963</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.5735708219619291</v>
+        <v>1.102492418262151</v>
       </c>
       <c r="C40">
-        <v>2.579661423204905</v>
+        <v>4.958510879333978</v>
       </c>
       <c r="D40">
-        <v>0.005917501913311976</v>
+        <v>0.01137435996510865</v>
       </c>
       <c r="E40">
-        <v>0.5628598303732637</v>
+        <v>1.081904224849208</v>
       </c>
       <c r="F40">
-        <v>0.1772580653456333</v>
+        <v>0.340717598658373</v>
       </c>
       <c r="G40">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="H40">
-        <v>0.09807129434295973</v>
+        <v>0.1885082963119165</v>
       </c>
       <c r="I40">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="J40">
-        <v>0.3222109806927919</v>
+        <v>0.6193396694753662</v>
       </c>
       <c r="K40">
-        <v>0.4267460886919465</v>
+        <v>0.8202724219767357</v>
       </c>
       <c r="L40">
-        <v>7.435704798985785</v>
+        <v>14.29258227829004</v>
       </c>
       <c r="M40">
-        <v>4.678937249185199</v>
+        <v>8.99364585023023</v>
       </c>
       <c r="P40">
-        <v>17.79260247843108</v>
+        <v>34.20015206931961</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,43 +2358,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.2716914419819665</v>
+        <v>0.5222332507557553</v>
       </c>
       <c r="C41">
-        <v>1.221944884676007</v>
+        <v>2.348768311263464</v>
       </c>
       <c r="D41">
-        <v>0.005588751807016867</v>
+        <v>0.01074245107815817</v>
       </c>
       <c r="E41">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="F41">
-        <v>0.08862903267281663</v>
+        <v>0.1703587993291865</v>
       </c>
       <c r="G41">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="H41">
-        <v>0.0700509245306855</v>
+        <v>0.1346487830799404</v>
       </c>
       <c r="I41">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="J41">
-        <v>0.343691712738978</v>
+        <v>0.6606289807737241</v>
       </c>
       <c r="K41">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="L41">
-        <v>7.617063452619584</v>
+        <v>14.64118184605321</v>
       </c>
       <c r="M41">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="P41">
-        <v>16.02009290277766</v>
+        <v>30.79311270533909</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2402,31 +2402,31 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.2666601189823001</v>
+        <v>0.5125622646306491</v>
       </c>
       <c r="C42">
-        <v>1.199316275700525</v>
+        <v>2.305272601795622</v>
       </c>
       <c r="D42">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E42">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="J42">
-        <v>0.343691712738978</v>
+        <v>0.6606289807737241</v>
       </c>
       <c r="K42">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="L42">
-        <v>6.710270184450586</v>
+        <v>12.89818400723736</v>
       </c>
       <c r="M42">
-        <v>4.222455566337862</v>
+        <v>8.116216986793138</v>
       </c>
       <c r="P42">
-        <v>13.54517583365679</v>
+        <v>26.03593678205887</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2434,43 +2434,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2213782119853058</v>
+        <v>0.4255233895046897</v>
       </c>
       <c r="C43">
-        <v>0.9956587949211911</v>
+        <v>1.913811216585045</v>
       </c>
       <c r="D43">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E43">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F43">
-        <v>0.08862903267281663</v>
+        <v>0.1703587993291865</v>
       </c>
       <c r="G43">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="H43">
-        <v>0.04203055471841131</v>
+        <v>0.08078926984796422</v>
       </c>
       <c r="I43">
-        <v>0.3115143045036929</v>
+        <v>0.5987789924891342</v>
       </c>
       <c r="J43">
-        <v>0.3222109806927919</v>
+        <v>0.6193396694753662</v>
       </c>
       <c r="K43">
-        <v>0.4267460886919465</v>
+        <v>0.8202724219767357</v>
       </c>
       <c r="L43">
-        <v>9.06793268168998</v>
+        <v>17.42997838815858</v>
       </c>
       <c r="M43">
-        <v>5.706021035591704</v>
+        <v>10.9678607929637</v>
       </c>
       <c r="P43">
-        <v>17.56890920822349</v>
+        <v>33.77017877748349</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2478,43 +2478,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.3597395944761223</v>
+        <v>0.6914755079451205</v>
       </c>
       <c r="C44">
-        <v>1.617945541746936</v>
+        <v>3.109943226950695</v>
       </c>
       <c r="D44">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E44">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F44">
-        <v>0.3545161306912665</v>
+        <v>0.6814351973167461</v>
       </c>
       <c r="G44">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="H44">
-        <v>0.05604073962454841</v>
+        <v>0.1077190264639523</v>
       </c>
       <c r="I44">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="J44">
-        <v>0.5370183011546531</v>
+        <v>1.032232782458944</v>
       </c>
       <c r="K44">
-        <v>0.7112434811532443</v>
+        <v>1.36712070329456</v>
       </c>
       <c r="L44">
-        <v>12.51374710073217</v>
+        <v>24.05337017565885</v>
       </c>
       <c r="M44">
-        <v>7.874309029116554</v>
+        <v>15.1356478942899</v>
       </c>
       <c r="P44">
-        <v>25.03910019524541</v>
+        <v>48.12904887828611</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2522,49 +2522,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.038968199431039</v>
+        <v>1.997058634834511</v>
       </c>
       <c r="C45">
-        <v>4.672807753436953</v>
+        <v>8.981864005109355</v>
       </c>
       <c r="D45">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E45">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F45">
-        <v>1.152177424746616</v>
+        <v>2.214664391279425</v>
       </c>
       <c r="G45">
-        <v>1.33118513596079</v>
+        <v>2.558745081697087</v>
       </c>
       <c r="H45">
-        <v>0.2521833283104679</v>
+        <v>0.4847356190877856</v>
       </c>
       <c r="I45">
-        <v>1.869085827022158</v>
+        <v>3.592673954934807</v>
       </c>
       <c r="J45">
-        <v>0.9666329420783754</v>
+        <v>1.858019008426099</v>
       </c>
       <c r="K45">
-        <v>1.28023826607584</v>
+        <v>2.460817265930207</v>
       </c>
       <c r="L45">
-        <v>26.29700477690094</v>
+        <v>50.54693732565991</v>
       </c>
       <c r="M45">
-        <v>16.54746100321595</v>
+        <v>31.80679629959473</v>
       </c>
       <c r="N45">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O45">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P45">
-        <v>55.66659157055567</v>
+        <v>106.9998556535831</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,49 +2572,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>2.354659163843707</v>
+        <v>4.526021506549886</v>
       </c>
       <c r="C46">
-        <v>10.5901890005254</v>
+        <v>20.35599203095002</v>
       </c>
       <c r="D46">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E46">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F46">
-        <v>2.747500012857317</v>
+        <v>5.281122779204781</v>
       </c>
       <c r="G46">
-        <v>3.174364554983423</v>
+        <v>6.101622887123826</v>
       </c>
       <c r="H46">
-        <v>0.672488875494581</v>
+        <v>1.292628317567428</v>
       </c>
       <c r="I46">
-        <v>4.984228872059087</v>
+        <v>9.580463879826148</v>
       </c>
       <c r="J46">
-        <v>2.040669544387682</v>
+        <v>3.922484573343988</v>
       </c>
       <c r="K46">
-        <v>2.702725228382328</v>
+        <v>5.195058672519327</v>
       </c>
       <c r="L46">
-        <v>29.01738458140793</v>
+        <v>55.77593084210746</v>
       </c>
       <c r="M46">
-        <v>18.25926731389345</v>
+        <v>35.09715453748384</v>
       </c>
       <c r="N46">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O46">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P46">
-        <v>76.84603677772573</v>
+        <v>147.7100467404189</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2622,49 +2622,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>3.41375265527341</v>
+        <v>6.561764085884819</v>
       </c>
       <c r="C47">
-        <v>15.35351118986428</v>
+        <v>29.51183887393075</v>
       </c>
       <c r="D47">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E47">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F47">
-        <v>2.6588709801845</v>
+        <v>5.110763979875595</v>
       </c>
       <c r="G47">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="H47">
-        <v>0.560407396245484</v>
+        <v>1.077190264639523</v>
       </c>
       <c r="I47">
-        <v>4.153524060049239</v>
+        <v>7.983719899855125</v>
       </c>
       <c r="J47">
-        <v>1.890304420064379</v>
+        <v>3.633459394255483</v>
       </c>
       <c r="K47">
-        <v>2.50357705365942</v>
+        <v>4.812264875596849</v>
       </c>
       <c r="L47">
-        <v>18.31722401701376</v>
+        <v>35.20855634408035</v>
       </c>
       <c r="M47">
-        <v>11.52616249189525</v>
+        <v>22.15507880178667</v>
       </c>
       <c r="N47">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O47">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P47">
-        <v>64.04836223448659</v>
+        <v>123.1109238159892</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2672,49 +2672,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.861540402243689</v>
+        <v>7.422481851019309</v>
       </c>
       <c r="C48">
-        <v>17.36745738868215</v>
+        <v>33.38295701656868</v>
       </c>
       <c r="D48">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E48">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F48">
-        <v>2.924758078202949</v>
+        <v>5.621840377863155</v>
       </c>
       <c r="G48">
-        <v>3.379162268208161</v>
+        <v>6.495275976615685</v>
       </c>
       <c r="H48">
-        <v>0.4483259169963872</v>
+        <v>0.8617522117116188</v>
       </c>
       <c r="I48">
-        <v>3.322819248039391</v>
+        <v>6.386975919884097</v>
       </c>
       <c r="J48">
-        <v>2.169553936664799</v>
+        <v>4.170220441134135</v>
       </c>
       <c r="K48">
-        <v>2.873423663859107</v>
+        <v>5.523167641310019</v>
       </c>
       <c r="L48">
-        <v>16.50363748067577</v>
+        <v>31.72256066644864</v>
       </c>
       <c r="M48">
-        <v>10.38495828477691</v>
+        <v>19.96150664319394</v>
       </c>
       <c r="N48">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O48">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P48">
-        <v>63.81652797646758</v>
+        <v>122.6653022781204</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2722,49 +2722,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.77225897281599</v>
+        <v>5.328713354933729</v>
       </c>
       <c r="C49">
-        <v>12.46836354549037</v>
+        <v>23.96613591678091</v>
       </c>
       <c r="D49">
-        <v>0.005588751807016867</v>
+        <v>0.01074245107815817</v>
       </c>
       <c r="E49">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="F49">
-        <v>3.367903241567032</v>
+        <v>6.473634374509089</v>
       </c>
       <c r="G49">
-        <v>3.891156551270001</v>
+        <v>7.479408700345335</v>
       </c>
       <c r="H49">
-        <v>0.3082240679350162</v>
+        <v>0.5924546455517378</v>
       </c>
       <c r="I49">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="J49">
-        <v>2.728052969865638</v>
+        <v>5.243742534891433</v>
       </c>
       <c r="K49">
-        <v>3.613116884258481</v>
+        <v>6.944973172736362</v>
       </c>
       <c r="L49">
-        <v>22.30711439695736</v>
+        <v>42.87774683487012</v>
       </c>
       <c r="M49">
-        <v>14.03681174755559</v>
+        <v>26.9809375506907</v>
       </c>
       <c r="N49">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O49">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P49">
-        <v>68.4531281409086</v>
+        <v>131.5775696600699</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.659523142458712</v>
+        <v>0.9674119404100386</v>
       </c>
       <c r="C2">
-        <v>7.463782444290148</v>
+        <v>4.350980153570689</v>
       </c>
       <c r="D2">
-        <v>0.006856506707939326</v>
+        <v>0.003996971352225096</v>
       </c>
       <c r="E2">
-        <v>0.6521759112408776</v>
+        <v>0.3801831668628991</v>
       </c>
       <c r="F2">
-        <v>2.670015948364913</v>
+        <v>1.556474413310399</v>
       </c>
       <c r="G2">
-        <v>3.084842201298359</v>
+        <v>1.798295608818888</v>
       </c>
       <c r="H2">
-        <v>0.08657790912055978</v>
+        <v>0.05047022299121007</v>
       </c>
       <c r="I2">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="J2">
-        <v>2.123891302674403</v>
+        <v>1.238113379543528</v>
       </c>
       <c r="K2">
-        <v>2.812946673246077</v>
+        <v>1.63979526998531</v>
       </c>
       <c r="L2">
-        <v>12.18795311216846</v>
+        <v>7.10491530259743</v>
       </c>
       <c r="M2">
-        <v>7.66930228532284</v>
+        <v>4.470787068653314</v>
       </c>
       <c r="N2">
-        <v>0.07262751907224374</v>
+        <v>0.04233790259095137</v>
       </c>
       <c r="O2">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="P2">
-        <v>41.43402136809109</v>
+        <v>24.15378609984845</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.704217559644366</v>
+        <v>0.9934663603508247</v>
       </c>
       <c r="C3">
-        <v>7.6647976623448</v>
+        <v>4.468161117894021</v>
       </c>
       <c r="D3">
-        <v>0.008126230172372536</v>
+        <v>0.00473715123226678</v>
       </c>
       <c r="E3">
-        <v>0.7729492281373364</v>
+        <v>0.4505874570226953</v>
       </c>
       <c r="F3">
-        <v>2.053858421819165</v>
+        <v>1.197288010238769</v>
       </c>
       <c r="G3">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="H3">
-        <v>0.1190446250407697</v>
+        <v>0.06939655661291382</v>
       </c>
       <c r="I3">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="J3">
-        <v>1.841811989037958</v>
+        <v>1.073676446322902</v>
       </c>
       <c r="K3">
-        <v>2.439352193205581</v>
+        <v>1.422009960690386</v>
       </c>
       <c r="L3">
-        <v>10.36676471609731</v>
+        <v>6.043261291864482</v>
       </c>
       <c r="M3">
-        <v>6.523314587515978</v>
+        <v>3.802738426210865</v>
       </c>
       <c r="N3">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O3">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P3">
-        <v>36.90999362458371</v>
+        <v>21.51652341526121</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.721706679412667</v>
+        <v>1.003661568153741</v>
       </c>
       <c r="C4">
-        <v>7.743455791148793</v>
+        <v>4.514014538716195</v>
       </c>
       <c r="D4">
-        <v>0.009649898329692385</v>
+        <v>0.005625367088316802</v>
       </c>
       <c r="E4">
-        <v>0.917877208413087</v>
+        <v>0.5350726052144508</v>
       </c>
       <c r="F4">
-        <v>2.190782316607109</v>
+        <v>1.277107210921353</v>
       </c>
       <c r="G4">
-        <v>2.531152575424294</v>
+        <v>1.475524602107805</v>
       </c>
       <c r="H4">
-        <v>0.1190446250407697</v>
+        <v>0.06939655661291382</v>
       </c>
       <c r="I4">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="J4">
-        <v>1.75884748502724</v>
+        <v>1.025312642434484</v>
       </c>
       <c r="K4">
-        <v>2.329471463781907</v>
+        <v>1.357955457956585</v>
       </c>
       <c r="L4">
-        <v>11.48749603675649</v>
+        <v>6.69658683693091</v>
       </c>
       <c r="M4">
-        <v>7.228537786166353</v>
+        <v>4.213845283098527</v>
       </c>
       <c r="N4">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O4">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P4">
-        <v>39.02732677092727</v>
+        <v>22.75081374553279</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.01707847994396</v>
+        <v>1.175847299936324</v>
       </c>
       <c r="C5">
-        <v>9.071904188727368</v>
+        <v>5.288427868157351</v>
       </c>
       <c r="D5">
-        <v>0.008634119558145819</v>
+        <v>0.005033223184283454</v>
       </c>
       <c r="E5">
-        <v>0.82125855489592</v>
+        <v>0.4787491730866137</v>
       </c>
       <c r="F5">
-        <v>3.080787632728746</v>
+        <v>1.795932015358153</v>
       </c>
       <c r="G5">
-        <v>3.559433309190414</v>
+        <v>2.074956471714102</v>
       </c>
       <c r="H5">
-        <v>0.1623335796010496</v>
+        <v>0.09463166810851883</v>
       </c>
       <c r="I5">
-        <v>1.203154050328635</v>
+        <v>0.7013735239125063</v>
       </c>
       <c r="J5">
-        <v>2.289820310695839</v>
+        <v>1.334840987320365</v>
       </c>
       <c r="K5">
-        <v>3.032708132093427</v>
+        <v>1.767904275452912</v>
       </c>
       <c r="L5">
-        <v>12.04786169708607</v>
+        <v>7.023249609464124</v>
       </c>
       <c r="M5">
-        <v>7.581149385491541</v>
+        <v>4.419398711542358</v>
       </c>
       <c r="N5">
-        <v>0.08300287893970713</v>
+        <v>0.04838617438965873</v>
       </c>
       <c r="O5">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="P5">
-        <v>45.30409117865258</v>
+        <v>26.40982679561763</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.976270533817926</v>
+        <v>1.152058481729519</v>
       </c>
       <c r="C6">
-        <v>8.888368554851381</v>
+        <v>5.181436552905609</v>
       </c>
       <c r="D6">
-        <v>0.007364396093712608</v>
+        <v>0.00429304330424177</v>
       </c>
       <c r="E6">
-        <v>0.7004852379994613</v>
+        <v>0.4083448829268177</v>
       </c>
       <c r="F6">
-        <v>2.738477895758885</v>
+        <v>1.596384013651692</v>
       </c>
       <c r="G6">
-        <v>3.163940719280367</v>
+        <v>1.844405752634756</v>
       </c>
       <c r="H6">
-        <v>0.1406891023209097</v>
+        <v>0.08201411236071635</v>
       </c>
       <c r="I6">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="J6">
-        <v>2.223448707487265</v>
+        <v>1.296149944209631</v>
       </c>
       <c r="K6">
-        <v>2.944803548554486</v>
+        <v>1.716660673265871</v>
       </c>
       <c r="L6">
-        <v>12.18795311216846</v>
+        <v>7.10491530259743</v>
       </c>
       <c r="M6">
-        <v>7.66930228532284</v>
+        <v>4.470787068653314</v>
       </c>
       <c r="N6">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O6">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P6">
-        <v>44.00481340767412</v>
+        <v>25.65241835858212</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.250266743521296</v>
+        <v>1.311783403975206</v>
       </c>
       <c r="C7">
-        <v>10.12067923944729</v>
+        <v>5.899806812452995</v>
       </c>
       <c r="D7">
-        <v>0.007110451400825968</v>
+        <v>0.004145007328233433</v>
       </c>
       <c r="E7">
-        <v>0.6763305746201694</v>
+        <v>0.3942640248948585</v>
       </c>
       <c r="F7">
-        <v>2.943863737940802</v>
+        <v>1.716112814675569</v>
       </c>
       <c r="G7">
-        <v>3.401236273226395</v>
+        <v>1.982736184082363</v>
       </c>
       <c r="H7">
-        <v>0.1515113409609796</v>
+        <v>0.08832289023461762</v>
       </c>
       <c r="I7">
-        <v>1.122943780306726</v>
+        <v>0.6546152889850058</v>
       </c>
       <c r="J7">
-        <v>1.825219088235815</v>
+        <v>1.06400368554522</v>
       </c>
       <c r="K7">
-        <v>2.417376047320847</v>
+        <v>1.409199060143626</v>
       </c>
       <c r="L7">
-        <v>10.78703896134451</v>
+        <v>6.288258371264392</v>
       </c>
       <c r="M7">
-        <v>6.787773287009869</v>
+        <v>3.956903497543737</v>
       </c>
       <c r="N7">
-        <v>0.1037535986746339</v>
+        <v>0.0604827179870734</v>
       </c>
       <c r="O7">
-        <v>0.4312060742147036</v>
+        <v>0.2513697424879512</v>
       </c>
       <c r="P7">
-        <v>43.02630919822487</v>
+        <v>25.08200350160085</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>2.499000891337122</v>
+        <v>1.456781914950012</v>
       </c>
       <c r="C8">
-        <v>11.23937262688188</v>
+        <v>6.551944353035021</v>
       </c>
       <c r="D8">
-        <v>0.005586783243506119</v>
+        <v>0.003256791472183411</v>
       </c>
       <c r="E8">
-        <v>0.5314025943444187</v>
+        <v>0.309778876703103</v>
       </c>
       <c r="F8">
-        <v>4.039254896244356</v>
+        <v>2.354666420136245</v>
       </c>
       <c r="G8">
-        <v>4.666812560938544</v>
+        <v>2.720498485136266</v>
       </c>
       <c r="H8">
-        <v>0.2489114887216095</v>
+        <v>0.1451018910997289</v>
       </c>
       <c r="I8">
-        <v>1.844836210503906</v>
+        <v>1.07543940333251</v>
       </c>
       <c r="J8">
-        <v>1.957962294652965</v>
+        <v>1.14138577176669</v>
       </c>
       <c r="K8">
-        <v>2.593185214398727</v>
+        <v>1.511686264517707</v>
       </c>
       <c r="L8">
-        <v>7.564936414449392</v>
+        <v>4.409947429198404</v>
       </c>
       <c r="M8">
-        <v>4.760256590890038</v>
+        <v>2.774971283991712</v>
       </c>
       <c r="N8">
-        <v>0.1141289585420973</v>
+        <v>0.06653098978578076</v>
       </c>
       <c r="O8">
-        <v>0.4743266816361741</v>
+        <v>0.2765067167367464</v>
       </c>
       <c r="P8">
-        <v>42.53997420678473</v>
+        <v>24.79849659186211</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>2.897364174948404</v>
+        <v>1.689006092683102</v>
       </c>
       <c r="C9">
-        <v>13.03103000519509</v>
+        <v>7.596383382873416</v>
       </c>
       <c r="D9">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E9">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F9">
-        <v>3.354635422304636</v>
+        <v>1.955570416723323</v>
       </c>
       <c r="G9">
-        <v>3.87582738111845</v>
+        <v>2.259397046977577</v>
       </c>
       <c r="H9">
-        <v>0.3030226819219592</v>
+        <v>0.1766457804692352</v>
       </c>
       <c r="I9">
-        <v>2.245887560613451</v>
+        <v>1.309230577970012</v>
       </c>
       <c r="J9">
-        <v>0.962388246524339</v>
+        <v>0.5610201251056611</v>
       </c>
       <c r="K9">
-        <v>1.274616461314629</v>
+        <v>0.7430322317120936</v>
       </c>
       <c r="L9">
-        <v>6.584296508872618</v>
+        <v>3.838287577265278</v>
       </c>
       <c r="M9">
-        <v>4.143186292070959</v>
+        <v>2.415252784215009</v>
       </c>
       <c r="N9">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O9">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P9">
-        <v>39.22795911705077</v>
+        <v>22.86777151629626</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.245203334784598</v>
+        <v>1.891777447874432</v>
       </c>
       <c r="C10">
-        <v>14.59545278918565</v>
+        <v>8.508356974781092</v>
       </c>
       <c r="D10">
-        <v>0.003301281007526343</v>
+        <v>0.00192446768810838</v>
       </c>
       <c r="E10">
-        <v>0.3140106239307929</v>
+        <v>0.1830511544154699</v>
       </c>
       <c r="F10">
-        <v>2.122320369213137</v>
+        <v>1.237197610580061</v>
       </c>
       <c r="G10">
-        <v>2.452054057442285</v>
+        <v>1.429414458291937</v>
       </c>
       <c r="H10">
-        <v>0.4437117842428689</v>
+        <v>0.2586598928299516</v>
       </c>
       <c r="I10">
-        <v>3.288621070898266</v>
+        <v>1.917087632027517</v>
       </c>
       <c r="J10">
-        <v>0.6471231312836072</v>
+        <v>0.3772376703296686</v>
       </c>
       <c r="K10">
-        <v>0.8570696895046641</v>
+        <v>0.4996251213236491</v>
       </c>
       <c r="L10">
-        <v>7.424844999366995</v>
+        <v>4.328281736065101</v>
       </c>
       <c r="M10">
-        <v>4.672103691058742</v>
+        <v>2.723582926880754</v>
       </c>
       <c r="N10">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O10">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P10">
-        <v>40.172808756497</v>
+        <v>23.41856758518275</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.256096450110729</v>
+        <v>1.315181806576178</v>
       </c>
       <c r="C11">
-        <v>10.14689861571529</v>
+        <v>5.915091286060387</v>
       </c>
       <c r="D11">
-        <v>0.004317059779072909</v>
+        <v>0.002516611592141727</v>
       </c>
       <c r="E11">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="F11">
-        <v>1.095391158303554</v>
+        <v>0.6385536054606766</v>
       </c>
       <c r="G11">
-        <v>1.265576287712147</v>
+        <v>0.7377623010539027</v>
       </c>
       <c r="H11">
-        <v>0.4328895456027991</v>
+        <v>0.2523511149560503</v>
       </c>
       <c r="I11">
-        <v>3.208410800876358</v>
+        <v>1.870329397100017</v>
       </c>
       <c r="J11">
-        <v>0.6637160320857507</v>
+        <v>0.3869104311073523</v>
       </c>
       <c r="K11">
-        <v>0.8790458353893992</v>
+        <v>0.5124360218704093</v>
       </c>
       <c r="L11">
-        <v>7.564936414449392</v>
+        <v>4.409947429198404</v>
       </c>
       <c r="M11">
-        <v>4.760256590890038</v>
+        <v>2.774971283991712</v>
       </c>
       <c r="N11">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O11">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P11">
-        <v>32.79515600294036</v>
+        <v>19.11779636760554</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.789719922956056</v>
+        <v>1.043309598498415</v>
       </c>
       <c r="C12">
-        <v>8.04934851427544</v>
+        <v>4.692333397469092</v>
       </c>
       <c r="D12">
-        <v>0.005332838550619476</v>
+        <v>0.003108755496175074</v>
       </c>
       <c r="E12">
-        <v>0.507247930965127</v>
+        <v>0.2956980186711438</v>
       </c>
       <c r="F12">
-        <v>1.643086737455332</v>
+        <v>0.9578304081910151</v>
       </c>
       <c r="G12">
-        <v>1.898364431568221</v>
+        <v>1.106643451580854</v>
       </c>
       <c r="H12">
-        <v>0.3246671592020992</v>
+        <v>0.1892633362170377</v>
       </c>
       <c r="I12">
-        <v>2.406308100657269</v>
+        <v>1.402747047825013</v>
       </c>
       <c r="J12">
-        <v>0.4480083216578818</v>
+        <v>0.2611645409974629</v>
       </c>
       <c r="K12">
-        <v>0.5933559388878443</v>
+        <v>0.3458943147625262</v>
       </c>
       <c r="L12">
-        <v>10.5068561311797</v>
+        <v>6.124926984997783</v>
       </c>
       <c r="M12">
-        <v>6.611467487347278</v>
+        <v>3.854126783321822</v>
       </c>
       <c r="P12">
-        <v>34.78376351470288</v>
+        <v>20.27704663802834</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.583736956796076</v>
+        <v>0.9232327065974024</v>
       </c>
       <c r="C13">
-        <v>7.122930552806167</v>
+        <v>4.152281996674603</v>
       </c>
       <c r="D13">
-        <v>0.005586783243506119</v>
+        <v>0.003256791472183411</v>
       </c>
       <c r="E13">
-        <v>0.5314025943444187</v>
+        <v>0.309778876703103</v>
       </c>
       <c r="F13">
-        <v>1.232315053091499</v>
+        <v>0.7183728061432613</v>
       </c>
       <c r="G13">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="H13">
-        <v>0.1082223864006998</v>
+        <v>0.06308777873901258</v>
       </c>
       <c r="I13">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="J13">
-        <v>0.4646012224600256</v>
+        <v>0.2708373017751466</v>
       </c>
       <c r="K13">
-        <v>0.6153320847725794</v>
+        <v>0.3587052153092865</v>
       </c>
       <c r="L13">
-        <v>6.164022263625429</v>
+        <v>3.593290497865367</v>
       </c>
       <c r="M13">
-        <v>3.878727592577069</v>
+        <v>2.261087712882136</v>
       </c>
       <c r="P13">
-        <v>23.93275351401272</v>
+        <v>13.95149662212215</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.004652768912358</v>
+        <v>0.5856580482341808</v>
       </c>
       <c r="C14">
-        <v>4.518472510185019</v>
+        <v>2.63402428500708</v>
       </c>
       <c r="D14">
-        <v>0.00457100447195955</v>
+        <v>0.002664647568150064</v>
       </c>
       <c r="E14">
-        <v>0.4347839408272517</v>
+        <v>0.253455444575266</v>
       </c>
       <c r="F14">
-        <v>0.8900053161216378</v>
+        <v>0.5188248044367997</v>
       </c>
       <c r="G14">
-        <v>1.02828073376612</v>
+        <v>0.5994318696062958</v>
       </c>
       <c r="H14">
-        <v>0.1623335796010496</v>
+        <v>0.09463166810851883</v>
       </c>
       <c r="I14">
-        <v>1.203154050328635</v>
+        <v>0.7013735239125063</v>
       </c>
       <c r="J14">
-        <v>0.3816367184493067</v>
+        <v>0.2224734978867277</v>
       </c>
       <c r="K14">
-        <v>0.5054513553489044</v>
+        <v>0.2946507125754854</v>
       </c>
       <c r="L14">
-        <v>7.144662169202202</v>
+        <v>4.164950349798493</v>
       </c>
       <c r="M14">
-        <v>4.495797891396149</v>
+        <v>2.62080621265884</v>
       </c>
       <c r="P14">
-        <v>21.77380203861059</v>
+        <v>12.69294506436834</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.6373812537780532</v>
+        <v>0.3715586843729425</v>
       </c>
       <c r="C15">
-        <v>2.866651805301133</v>
+        <v>1.671102447741435</v>
       </c>
       <c r="D15">
-        <v>0.00457100447195955</v>
+        <v>0.002664647568150064</v>
       </c>
       <c r="E15">
-        <v>0.4347839408272517</v>
+        <v>0.253455444575266</v>
       </c>
       <c r="F15">
-        <v>0.2053858421819165</v>
+        <v>0.1197288010238769</v>
       </c>
       <c r="G15">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H15">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I15">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J15">
-        <v>0.1825219088235815</v>
+        <v>0.1064003685545219</v>
       </c>
       <c r="K15">
-        <v>0.2417376047320847</v>
+        <v>0.1409199060143626</v>
       </c>
       <c r="L15">
-        <v>5.183382358048654</v>
+        <v>3.021630645932241</v>
       </c>
       <c r="M15">
-        <v>3.261657293757989</v>
+        <v>1.901369213105432</v>
       </c>
       <c r="P15">
-        <v>14.07466114382646</v>
+        <v>8.20476370554845</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,49 +1156,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.3128609202995931</v>
+        <v>0.1823809395854992</v>
       </c>
       <c r="C16">
-        <v>1.407106526382568</v>
+        <v>0.8202667502633264</v>
       </c>
       <c r="D16">
-        <v>0.004317059779072909</v>
+        <v>0.002516611592141727</v>
       </c>
       <c r="E16">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="F16">
-        <v>0.06846194739397216</v>
+        <v>0.03990960034129229</v>
       </c>
       <c r="G16">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="H16">
-        <v>0.07575567048048981</v>
+        <v>0.04416144511730881</v>
       </c>
       <c r="I16">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="J16">
-        <v>0.3318580160428753</v>
+        <v>0.1934552155536762</v>
       </c>
       <c r="K16">
-        <v>0.4395229176946996</v>
+        <v>0.2562180109352046</v>
       </c>
       <c r="L16">
-        <v>4.903199527883864</v>
+        <v>2.858299259665632</v>
       </c>
       <c r="M16">
-        <v>3.085351494095395</v>
+        <v>1.798592498883517</v>
       </c>
       <c r="N16">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O16">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P16">
-        <v>11.7331297329248</v>
+        <v>6.83977795283678</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,43 +1206,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.2215288503984696</v>
+        <v>0.1291392988369374</v>
       </c>
       <c r="C17">
-        <v>0.9963362981839307</v>
+        <v>0.5808099970808647</v>
       </c>
       <c r="D17">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E17">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F17">
-        <v>0.1369238947879443</v>
+        <v>0.07981920068258458</v>
       </c>
       <c r="G17">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="H17">
-        <v>0.04328895456027989</v>
+        <v>0.02523511149560503</v>
       </c>
       <c r="I17">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="J17">
-        <v>0.3484509168450192</v>
+        <v>0.2031279763313601</v>
       </c>
       <c r="K17">
-        <v>0.4614990635794344</v>
+        <v>0.2690289114819648</v>
       </c>
       <c r="L17">
-        <v>4.763108112801466</v>
+        <v>2.776633566532331</v>
       </c>
       <c r="M17">
-        <v>2.997198594264098</v>
+        <v>1.74720414177256</v>
       </c>
       <c r="P17">
-        <v>10.6670502741219</v>
+        <v>6.218311477627655</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,37 +1250,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1535156068550798</v>
+        <v>0.08949126849226362</v>
       </c>
       <c r="C18">
-        <v>0.6904435750572849</v>
+        <v>0.4024911383279677</v>
       </c>
       <c r="D18">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E18">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F18">
-        <v>0.2053858421819165</v>
+        <v>0.1197288010238769</v>
       </c>
       <c r="G18">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="J18">
-        <v>0.298672214438588</v>
+        <v>0.1741096939983086</v>
       </c>
       <c r="K18">
-        <v>0.3955706259252295</v>
+        <v>0.2305962098416842</v>
       </c>
       <c r="L18">
-        <v>4.202742452471885</v>
+        <v>2.449970793999112</v>
       </c>
       <c r="M18">
-        <v>2.64458699493891</v>
+        <v>1.541650713328729</v>
       </c>
       <c r="P18">
-        <v>8.974664514247991</v>
+        <v>5.231742414507354</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,43 +1288,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1399129581464018</v>
+        <v>0.08156166242332882</v>
       </c>
       <c r="C19">
-        <v>0.6292650304319561</v>
+        <v>0.3668273665773886</v>
       </c>
       <c r="D19">
-        <v>0.002539446928866418</v>
+        <v>0.001480359760083369</v>
       </c>
       <c r="E19">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="F19">
-        <v>0.2053858421819165</v>
+        <v>0.1197288010238769</v>
       </c>
       <c r="G19">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H19">
-        <v>0.02164447728013994</v>
+        <v>0.01261755574780252</v>
       </c>
       <c r="I19">
-        <v>0.1604205400438179</v>
+        <v>0.09351646985500082</v>
       </c>
       <c r="J19">
-        <v>0.2820793136364441</v>
+        <v>0.1644369332206248</v>
       </c>
       <c r="K19">
-        <v>0.3735944800404946</v>
+        <v>0.217785309294924</v>
       </c>
       <c r="L19">
-        <v>6.444205093790222</v>
+        <v>3.756621884131974</v>
       </c>
       <c r="M19">
-        <v>4.055033392239663</v>
+        <v>2.36386442710405</v>
       </c>
       <c r="P19">
-        <v>12.79292276245887</v>
+        <v>7.457579780906252</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1332,49 +1332,49 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.240961205696581</v>
+        <v>0.1404673075068441</v>
       </c>
       <c r="C20">
-        <v>1.083734219077258</v>
+        <v>0.6317582424388354</v>
       </c>
       <c r="D20">
-        <v>0.002539446928866418</v>
+        <v>0.001480359760083369</v>
       </c>
       <c r="E20">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="F20">
-        <v>0.2053858421819165</v>
+        <v>0.1197288010238769</v>
       </c>
       <c r="G20">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H20">
-        <v>0.04328895456027989</v>
+        <v>0.02523511149560503</v>
       </c>
       <c r="I20">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="J20">
-        <v>0.4314154208557381</v>
+        <v>0.2514917802197791</v>
       </c>
       <c r="K20">
-        <v>0.5713797930031094</v>
+        <v>0.3330834142157661</v>
       </c>
       <c r="L20">
-        <v>11.76767886692128</v>
+        <v>6.859918223197512</v>
       </c>
       <c r="M20">
-        <v>7.404843585828947</v>
+        <v>4.316621997320442</v>
       </c>
       <c r="N20">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O20">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P20">
-        <v>22.60440657016949</v>
+        <v>13.17714243470345</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,49 +1382,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.7908968606331328</v>
+        <v>0.4610499528652058</v>
       </c>
       <c r="C21">
-        <v>3.557095380358418</v>
+        <v>2.073593586069404</v>
       </c>
       <c r="D21">
-        <v>0.002539446928866418</v>
+        <v>0.001480359760083369</v>
       </c>
       <c r="E21">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="F21">
-        <v>0.6846194739397212</v>
+        <v>0.399096003412923</v>
       </c>
       <c r="G21">
-        <v>0.7909851798200916</v>
+        <v>0.4611014381586891</v>
       </c>
       <c r="H21">
-        <v>0.2164447728013995</v>
+        <v>0.1261755574780252</v>
       </c>
       <c r="I21">
-        <v>1.604205400438179</v>
+        <v>0.9351646985500084</v>
       </c>
       <c r="J21">
-        <v>0.5143799248664569</v>
+        <v>0.2998555841081983</v>
       </c>
       <c r="K21">
-        <v>0.6812605224267844</v>
+        <v>0.3971379169495673</v>
       </c>
       <c r="L21">
-        <v>17.09115264005233</v>
+        <v>9.963214562263056</v>
       </c>
       <c r="M21">
-        <v>10.75465377941823</v>
+        <v>6.269379567536829</v>
       </c>
       <c r="N21">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O21">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P21">
-        <v>36.98327598276546</v>
+        <v>21.55924305351908</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1432,49 +1432,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.766401096598323</v>
+        <v>1.029715988094526</v>
       </c>
       <c r="C22">
-        <v>7.944471009203445</v>
+        <v>4.631195503039525</v>
       </c>
       <c r="D22">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E22">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F22">
-        <v>1.848472579637248</v>
+        <v>1.077559209214892</v>
       </c>
       <c r="G22">
-        <v>2.135659985514248</v>
+        <v>1.244973883028461</v>
       </c>
       <c r="H22">
-        <v>0.4653562615230091</v>
+        <v>0.271277448577754</v>
       </c>
       <c r="I22">
-        <v>3.449041610942085</v>
+        <v>2.010604101882518</v>
       </c>
       <c r="J22">
-        <v>1.426989468984365</v>
+        <v>0.8318574268808077</v>
       </c>
       <c r="K22">
-        <v>1.889948546087208</v>
+        <v>1.10173744702138</v>
       </c>
       <c r="L22">
-        <v>18.49206679087628</v>
+        <v>10.7798714935961</v>
       </c>
       <c r="M22">
-        <v>11.63618277773121</v>
+        <v>6.783263138646408</v>
       </c>
       <c r="N22">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O22">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P22">
-        <v>51.46384286083057</v>
+        <v>30.00062777623612</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1482,49 +1482,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.757451216802001</v>
+        <v>1.607444430259773</v>
       </c>
       <c r="C23">
-        <v>12.40176497476314</v>
+        <v>7.229556016296027</v>
       </c>
       <c r="D23">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E23">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F23">
-        <v>2.670015948364913</v>
+        <v>1.556474413310399</v>
       </c>
       <c r="G23">
-        <v>3.084842201298359</v>
+        <v>1.798295608818888</v>
       </c>
       <c r="H23">
-        <v>0.4220673069627291</v>
+        <v>0.246042337082149</v>
       </c>
       <c r="I23">
-        <v>3.12820053085445</v>
+        <v>1.823571162172516</v>
       </c>
       <c r="J23">
-        <v>1.576325576203658</v>
+        <v>0.9189122738799622</v>
       </c>
       <c r="K23">
-        <v>2.087733859049822</v>
+        <v>1.217035551942222</v>
       </c>
       <c r="L23">
-        <v>15.69023848922837</v>
+        <v>9.146557630930028</v>
       </c>
       <c r="M23">
-        <v>9.873124781105266</v>
+        <v>5.755495996427255</v>
       </c>
       <c r="N23">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O23">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P23">
-        <v>54.35446120137681</v>
+        <v>31.68570141351578</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1532,49 +1532,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.26463569008271</v>
+        <v>1.90310545654434</v>
       </c>
       <c r="C24">
-        <v>14.68285071007897</v>
+        <v>8.559305220139059</v>
       </c>
       <c r="D24">
-        <v>0.007618340786599254</v>
+        <v>0.004441079280250107</v>
       </c>
       <c r="E24">
-        <v>0.724639901378753</v>
+        <v>0.4224257409587768</v>
       </c>
       <c r="F24">
-        <v>3.012325685334774</v>
+        <v>1.756022415016861</v>
       </c>
       <c r="G24">
-        <v>3.480334791208404</v>
+        <v>2.028846327898233</v>
       </c>
       <c r="H24">
-        <v>0.4545340228829389</v>
+        <v>0.2649686707038528</v>
       </c>
       <c r="I24">
-        <v>3.368831340920177</v>
+        <v>1.963845866955017</v>
       </c>
       <c r="J24">
-        <v>2.090705501070115</v>
+        <v>1.218767857988161</v>
       </c>
       <c r="K24">
-        <v>2.768994381476606</v>
+        <v>1.614173468891789</v>
       </c>
       <c r="L24">
-        <v>15.26996424398118</v>
+        <v>8.901560551530114</v>
       </c>
       <c r="M24">
-        <v>9.608666081611375</v>
+        <v>5.601330925094382</v>
       </c>
       <c r="N24">
-        <v>0.07262751907224374</v>
+        <v>0.04233790259095137</v>
       </c>
       <c r="O24">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="P24">
-        <v>59.10857246183514</v>
+        <v>34.45709030333335</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1582,49 +1582,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.114240256434516</v>
+        <v>1.232487343285858</v>
       </c>
       <c r="C25">
-        <v>9.508893793194002</v>
+        <v>5.543169094947205</v>
       </c>
       <c r="D25">
-        <v>0.005078893857732835</v>
+        <v>0.002960719520166738</v>
       </c>
       <c r="E25">
-        <v>0.4830932675858352</v>
+        <v>0.2816171606391846</v>
       </c>
       <c r="F25">
-        <v>3.149249580122718</v>
+        <v>1.835841615699445</v>
       </c>
       <c r="G25">
-        <v>3.638531827172423</v>
+        <v>2.12106661552997</v>
       </c>
       <c r="H25">
-        <v>0.2380892500815394</v>
+        <v>0.1387931132258276</v>
       </c>
       <c r="I25">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="J25">
-        <v>1.941369393850822</v>
+        <v>1.131713010989006</v>
       </c>
       <c r="K25">
-        <v>2.571209068513992</v>
+        <v>1.498875363970947</v>
       </c>
       <c r="L25">
-        <v>16.25060414955795</v>
+        <v>9.473220403463237</v>
       </c>
       <c r="M25">
-        <v>10.22573638043045</v>
+        <v>5.961049424871087</v>
       </c>
       <c r="N25">
-        <v>0.08300287893970713</v>
+        <v>0.04838617438965873</v>
       </c>
       <c r="O25">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="P25">
-        <v>52.31868953959545</v>
+        <v>30.49895700292696</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1632,49 +1632,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.739195799180967</v>
+        <v>1.013856775956657</v>
       </c>
       <c r="C26">
-        <v>7.822113919952791</v>
+        <v>4.559867959538369</v>
       </c>
       <c r="D26">
-        <v>0.006856506707939326</v>
+        <v>0.003996971352225096</v>
       </c>
       <c r="E26">
-        <v>0.6521759112408776</v>
+        <v>0.3801831668628991</v>
       </c>
       <c r="F26">
-        <v>2.670015948364913</v>
+        <v>1.556474413310399</v>
       </c>
       <c r="G26">
-        <v>3.084842201298359</v>
+        <v>1.798295608818888</v>
       </c>
       <c r="H26">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I26">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J26">
-        <v>2.389377715508704</v>
+        <v>1.392877551986469</v>
       </c>
       <c r="K26">
-        <v>3.164565007401836</v>
+        <v>1.844769678733474</v>
       </c>
       <c r="L26">
-        <v>13.30868443282763</v>
+        <v>7.758240847663858</v>
       </c>
       <c r="M26">
-        <v>8.374525483973216</v>
+        <v>4.881893925540976</v>
       </c>
       <c r="N26">
-        <v>0.07262751907224374</v>
+        <v>0.04233790259095137</v>
       </c>
       <c r="O26">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="P26">
-        <v>44.40611727543758</v>
+        <v>25.88635673730935</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1682,49 +1682,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.733366092591535</v>
+        <v>1.010458373355685</v>
       </c>
       <c r="C27">
-        <v>7.795894543684789</v>
+        <v>4.544583485930977</v>
       </c>
       <c r="D27">
-        <v>0.007872285479485895</v>
+        <v>0.004589115256258443</v>
       </c>
       <c r="E27">
-        <v>0.7487945647580446</v>
+        <v>0.4365065989907361</v>
       </c>
       <c r="F27">
-        <v>1.985396474425192</v>
+        <v>1.157378409897476</v>
       </c>
       <c r="G27">
-        <v>2.293857021478267</v>
+        <v>1.337194170660199</v>
       </c>
       <c r="H27">
-        <v>0.1190446250407697</v>
+        <v>0.06939655661291382</v>
       </c>
       <c r="I27">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="J27">
-        <v>2.605085425936573</v>
+        <v>1.518623442096359</v>
       </c>
       <c r="K27">
-        <v>3.450254903903391</v>
+        <v>2.011311385841357</v>
       </c>
       <c r="L27">
-        <v>13.44877584791003</v>
+        <v>7.839906540797161</v>
       </c>
       <c r="M27">
-        <v>8.462678383804512</v>
+        <v>4.933282282651931</v>
       </c>
       <c r="N27">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O27">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P27">
-        <v>43.74731700840932</v>
+        <v>25.50231193048357</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1732,49 +1732,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.630374609511544</v>
+        <v>0.9504199274051787</v>
       </c>
       <c r="C28">
-        <v>7.332685562950156</v>
+        <v>4.274557785533734</v>
       </c>
       <c r="D28">
-        <v>0.006856506707939326</v>
+        <v>0.003996971352225096</v>
       </c>
       <c r="E28">
-        <v>0.6521759112408776</v>
+        <v>0.3801831668628991</v>
       </c>
       <c r="F28">
-        <v>2.122320369213137</v>
+        <v>1.237197610580061</v>
       </c>
       <c r="G28">
-        <v>2.452054057442285</v>
+        <v>1.429414458291937</v>
       </c>
       <c r="H28">
-        <v>0.1839780568811896</v>
+        <v>0.1072492238563214</v>
       </c>
       <c r="I28">
-        <v>1.363574590372453</v>
+        <v>0.7948899937675069</v>
       </c>
       <c r="J28">
-        <v>1.941369393850822</v>
+        <v>1.131713010989006</v>
       </c>
       <c r="K28">
-        <v>2.571209068513992</v>
+        <v>1.498875363970947</v>
       </c>
       <c r="L28">
-        <v>10.5068561311797</v>
+        <v>6.124926984997783</v>
       </c>
       <c r="M28">
-        <v>6.611467487347278</v>
+        <v>3.854126783321822</v>
       </c>
       <c r="N28">
-        <v>0.08300287893970713</v>
+        <v>0.04838617438965873</v>
       </c>
       <c r="O28">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="P28">
-        <v>37.80288948352285</v>
+        <v>22.03703324930945</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1782,49 +1782,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.015135244414147</v>
+        <v>1.174714499069333</v>
       </c>
       <c r="C29">
-        <v>9.063164396638033</v>
+        <v>5.283333043621555</v>
       </c>
       <c r="D29">
-        <v>0.006602562015052686</v>
+        <v>0.003848935376216759</v>
       </c>
       <c r="E29">
-        <v>0.6280212478615858</v>
+        <v>0.3661023088309399</v>
       </c>
       <c r="F29">
-        <v>2.533092053576969</v>
+        <v>1.476655212627815</v>
       </c>
       <c r="G29">
-        <v>2.926645165334339</v>
+        <v>1.70607532118715</v>
       </c>
       <c r="H29">
-        <v>0.1406891023209097</v>
+        <v>0.08201411236071635</v>
       </c>
       <c r="I29">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="J29">
-        <v>2.173670005080835</v>
+        <v>1.267131661876579</v>
       </c>
       <c r="K29">
-        <v>2.878875110900282</v>
+        <v>1.678227971625591</v>
       </c>
       <c r="L29">
-        <v>13.30868443282763</v>
+        <v>7.758240847663858</v>
       </c>
       <c r="M29">
-        <v>8.374525483973216</v>
+        <v>4.881893925540976</v>
       </c>
       <c r="N29">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O29">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P29">
-        <v>45.41281411896142</v>
+        <v>26.47320637012325</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1832,49 +1832,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.756684918949267</v>
+        <v>1.024051983759573</v>
       </c>
       <c r="C30">
-        <v>7.900772048756783</v>
+        <v>4.605721380360541</v>
       </c>
       <c r="D30">
-        <v>0.008888064251032462</v>
+        <v>0.005181259160291791</v>
       </c>
       <c r="E30">
-        <v>0.8454132182752118</v>
+        <v>0.4928300311185729</v>
       </c>
       <c r="F30">
-        <v>2.396168158789025</v>
+        <v>1.39683601194523</v>
       </c>
       <c r="G30">
-        <v>2.768448129370321</v>
+        <v>1.613855033555412</v>
       </c>
       <c r="H30">
-        <v>0.1298668636808397</v>
+        <v>0.07570533448681512</v>
       </c>
       <c r="I30">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="J30">
-        <v>1.89159069144439</v>
+        <v>1.102694728655955</v>
       </c>
       <c r="K30">
-        <v>2.505280630859787</v>
+        <v>1.460442662330667</v>
       </c>
       <c r="L30">
-        <v>11.76767886692128</v>
+        <v>6.859918223197512</v>
       </c>
       <c r="M30">
-        <v>7.404843585828947</v>
+        <v>4.316621997320442</v>
       </c>
       <c r="N30">
-        <v>0.08300287893970713</v>
+        <v>0.04838617438965873</v>
       </c>
       <c r="O30">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="P30">
-        <v>40.76612615570127</v>
+        <v>23.76443943340104</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1882,49 +1882,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.197799384216397</v>
+        <v>1.281197780566457</v>
       </c>
       <c r="C31">
-        <v>9.884704853035313</v>
+        <v>5.762246549986481</v>
       </c>
       <c r="D31">
-        <v>0.008634119558145819</v>
+        <v>0.005033223184283454</v>
       </c>
       <c r="E31">
-        <v>0.82125855489592</v>
+        <v>0.4787491730866137</v>
       </c>
       <c r="F31">
-        <v>3.423097369698608</v>
+        <v>1.995480017064615</v>
       </c>
       <c r="G31">
-        <v>3.954925899100459</v>
+        <v>2.305507190793447</v>
       </c>
       <c r="H31">
-        <v>0.1839780568811896</v>
+        <v>0.1072492238563214</v>
       </c>
       <c r="I31">
-        <v>1.363574590372453</v>
+        <v>0.7948899937675069</v>
       </c>
       <c r="J31">
-        <v>1.75884748502724</v>
+        <v>1.025312642434484</v>
       </c>
       <c r="K31">
-        <v>2.329471463781907</v>
+        <v>1.357955457956585</v>
       </c>
       <c r="L31">
-        <v>10.5068561311797</v>
+        <v>6.124926984997783</v>
       </c>
       <c r="M31">
-        <v>6.611467487347278</v>
+        <v>3.854126783321822</v>
       </c>
       <c r="N31">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O31">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P31">
-        <v>43.15160732967248</v>
+        <v>25.1550455131114</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,49 +1932,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>2.734132390444271</v>
+        <v>1.593850819855884</v>
       </c>
       <c r="C32">
-        <v>12.29688746969114</v>
+        <v>7.168418121866465</v>
       </c>
       <c r="D32">
-        <v>0.006602562015052686</v>
+        <v>0.003848935376216759</v>
       </c>
       <c r="E32">
-        <v>0.6280212478615858</v>
+        <v>0.3661023088309399</v>
       </c>
       <c r="F32">
-        <v>4.586950475396137</v>
+        <v>2.673943222866584</v>
       </c>
       <c r="G32">
-        <v>5.299600704794615</v>
+        <v>3.089379635663218</v>
       </c>
       <c r="H32">
-        <v>0.2597337273616793</v>
+        <v>0.1514106689736302</v>
       </c>
       <c r="I32">
-        <v>1.925046480525815</v>
+        <v>1.12219763826001</v>
       </c>
       <c r="J32">
-        <v>1.858404889840102</v>
+        <v>1.083349207100587</v>
       </c>
       <c r="K32">
-        <v>2.461328339090318</v>
+        <v>1.434820861237146</v>
       </c>
       <c r="L32">
-        <v>8.405484904943771</v>
+        <v>4.899941587998224</v>
       </c>
       <c r="M32">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="N32">
-        <v>0.1452550381444875</v>
+        <v>0.08467580518190275</v>
       </c>
       <c r="O32">
-        <v>0.6036885039005851</v>
+        <v>0.3519176394831318</v>
       </c>
       <c r="P32">
-        <v>46.50031072388738</v>
+        <v>27.10715787935139</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1982,49 +1982,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.26463569008271</v>
+        <v>1.90310545654434</v>
       </c>
       <c r="C33">
-        <v>14.68285071007897</v>
+        <v>8.559305220139059</v>
       </c>
       <c r="D33">
-        <v>0.006602562015052686</v>
+        <v>0.003848935376216759</v>
       </c>
       <c r="E33">
-        <v>0.6280212478615858</v>
+        <v>0.3661023088309399</v>
       </c>
       <c r="F33">
-        <v>3.012325685334774</v>
+        <v>1.756022415016861</v>
       </c>
       <c r="G33">
-        <v>3.480334791208404</v>
+        <v>2.028846327898233</v>
       </c>
       <c r="H33">
-        <v>0.389600591042519</v>
+        <v>0.2271160034604453</v>
       </c>
       <c r="I33">
-        <v>2.887569720788723</v>
+        <v>1.683296457390015</v>
       </c>
       <c r="J33">
-        <v>1.22787465935864</v>
+        <v>0.7157842975486023</v>
       </c>
       <c r="K33">
-        <v>1.626234795470388</v>
+        <v>0.9480066404602573</v>
       </c>
       <c r="L33">
-        <v>6.444205093790222</v>
+        <v>3.756621884131974</v>
       </c>
       <c r="M33">
-        <v>4.055033392239663</v>
+        <v>2.36386442710405</v>
       </c>
       <c r="N33">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O33">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P33">
-        <v>41.91927280842739</v>
+        <v>24.436661358091</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2032,49 +2032,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.385116292930999</v>
+        <v>1.973339110297761</v>
       </c>
       <c r="C34">
-        <v>15.2247178196176</v>
+        <v>8.875184341358482</v>
       </c>
       <c r="D34">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E34">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F34">
-        <v>2.053858421819165</v>
+        <v>1.197288010238769</v>
       </c>
       <c r="G34">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="H34">
-        <v>0.4870007388031491</v>
+        <v>0.2838950043255564</v>
       </c>
       <c r="I34">
-        <v>3.609462150985903</v>
+        <v>2.104120571737519</v>
       </c>
       <c r="J34">
-        <v>0.7466805360964698</v>
+        <v>0.4352742349957714</v>
       </c>
       <c r="K34">
-        <v>0.9889265648130738</v>
+        <v>0.5764905246042106</v>
       </c>
       <c r="L34">
-        <v>7.424844999366995</v>
+        <v>4.328281736065101</v>
       </c>
       <c r="M34">
-        <v>4.672103691058742</v>
+        <v>2.723582926880754</v>
       </c>
       <c r="N34">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O34">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P34">
-        <v>41.36088323525181</v>
+        <v>24.11115053713904</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2082,49 +2082,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.27164233434922</v>
+        <v>1.324244213512102</v>
       </c>
       <c r="C35">
-        <v>10.21681695242996</v>
+        <v>5.955849882346763</v>
       </c>
       <c r="D35">
-        <v>0.004063115086186268</v>
+        <v>0.00236857561613339</v>
       </c>
       <c r="E35">
-        <v>0.3864746140686682</v>
+        <v>0.2252937285113476</v>
       </c>
       <c r="F35">
-        <v>1.026929210909582</v>
+        <v>0.5986440051193844</v>
       </c>
       <c r="G35">
-        <v>1.186477769730138</v>
+        <v>0.6916521572380339</v>
       </c>
       <c r="H35">
-        <v>0.400422829682589</v>
+        <v>0.2334247813343466</v>
       </c>
       <c r="I35">
-        <v>2.967779990810631</v>
+        <v>1.730054692317516</v>
       </c>
       <c r="J35">
-        <v>0.7798663377007572</v>
+        <v>0.4546197565511391</v>
       </c>
       <c r="K35">
-        <v>1.032878856582544</v>
+        <v>0.6021123256977309</v>
       </c>
       <c r="L35">
-        <v>8.405484904943771</v>
+        <v>4.899941587998224</v>
       </c>
       <c r="M35">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="N35">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O35">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P35">
-        <v>34.02150687346079</v>
+        <v>19.83269237894768</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2132,49 +2132,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.927689645572648</v>
+        <v>1.123738460054753</v>
       </c>
       <c r="C36">
-        <v>8.669873752618061</v>
+        <v>5.054065939510683</v>
       </c>
       <c r="D36">
-        <v>0.00457100447195955</v>
+        <v>0.002664647568150064</v>
       </c>
       <c r="E36">
-        <v>0.4347839408272517</v>
+        <v>0.253455444575266</v>
       </c>
       <c r="F36">
-        <v>1.574624790061359</v>
+        <v>0.9179208078497225</v>
       </c>
       <c r="G36">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="H36">
-        <v>0.3354893978421692</v>
+        <v>0.195572114090939</v>
       </c>
       <c r="I36">
-        <v>2.486518370679177</v>
+        <v>1.449505282752513</v>
       </c>
       <c r="J36">
-        <v>0.6305302304814634</v>
+        <v>0.3675649095519846</v>
       </c>
       <c r="K36">
-        <v>0.8350935436199292</v>
+        <v>0.4868142207768889</v>
       </c>
       <c r="L36">
-        <v>10.78703896134451</v>
+        <v>6.288258371264392</v>
       </c>
       <c r="M36">
-        <v>6.787773287009869</v>
+        <v>3.956903497543737</v>
       </c>
       <c r="N36">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O36">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P36">
-        <v>36.45374073998141</v>
+        <v>21.25055274144652</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2182,43 +2182,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.643977258220221</v>
+        <v>0.9583495334741139</v>
       </c>
       <c r="C37">
-        <v>7.393864107575484</v>
+        <v>4.310221557284311</v>
       </c>
       <c r="D37">
-        <v>0.004824949164846193</v>
+        <v>0.002812683544158401</v>
       </c>
       <c r="E37">
-        <v>0.4589386042065435</v>
+        <v>0.2675363026072254</v>
       </c>
       <c r="F37">
-        <v>1.437700895273415</v>
+        <v>0.8381016071671381</v>
       </c>
       <c r="G37">
-        <v>1.661068877622193</v>
+        <v>0.9683130201332473</v>
       </c>
       <c r="H37">
-        <v>0.1515113409609796</v>
+        <v>0.08832289023461762</v>
       </c>
       <c r="I37">
-        <v>1.122943780306726</v>
+        <v>0.6546152889850058</v>
       </c>
       <c r="J37">
-        <v>0.3982296192514505</v>
+        <v>0.2321462586644115</v>
       </c>
       <c r="K37">
-        <v>0.5274275012336394</v>
+        <v>0.3074616131222456</v>
       </c>
       <c r="L37">
-        <v>6.164022263625429</v>
+        <v>3.593290497865367</v>
       </c>
       <c r="M37">
-        <v>3.878727592577069</v>
+        <v>2.261087712882136</v>
       </c>
       <c r="P37">
-        <v>24.843236790018</v>
+        <v>14.48225896596398</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2226,43 +2226,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.6840189064935203</v>
+        <v>0.398745905180719</v>
       </c>
       <c r="C38">
-        <v>3.076406815445121</v>
+        <v>1.793378236600565</v>
       </c>
       <c r="D38">
-        <v>0.004063115086186268</v>
+        <v>0.00236857561613339</v>
       </c>
       <c r="E38">
-        <v>0.3864746140686682</v>
+        <v>0.2252937285113476</v>
       </c>
       <c r="F38">
-        <v>0.2053858421819165</v>
+        <v>0.1197288010238769</v>
       </c>
       <c r="G38">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H38">
-        <v>0.1298668636808397</v>
+        <v>0.07570533448681512</v>
       </c>
       <c r="I38">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="J38">
-        <v>0.298672214438588</v>
+        <v>0.1741096939983086</v>
       </c>
       <c r="K38">
-        <v>0.3955706259252295</v>
+        <v>0.2305962098416842</v>
       </c>
       <c r="L38">
-        <v>4.062651037389488</v>
+        <v>2.368305100865809</v>
       </c>
       <c r="M38">
-        <v>2.556434095107613</v>
+        <v>1.490262356217772</v>
       </c>
       <c r="P38">
-        <v>12.99936292402611</v>
+        <v>7.577923192920643</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2270,43 +2270,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.4391712297373168</v>
+        <v>0.2560129959398931</v>
       </c>
       <c r="C39">
-        <v>1.975193012189196</v>
+        <v>1.151430345090135</v>
       </c>
       <c r="D39">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E39">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F39">
-        <v>0.2053858421819165</v>
+        <v>0.1197288010238769</v>
       </c>
       <c r="G39">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H39">
-        <v>0.06493343184041983</v>
+        <v>0.03785266724340756</v>
       </c>
       <c r="I39">
-        <v>0.4812616201314538</v>
+        <v>0.2805494095650025</v>
       </c>
       <c r="J39">
-        <v>0.149336107219294</v>
+        <v>0.08705484699915429</v>
       </c>
       <c r="K39">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="L39">
-        <v>3.922559622307093</v>
+        <v>2.286639407732507</v>
       </c>
       <c r="M39">
-        <v>2.468281195276317</v>
+        <v>1.438873999106814</v>
       </c>
       <c r="P39">
-        <v>10.36088040044126</v>
+        <v>6.039831055140946</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.4430577007969392</v>
+        <v>0.2582785976738748</v>
       </c>
       <c r="C40">
-        <v>1.992672596367861</v>
+        <v>1.161619994161729</v>
       </c>
       <c r="D40">
-        <v>0.00457100447195955</v>
+        <v>0.002664647568150064</v>
       </c>
       <c r="E40">
-        <v>0.4347839408272517</v>
+        <v>0.253455444575266</v>
       </c>
       <c r="F40">
-        <v>0.1369238947879443</v>
+        <v>0.07981920068258458</v>
       </c>
       <c r="G40">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="H40">
-        <v>0.07575567048048981</v>
+        <v>0.04416144511730881</v>
       </c>
       <c r="I40">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="J40">
-        <v>0.2488935120321566</v>
+        <v>0.1450914116652572</v>
       </c>
       <c r="K40">
-        <v>0.3296421882710247</v>
+        <v>0.1921635082014035</v>
       </c>
       <c r="L40">
-        <v>5.743748018378244</v>
+        <v>3.348293418465455</v>
       </c>
       <c r="M40">
-        <v>3.614268893083176</v>
+        <v>2.106922641549263</v>
       </c>
       <c r="P40">
-        <v>13.74398634561443</v>
+        <v>8.011998241784536</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,43 +2358,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.2098694372196028</v>
+        <v>0.1223424936349932</v>
       </c>
       <c r="C41">
-        <v>0.9438975456479342</v>
+        <v>0.5502410498660824</v>
       </c>
       <c r="D41">
-        <v>0.004317059779072909</v>
+        <v>0.002516611592141727</v>
       </c>
       <c r="E41">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="F41">
-        <v>0.06846194739397216</v>
+        <v>0.03990960034129229</v>
       </c>
       <c r="G41">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="H41">
-        <v>0.05411119320034988</v>
+        <v>0.03154388936950629</v>
       </c>
       <c r="I41">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="J41">
-        <v>0.2654864128343004</v>
+        <v>0.1547641724429409</v>
       </c>
       <c r="K41">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="L41">
-        <v>5.883839433460638</v>
+        <v>3.429959111598756</v>
       </c>
       <c r="M41">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="P41">
-        <v>12.37480230214562</v>
+        <v>7.213838241250775</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2402,31 +2402,31 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.2059829661599805</v>
+        <v>0.1200768919010119</v>
       </c>
       <c r="C42">
-        <v>0.9264179614692691</v>
+        <v>0.5400514007944883</v>
       </c>
       <c r="D42">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E42">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="J42">
-        <v>0.2654864128343004</v>
+        <v>0.1547641724429409</v>
       </c>
       <c r="K42">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="L42">
-        <v>5.183382358048654</v>
+        <v>3.021630645932241</v>
       </c>
       <c r="M42">
-        <v>3.261657293757989</v>
+        <v>1.901369213105432</v>
       </c>
       <c r="P42">
-        <v>10.46304001521991</v>
+        <v>6.099384567011922</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2434,43 +2434,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1710047266233801</v>
+        <v>0.09968647629517974</v>
       </c>
       <c r="C43">
-        <v>0.7691017038612802</v>
+        <v>0.4483445591501413</v>
       </c>
       <c r="D43">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E43">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F43">
-        <v>0.06846194739397216</v>
+        <v>0.03990960034129229</v>
       </c>
       <c r="G43">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="H43">
-        <v>0.03246671592020992</v>
+        <v>0.01892633362170378</v>
       </c>
       <c r="I43">
-        <v>0.2406308100657269</v>
+        <v>0.1402747047825013</v>
       </c>
       <c r="J43">
-        <v>0.2488935120321566</v>
+        <v>0.1450914116652572</v>
       </c>
       <c r="K43">
-        <v>0.3296421882710247</v>
+        <v>0.1921635082014035</v>
       </c>
       <c r="L43">
-        <v>7.004570754119806</v>
+        <v>4.083284656665189</v>
       </c>
       <c r="M43">
-        <v>4.40764499156485</v>
+        <v>2.569417855547881</v>
       </c>
       <c r="P43">
-        <v>13.57119334048402</v>
+        <v>7.911269296158126</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2478,43 +2478,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2778826807629924</v>
+        <v>0.161990523979667</v>
       </c>
       <c r="C44">
-        <v>1.24979026877458</v>
+        <v>0.7285599086189796</v>
       </c>
       <c r="D44">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E44">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F44">
-        <v>0.2738477895758886</v>
+        <v>0.1596384013651692</v>
       </c>
       <c r="G44">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="H44">
-        <v>0.04328895456027989</v>
+        <v>0.02523511149560503</v>
       </c>
       <c r="I44">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="J44">
-        <v>0.4148225200535943</v>
+        <v>0.2418190194420952</v>
       </c>
       <c r="K44">
-        <v>0.5494036471183743</v>
+        <v>0.3202725136690058</v>
       </c>
       <c r="L44">
-        <v>9.666307640685334</v>
+        <v>5.634932826197962</v>
       </c>
       <c r="M44">
-        <v>6.082550088359494</v>
+        <v>3.545796640656077</v>
       </c>
       <c r="P44">
-        <v>19.34158039033928</v>
+        <v>11.27509182444584</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2522,49 +2522,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.8025562738119992</v>
+        <v>0.4678467580671502</v>
       </c>
       <c r="C45">
-        <v>3.609534132894415</v>
+        <v>2.104162533284186</v>
       </c>
       <c r="D45">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E45">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F45">
-        <v>0.8900053161216378</v>
+        <v>0.5188248044367997</v>
       </c>
       <c r="G45">
-        <v>1.02828073376612</v>
+        <v>0.5994318696062958</v>
       </c>
       <c r="H45">
-        <v>0.1948002955212595</v>
+        <v>0.1135580017302226</v>
       </c>
       <c r="I45">
-        <v>1.443784860394361</v>
+        <v>0.8416482286950077</v>
       </c>
       <c r="J45">
-        <v>0.7466805360964698</v>
+        <v>0.4352742349957714</v>
       </c>
       <c r="K45">
-        <v>0.9889265648130738</v>
+        <v>0.5764905246042106</v>
       </c>
       <c r="L45">
-        <v>20.31325518694744</v>
+        <v>11.84152550432905</v>
       </c>
       <c r="M45">
-        <v>12.78217047553806</v>
+        <v>7.451311781088859</v>
       </c>
       <c r="N45">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O45">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P45">
-        <v>42.99994199162685</v>
+        <v>25.06663285093286</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,49 +2572,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.818868455903225</v>
+        <v>1.060301611503275</v>
       </c>
       <c r="C46">
-        <v>8.180445395615429</v>
+        <v>4.76875576550605</v>
       </c>
       <c r="D46">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E46">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F46">
-        <v>2.122320369213137</v>
+        <v>1.237197610580061</v>
       </c>
       <c r="G46">
-        <v>2.452054057442285</v>
+        <v>1.429414458291937</v>
       </c>
       <c r="H46">
-        <v>0.5194674547233586</v>
+        <v>0.3028213379472605</v>
       </c>
       <c r="I46">
-        <v>3.85009296105163</v>
+        <v>2.24439527652002</v>
       </c>
       <c r="J46">
-        <v>1.576325576203658</v>
+        <v>0.9189122738799622</v>
       </c>
       <c r="K46">
-        <v>2.087733859049822</v>
+        <v>1.217035551942222</v>
       </c>
       <c r="L46">
-        <v>22.41462641318338</v>
+        <v>13.06651090132861</v>
       </c>
       <c r="M46">
-        <v>14.10446397300752</v>
+        <v>8.22213713775322</v>
       </c>
       <c r="N46">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O46">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P46">
-        <v>59.36011224147678</v>
+        <v>34.60372434541902</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2622,49 +2622,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.636970613953712</v>
+        <v>1.53721077650635</v>
       </c>
       <c r="C47">
-        <v>11.85989786522451</v>
+        <v>6.91367689507661</v>
       </c>
       <c r="D47">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E47">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F47">
-        <v>2.053858421819165</v>
+        <v>1.197288010238769</v>
       </c>
       <c r="G47">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="H47">
-        <v>0.4328895456027991</v>
+        <v>0.2523511149560503</v>
       </c>
       <c r="I47">
-        <v>3.208410800876358</v>
+        <v>1.870329397100017</v>
       </c>
       <c r="J47">
-        <v>1.460175270588652</v>
+        <v>0.8512029484361753</v>
       </c>
       <c r="K47">
-        <v>1.933900837856678</v>
+        <v>1.127359248114901</v>
       </c>
       <c r="L47">
-        <v>14.14923292332201</v>
+        <v>8.24823500646368</v>
       </c>
       <c r="M47">
-        <v>8.903442882960997</v>
+        <v>5.190224068206722</v>
       </c>
       <c r="N47">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O47">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P47">
-        <v>49.47448340268725</v>
+        <v>28.84093916187659</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2672,49 +2672,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>2.982866538260094</v>
+        <v>1.73884933083069</v>
       </c>
       <c r="C48">
-        <v>13.41558085712573</v>
+        <v>7.820555662448488</v>
       </c>
       <c r="D48">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E48">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F48">
-        <v>2.25924426400108</v>
+        <v>1.317016811262645</v>
       </c>
       <c r="G48">
-        <v>2.610251093406303</v>
+        <v>1.521634745923674</v>
       </c>
       <c r="H48">
-        <v>0.3463116364822391</v>
+        <v>0.2018808919648403</v>
       </c>
       <c r="I48">
-        <v>2.566728640701087</v>
+        <v>1.496263517680013</v>
       </c>
       <c r="J48">
-        <v>1.675882981016521</v>
+        <v>0.9769488385460648</v>
       </c>
       <c r="K48">
-        <v>2.219590734358232</v>
+        <v>1.293900955222784</v>
       </c>
       <c r="L48">
-        <v>12.74831877249805</v>
+        <v>7.431578075130644</v>
       </c>
       <c r="M48">
-        <v>8.021913884648027</v>
+        <v>4.676340497097144</v>
       </c>
       <c r="N48">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O48">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P48">
-        <v>49.29540185008573</v>
+        <v>28.73654433431354</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2722,49 +2722,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.141445553851873</v>
+        <v>1.248346555423727</v>
       </c>
       <c r="C49">
-        <v>9.631250882444663</v>
+        <v>5.614496638448361</v>
       </c>
       <c r="D49">
-        <v>0.004317059779072909</v>
+        <v>0.002516611592141727</v>
       </c>
       <c r="E49">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="F49">
-        <v>2.601554000970942</v>
+        <v>1.516564812969107</v>
       </c>
       <c r="G49">
-        <v>3.00574368331635</v>
+        <v>1.752185465003019</v>
       </c>
       <c r="H49">
-        <v>0.2380892500815394</v>
+        <v>0.1387931132258276</v>
       </c>
       <c r="I49">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="J49">
-        <v>2.10729840187226</v>
+        <v>1.228440618765844</v>
       </c>
       <c r="K49">
-        <v>2.790970527361342</v>
+        <v>1.62698436943855</v>
       </c>
       <c r="L49">
-        <v>17.23124405513473</v>
+        <v>10.04488025539636</v>
       </c>
       <c r="M49">
-        <v>10.84280667924953</v>
+        <v>6.320767924647789</v>
       </c>
       <c r="N49">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O49">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P49">
-        <v>52.87696724657013</v>
+        <v>30.82440261195405</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.9674119404100386</v>
+        <v>1.659523142458712</v>
       </c>
       <c r="C2">
-        <v>4.350980153570689</v>
+        <v>7.463782444290148</v>
       </c>
       <c r="D2">
-        <v>0.003996971352225096</v>
+        <v>0.006856506707939326</v>
       </c>
       <c r="E2">
-        <v>0.3801831668628991</v>
+        <v>0.6521759112408776</v>
       </c>
       <c r="F2">
-        <v>1.556474413310399</v>
+        <v>2.670015948364913</v>
       </c>
       <c r="G2">
-        <v>1.798295608818888</v>
+        <v>3.084842201298359</v>
       </c>
       <c r="H2">
-        <v>0.05047022299121007</v>
+        <v>0.08657790912055978</v>
       </c>
       <c r="I2">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="J2">
-        <v>1.238113379543528</v>
+        <v>2.123891302674403</v>
       </c>
       <c r="K2">
-        <v>1.63979526998531</v>
+        <v>2.812946673246077</v>
       </c>
       <c r="L2">
-        <v>7.10491530259743</v>
+        <v>12.18795311216846</v>
       </c>
       <c r="M2">
-        <v>4.470787068653314</v>
+        <v>7.66930228532284</v>
       </c>
       <c r="N2">
-        <v>0.04233790259095137</v>
+        <v>0.07262751907224374</v>
       </c>
       <c r="O2">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="P2">
-        <v>24.15378609984845</v>
+        <v>41.43402136809109</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.9934663603508247</v>
+        <v>1.704217559644366</v>
       </c>
       <c r="C3">
-        <v>4.468161117894021</v>
+        <v>7.6647976623448</v>
       </c>
       <c r="D3">
-        <v>0.00473715123226678</v>
+        <v>0.008126230172372536</v>
       </c>
       <c r="E3">
-        <v>0.4505874570226953</v>
+        <v>0.7729492281373364</v>
       </c>
       <c r="F3">
-        <v>1.197288010238769</v>
+        <v>2.053858421819165</v>
       </c>
       <c r="G3">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="H3">
-        <v>0.06939655661291382</v>
+        <v>0.1190446250407697</v>
       </c>
       <c r="I3">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="J3">
-        <v>1.073676446322902</v>
+        <v>1.841811989037958</v>
       </c>
       <c r="K3">
-        <v>1.422009960690386</v>
+        <v>2.439352193205581</v>
       </c>
       <c r="L3">
-        <v>6.043261291864482</v>
+        <v>10.36676471609731</v>
       </c>
       <c r="M3">
-        <v>3.802738426210865</v>
+        <v>6.523314587515978</v>
       </c>
       <c r="N3">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O3">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P3">
-        <v>21.51652341526121</v>
+        <v>36.90999362458371</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.003661568153741</v>
+        <v>1.721706679412667</v>
       </c>
       <c r="C4">
-        <v>4.514014538716195</v>
+        <v>7.743455791148793</v>
       </c>
       <c r="D4">
-        <v>0.005625367088316802</v>
+        <v>0.009649898329692385</v>
       </c>
       <c r="E4">
-        <v>0.5350726052144508</v>
+        <v>0.917877208413087</v>
       </c>
       <c r="F4">
-        <v>1.277107210921353</v>
+        <v>2.190782316607109</v>
       </c>
       <c r="G4">
-        <v>1.475524602107805</v>
+        <v>2.531152575424294</v>
       </c>
       <c r="H4">
-        <v>0.06939655661291382</v>
+        <v>0.1190446250407697</v>
       </c>
       <c r="I4">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="J4">
-        <v>1.025312642434484</v>
+        <v>1.75884748502724</v>
       </c>
       <c r="K4">
-        <v>1.357955457956585</v>
+        <v>2.329471463781907</v>
       </c>
       <c r="L4">
-        <v>6.69658683693091</v>
+        <v>11.48749603675649</v>
       </c>
       <c r="M4">
-        <v>4.213845283098527</v>
+        <v>7.228537786166353</v>
       </c>
       <c r="N4">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O4">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P4">
-        <v>22.75081374553279</v>
+        <v>39.02732677092727</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.175847299936324</v>
+        <v>2.01707847994396</v>
       </c>
       <c r="C5">
-        <v>5.288427868157351</v>
+        <v>9.071904188727368</v>
       </c>
       <c r="D5">
-        <v>0.005033223184283454</v>
+        <v>0.008634119558145819</v>
       </c>
       <c r="E5">
-        <v>0.4787491730866137</v>
+        <v>0.82125855489592</v>
       </c>
       <c r="F5">
-        <v>1.795932015358153</v>
+        <v>3.080787632728746</v>
       </c>
       <c r="G5">
-        <v>2.074956471714102</v>
+        <v>3.559433309190414</v>
       </c>
       <c r="H5">
-        <v>0.09463166810851883</v>
+        <v>0.1623335796010496</v>
       </c>
       <c r="I5">
-        <v>0.7013735239125063</v>
+        <v>1.203154050328635</v>
       </c>
       <c r="J5">
-        <v>1.334840987320365</v>
+        <v>2.289820310695839</v>
       </c>
       <c r="K5">
-        <v>1.767904275452912</v>
+        <v>3.032708132093427</v>
       </c>
       <c r="L5">
-        <v>7.023249609464124</v>
+        <v>12.04786169708607</v>
       </c>
       <c r="M5">
-        <v>4.419398711542358</v>
+        <v>7.581149385491541</v>
       </c>
       <c r="N5">
-        <v>0.04838617438965873</v>
+        <v>0.08300287893970713</v>
       </c>
       <c r="O5">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="P5">
-        <v>26.40982679561763</v>
+        <v>45.30409117865258</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.152058481729519</v>
+        <v>1.976270533817926</v>
       </c>
       <c r="C6">
-        <v>5.181436552905609</v>
+        <v>8.888368554851381</v>
       </c>
       <c r="D6">
-        <v>0.00429304330424177</v>
+        <v>0.007364396093712608</v>
       </c>
       <c r="E6">
-        <v>0.4083448829268177</v>
+        <v>0.7004852379994613</v>
       </c>
       <c r="F6">
-        <v>1.596384013651692</v>
+        <v>2.738477895758885</v>
       </c>
       <c r="G6">
-        <v>1.844405752634756</v>
+        <v>3.163940719280367</v>
       </c>
       <c r="H6">
-        <v>0.08201411236071635</v>
+        <v>0.1406891023209097</v>
       </c>
       <c r="I6">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="J6">
-        <v>1.296149944209631</v>
+        <v>2.223448707487265</v>
       </c>
       <c r="K6">
-        <v>1.716660673265871</v>
+        <v>2.944803548554486</v>
       </c>
       <c r="L6">
-        <v>7.10491530259743</v>
+        <v>12.18795311216846</v>
       </c>
       <c r="M6">
-        <v>4.470787068653314</v>
+        <v>7.66930228532284</v>
       </c>
       <c r="N6">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O6">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P6">
-        <v>25.65241835858212</v>
+        <v>44.00481340767412</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.311783403975206</v>
+        <v>2.250266743521296</v>
       </c>
       <c r="C7">
-        <v>5.899806812452995</v>
+        <v>10.12067923944729</v>
       </c>
       <c r="D7">
-        <v>0.004145007328233433</v>
+        <v>0.007110451400825968</v>
       </c>
       <c r="E7">
-        <v>0.3942640248948585</v>
+        <v>0.6763305746201694</v>
       </c>
       <c r="F7">
-        <v>1.716112814675569</v>
+        <v>2.943863737940802</v>
       </c>
       <c r="G7">
-        <v>1.982736184082363</v>
+        <v>3.401236273226395</v>
       </c>
       <c r="H7">
-        <v>0.08832289023461762</v>
+        <v>0.1515113409609796</v>
       </c>
       <c r="I7">
-        <v>0.6546152889850058</v>
+        <v>1.122943780306726</v>
       </c>
       <c r="J7">
-        <v>1.06400368554522</v>
+        <v>1.825219088235815</v>
       </c>
       <c r="K7">
-        <v>1.409199060143626</v>
+        <v>2.417376047320847</v>
       </c>
       <c r="L7">
-        <v>6.288258371264392</v>
+        <v>10.78703896134451</v>
       </c>
       <c r="M7">
-        <v>3.956903497543737</v>
+        <v>6.787773287009869</v>
       </c>
       <c r="N7">
-        <v>0.0604827179870734</v>
+        <v>0.1037535986746339</v>
       </c>
       <c r="O7">
-        <v>0.2513697424879512</v>
+        <v>0.4312060742147036</v>
       </c>
       <c r="P7">
-        <v>25.08200350160085</v>
+        <v>43.02630919822487</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.456781914950012</v>
+        <v>2.499000891337122</v>
       </c>
       <c r="C8">
-        <v>6.551944353035021</v>
+        <v>11.23937262688188</v>
       </c>
       <c r="D8">
-        <v>0.003256791472183411</v>
+        <v>0.005586783243506119</v>
       </c>
       <c r="E8">
-        <v>0.309778876703103</v>
+        <v>0.5314025943444187</v>
       </c>
       <c r="F8">
-        <v>2.354666420136245</v>
+        <v>4.039254896244356</v>
       </c>
       <c r="G8">
-        <v>2.720498485136266</v>
+        <v>4.666812560938544</v>
       </c>
       <c r="H8">
-        <v>0.1451018910997289</v>
+        <v>0.2489114887216095</v>
       </c>
       <c r="I8">
-        <v>1.07543940333251</v>
+        <v>1.844836210503906</v>
       </c>
       <c r="J8">
-        <v>1.14138577176669</v>
+        <v>1.957962294652965</v>
       </c>
       <c r="K8">
-        <v>1.511686264517707</v>
+        <v>2.593185214398727</v>
       </c>
       <c r="L8">
-        <v>4.409947429198404</v>
+        <v>7.564936414449392</v>
       </c>
       <c r="M8">
-        <v>2.774971283991712</v>
+        <v>4.760256590890038</v>
       </c>
       <c r="N8">
-        <v>0.06653098978578076</v>
+        <v>0.1141289585420973</v>
       </c>
       <c r="O8">
-        <v>0.2765067167367464</v>
+        <v>0.4743266816361741</v>
       </c>
       <c r="P8">
-        <v>24.79849659186211</v>
+        <v>42.53997420678473</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.689006092683102</v>
+        <v>2.897364174948404</v>
       </c>
       <c r="C9">
-        <v>7.596383382873416</v>
+        <v>13.03103000519509</v>
       </c>
       <c r="D9">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E9">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F9">
-        <v>1.955570416723323</v>
+        <v>3.354635422304636</v>
       </c>
       <c r="G9">
-        <v>2.259397046977577</v>
+        <v>3.87582738111845</v>
       </c>
       <c r="H9">
-        <v>0.1766457804692352</v>
+        <v>0.3030226819219592</v>
       </c>
       <c r="I9">
-        <v>1.309230577970012</v>
+        <v>2.245887560613451</v>
       </c>
       <c r="J9">
-        <v>0.5610201251056611</v>
+        <v>0.962388246524339</v>
       </c>
       <c r="K9">
-        <v>0.7430322317120936</v>
+        <v>1.274616461314629</v>
       </c>
       <c r="L9">
-        <v>3.838287577265278</v>
+        <v>6.584296508872618</v>
       </c>
       <c r="M9">
-        <v>2.415252784215009</v>
+        <v>4.143186292070959</v>
       </c>
       <c r="N9">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O9">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P9">
-        <v>22.86777151629626</v>
+        <v>39.22795911705077</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.891777447874432</v>
+        <v>3.245203334784598</v>
       </c>
       <c r="C10">
-        <v>8.508356974781092</v>
+        <v>14.59545278918565</v>
       </c>
       <c r="D10">
-        <v>0.00192446768810838</v>
+        <v>0.003301281007526343</v>
       </c>
       <c r="E10">
-        <v>0.1830511544154699</v>
+        <v>0.3140106239307929</v>
       </c>
       <c r="F10">
-        <v>1.237197610580061</v>
+        <v>2.122320369213137</v>
       </c>
       <c r="G10">
-        <v>1.429414458291937</v>
+        <v>2.452054057442285</v>
       </c>
       <c r="H10">
-        <v>0.2586598928299516</v>
+        <v>0.4437117842428689</v>
       </c>
       <c r="I10">
-        <v>1.917087632027517</v>
+        <v>3.288621070898266</v>
       </c>
       <c r="J10">
-        <v>0.3772376703296686</v>
+        <v>0.6471231312836072</v>
       </c>
       <c r="K10">
-        <v>0.4996251213236491</v>
+        <v>0.8570696895046641</v>
       </c>
       <c r="L10">
-        <v>4.328281736065101</v>
+        <v>7.424844999366995</v>
       </c>
       <c r="M10">
-        <v>2.723582926880754</v>
+        <v>4.672103691058742</v>
       </c>
       <c r="N10">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O10">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P10">
-        <v>23.41856758518275</v>
+        <v>40.172808756497</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.315181806576178</v>
+        <v>2.256096450110729</v>
       </c>
       <c r="C11">
-        <v>5.915091286060387</v>
+        <v>10.14689861571529</v>
       </c>
       <c r="D11">
-        <v>0.002516611592141727</v>
+        <v>0.004317059779072909</v>
       </c>
       <c r="E11">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="F11">
-        <v>0.6385536054606766</v>
+        <v>1.095391158303554</v>
       </c>
       <c r="G11">
-        <v>0.7377623010539027</v>
+        <v>1.265576287712147</v>
       </c>
       <c r="H11">
-        <v>0.2523511149560503</v>
+        <v>0.4328895456027991</v>
       </c>
       <c r="I11">
-        <v>1.870329397100017</v>
+        <v>3.208410800876358</v>
       </c>
       <c r="J11">
-        <v>0.3869104311073523</v>
+        <v>0.6637160320857507</v>
       </c>
       <c r="K11">
-        <v>0.5124360218704093</v>
+        <v>0.8790458353893992</v>
       </c>
       <c r="L11">
-        <v>4.409947429198404</v>
+        <v>7.564936414449392</v>
       </c>
       <c r="M11">
-        <v>2.774971283991712</v>
+        <v>4.760256590890038</v>
       </c>
       <c r="N11">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O11">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P11">
-        <v>19.11779636760554</v>
+        <v>32.79515600294036</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.043309598498415</v>
+        <v>1.789719922956056</v>
       </c>
       <c r="C12">
-        <v>4.692333397469092</v>
+        <v>8.04934851427544</v>
       </c>
       <c r="D12">
-        <v>0.003108755496175074</v>
+        <v>0.005332838550619476</v>
       </c>
       <c r="E12">
-        <v>0.2956980186711438</v>
+        <v>0.507247930965127</v>
       </c>
       <c r="F12">
-        <v>0.9578304081910151</v>
+        <v>1.643086737455332</v>
       </c>
       <c r="G12">
-        <v>1.106643451580854</v>
+        <v>1.898364431568221</v>
       </c>
       <c r="H12">
-        <v>0.1892633362170377</v>
+        <v>0.3246671592020992</v>
       </c>
       <c r="I12">
-        <v>1.402747047825013</v>
+        <v>2.406308100657269</v>
       </c>
       <c r="J12">
-        <v>0.2611645409974629</v>
+        <v>0.4480083216578818</v>
       </c>
       <c r="K12">
-        <v>0.3458943147625262</v>
+        <v>0.5933559388878443</v>
       </c>
       <c r="L12">
-        <v>6.124926984997783</v>
+        <v>10.5068561311797</v>
       </c>
       <c r="M12">
-        <v>3.854126783321822</v>
+        <v>6.611467487347278</v>
       </c>
       <c r="P12">
-        <v>20.27704663802834</v>
+        <v>34.78376351470288</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.9232327065974024</v>
+        <v>1.583736956796076</v>
       </c>
       <c r="C13">
-        <v>4.152281996674603</v>
+        <v>7.122930552806167</v>
       </c>
       <c r="D13">
-        <v>0.003256791472183411</v>
+        <v>0.005586783243506119</v>
       </c>
       <c r="E13">
-        <v>0.309778876703103</v>
+        <v>0.5314025943444187</v>
       </c>
       <c r="F13">
-        <v>0.7183728061432613</v>
+        <v>1.232315053091499</v>
       </c>
       <c r="G13">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="H13">
-        <v>0.06308777873901258</v>
+        <v>0.1082223864006998</v>
       </c>
       <c r="I13">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="J13">
-        <v>0.2708373017751466</v>
+        <v>0.4646012224600256</v>
       </c>
       <c r="K13">
-        <v>0.3587052153092865</v>
+        <v>0.6153320847725794</v>
       </c>
       <c r="L13">
-        <v>3.593290497865367</v>
+        <v>6.164022263625429</v>
       </c>
       <c r="M13">
-        <v>2.261087712882136</v>
+        <v>3.878727592577069</v>
       </c>
       <c r="P13">
-        <v>13.95149662212215</v>
+        <v>23.93275351401272</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.5856580482341808</v>
+        <v>1.004652768912358</v>
       </c>
       <c r="C14">
-        <v>2.63402428500708</v>
+        <v>4.518472510185019</v>
       </c>
       <c r="D14">
-        <v>0.002664647568150064</v>
+        <v>0.00457100447195955</v>
       </c>
       <c r="E14">
-        <v>0.253455444575266</v>
+        <v>0.4347839408272517</v>
       </c>
       <c r="F14">
-        <v>0.5188248044367997</v>
+        <v>0.8900053161216378</v>
       </c>
       <c r="G14">
-        <v>0.5994318696062958</v>
+        <v>1.02828073376612</v>
       </c>
       <c r="H14">
-        <v>0.09463166810851883</v>
+        <v>0.1623335796010496</v>
       </c>
       <c r="I14">
-        <v>0.7013735239125063</v>
+        <v>1.203154050328635</v>
       </c>
       <c r="J14">
-        <v>0.2224734978867277</v>
+        <v>0.3816367184493067</v>
       </c>
       <c r="K14">
-        <v>0.2946507125754854</v>
+        <v>0.5054513553489044</v>
       </c>
       <c r="L14">
-        <v>4.164950349798493</v>
+        <v>7.144662169202202</v>
       </c>
       <c r="M14">
-        <v>2.62080621265884</v>
+        <v>4.495797891396149</v>
       </c>
       <c r="P14">
-        <v>12.69294506436834</v>
+        <v>21.77380203861059</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3715586843729425</v>
+        <v>0.6373812537780532</v>
       </c>
       <c r="C15">
-        <v>1.671102447741435</v>
+        <v>2.866651805301133</v>
       </c>
       <c r="D15">
-        <v>0.002664647568150064</v>
+        <v>0.00457100447195955</v>
       </c>
       <c r="E15">
-        <v>0.253455444575266</v>
+        <v>0.4347839408272517</v>
       </c>
       <c r="F15">
-        <v>0.1197288010238769</v>
+        <v>0.2053858421819165</v>
       </c>
       <c r="G15">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H15">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I15">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J15">
-        <v>0.1064003685545219</v>
+        <v>0.1825219088235815</v>
       </c>
       <c r="K15">
-        <v>0.1409199060143626</v>
+        <v>0.2417376047320847</v>
       </c>
       <c r="L15">
-        <v>3.021630645932241</v>
+        <v>5.183382358048654</v>
       </c>
       <c r="M15">
-        <v>1.901369213105432</v>
+        <v>3.261657293757989</v>
       </c>
       <c r="P15">
-        <v>8.20476370554845</v>
+        <v>14.07466114382646</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,49 +1156,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.1823809395854992</v>
+        <v>0.3128609202995931</v>
       </c>
       <c r="C16">
-        <v>0.8202667502633264</v>
+        <v>1.407106526382568</v>
       </c>
       <c r="D16">
-        <v>0.002516611592141727</v>
+        <v>0.004317059779072909</v>
       </c>
       <c r="E16">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="F16">
-        <v>0.03990960034129229</v>
+        <v>0.06846194739397216</v>
       </c>
       <c r="G16">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="H16">
-        <v>0.04416144511730881</v>
+        <v>0.07575567048048981</v>
       </c>
       <c r="I16">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="J16">
-        <v>0.1934552155536762</v>
+        <v>0.3318580160428753</v>
       </c>
       <c r="K16">
-        <v>0.2562180109352046</v>
+        <v>0.4395229176946996</v>
       </c>
       <c r="L16">
-        <v>2.858299259665632</v>
+        <v>4.903199527883864</v>
       </c>
       <c r="M16">
-        <v>1.798592498883517</v>
+        <v>3.085351494095395</v>
       </c>
       <c r="N16">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O16">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P16">
-        <v>6.83977795283678</v>
+        <v>11.7331297329248</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,43 +1206,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1291392988369374</v>
+        <v>0.2215288503984696</v>
       </c>
       <c r="C17">
-        <v>0.5808099970808647</v>
+        <v>0.9963362981839307</v>
       </c>
       <c r="D17">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E17">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F17">
-        <v>0.07981920068258458</v>
+        <v>0.1369238947879443</v>
       </c>
       <c r="G17">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="H17">
-        <v>0.02523511149560503</v>
+        <v>0.04328895456027989</v>
       </c>
       <c r="I17">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="J17">
-        <v>0.2031279763313601</v>
+        <v>0.3484509168450192</v>
       </c>
       <c r="K17">
-        <v>0.2690289114819648</v>
+        <v>0.4614990635794344</v>
       </c>
       <c r="L17">
-        <v>2.776633566532331</v>
+        <v>4.763108112801466</v>
       </c>
       <c r="M17">
-        <v>1.74720414177256</v>
+        <v>2.997198594264098</v>
       </c>
       <c r="P17">
-        <v>6.218311477627655</v>
+        <v>10.6670502741219</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,37 +1250,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.08949126849226362</v>
+        <v>0.1535156068550798</v>
       </c>
       <c r="C18">
-        <v>0.4024911383279677</v>
+        <v>0.6904435750572849</v>
       </c>
       <c r="D18">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E18">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F18">
-        <v>0.1197288010238769</v>
+        <v>0.2053858421819165</v>
       </c>
       <c r="G18">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="J18">
-        <v>0.1741096939983086</v>
+        <v>0.298672214438588</v>
       </c>
       <c r="K18">
-        <v>0.2305962098416842</v>
+        <v>0.3955706259252295</v>
       </c>
       <c r="L18">
-        <v>2.449970793999112</v>
+        <v>4.202742452471885</v>
       </c>
       <c r="M18">
-        <v>1.541650713328729</v>
+        <v>2.64458699493891</v>
       </c>
       <c r="P18">
-        <v>5.231742414507354</v>
+        <v>8.974664514247991</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,43 +1288,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.08156166242332882</v>
+        <v>0.1399129581464018</v>
       </c>
       <c r="C19">
-        <v>0.3668273665773886</v>
+        <v>0.6292650304319561</v>
       </c>
       <c r="D19">
-        <v>0.001480359760083369</v>
+        <v>0.002539446928866418</v>
       </c>
       <c r="E19">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="F19">
-        <v>0.1197288010238769</v>
+        <v>0.2053858421819165</v>
       </c>
       <c r="G19">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H19">
-        <v>0.01261755574780252</v>
+        <v>0.02164447728013994</v>
       </c>
       <c r="I19">
-        <v>0.09351646985500082</v>
+        <v>0.1604205400438179</v>
       </c>
       <c r="J19">
-        <v>0.1644369332206248</v>
+        <v>0.2820793136364441</v>
       </c>
       <c r="K19">
-        <v>0.217785309294924</v>
+        <v>0.3735944800404946</v>
       </c>
       <c r="L19">
-        <v>3.756621884131974</v>
+        <v>6.444205093790222</v>
       </c>
       <c r="M19">
-        <v>2.36386442710405</v>
+        <v>4.055033392239663</v>
       </c>
       <c r="P19">
-        <v>7.457579780906252</v>
+        <v>12.79292276245887</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1332,49 +1332,49 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.1404673075068441</v>
+        <v>0.240961205696581</v>
       </c>
       <c r="C20">
-        <v>0.6317582424388354</v>
+        <v>1.083734219077258</v>
       </c>
       <c r="D20">
-        <v>0.001480359760083369</v>
+        <v>0.002539446928866418</v>
       </c>
       <c r="E20">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="F20">
-        <v>0.1197288010238769</v>
+        <v>0.2053858421819165</v>
       </c>
       <c r="G20">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H20">
-        <v>0.02523511149560503</v>
+        <v>0.04328895456027989</v>
       </c>
       <c r="I20">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="J20">
-        <v>0.2514917802197791</v>
+        <v>0.4314154208557381</v>
       </c>
       <c r="K20">
-        <v>0.3330834142157661</v>
+        <v>0.5713797930031094</v>
       </c>
       <c r="L20">
-        <v>6.859918223197512</v>
+        <v>11.76767886692128</v>
       </c>
       <c r="M20">
-        <v>4.316621997320442</v>
+        <v>7.404843585828947</v>
       </c>
       <c r="N20">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O20">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P20">
-        <v>13.17714243470345</v>
+        <v>22.60440657016949</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,49 +1382,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.4610499528652058</v>
+        <v>0.7908968606331328</v>
       </c>
       <c r="C21">
-        <v>2.073593586069404</v>
+        <v>3.557095380358418</v>
       </c>
       <c r="D21">
-        <v>0.001480359760083369</v>
+        <v>0.002539446928866418</v>
       </c>
       <c r="E21">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="F21">
-        <v>0.399096003412923</v>
+        <v>0.6846194739397212</v>
       </c>
       <c r="G21">
-        <v>0.4611014381586891</v>
+        <v>0.7909851798200916</v>
       </c>
       <c r="H21">
-        <v>0.1261755574780252</v>
+        <v>0.2164447728013995</v>
       </c>
       <c r="I21">
-        <v>0.9351646985500084</v>
+        <v>1.604205400438179</v>
       </c>
       <c r="J21">
-        <v>0.2998555841081983</v>
+        <v>0.5143799248664569</v>
       </c>
       <c r="K21">
-        <v>0.3971379169495673</v>
+        <v>0.6812605224267844</v>
       </c>
       <c r="L21">
-        <v>9.963214562263056</v>
+        <v>17.09115264005233</v>
       </c>
       <c r="M21">
-        <v>6.269379567536829</v>
+        <v>10.75465377941823</v>
       </c>
       <c r="N21">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O21">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P21">
-        <v>21.55924305351908</v>
+        <v>36.98327598276546</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1432,49 +1432,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.029715988094526</v>
+        <v>1.766401096598323</v>
       </c>
       <c r="C22">
-        <v>4.631195503039525</v>
+        <v>7.944471009203445</v>
       </c>
       <c r="D22">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E22">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F22">
-        <v>1.077559209214892</v>
+        <v>1.848472579637248</v>
       </c>
       <c r="G22">
-        <v>1.244973883028461</v>
+        <v>2.135659985514248</v>
       </c>
       <c r="H22">
-        <v>0.271277448577754</v>
+        <v>0.4653562615230091</v>
       </c>
       <c r="I22">
-        <v>2.010604101882518</v>
+        <v>3.449041610942085</v>
       </c>
       <c r="J22">
-        <v>0.8318574268808077</v>
+        <v>1.426989468984365</v>
       </c>
       <c r="K22">
-        <v>1.10173744702138</v>
+        <v>1.889948546087208</v>
       </c>
       <c r="L22">
-        <v>10.7798714935961</v>
+        <v>18.49206679087628</v>
       </c>
       <c r="M22">
-        <v>6.783263138646408</v>
+        <v>11.63618277773121</v>
       </c>
       <c r="N22">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O22">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P22">
-        <v>30.00062777623612</v>
+        <v>51.46384286083057</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1482,49 +1482,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.607444430259773</v>
+        <v>2.757451216802001</v>
       </c>
       <c r="C23">
-        <v>7.229556016296027</v>
+        <v>12.40176497476314</v>
       </c>
       <c r="D23">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E23">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F23">
-        <v>1.556474413310399</v>
+        <v>2.670015948364913</v>
       </c>
       <c r="G23">
-        <v>1.798295608818888</v>
+        <v>3.084842201298359</v>
       </c>
       <c r="H23">
-        <v>0.246042337082149</v>
+        <v>0.4220673069627291</v>
       </c>
       <c r="I23">
-        <v>1.823571162172516</v>
+        <v>3.12820053085445</v>
       </c>
       <c r="J23">
-        <v>0.9189122738799622</v>
+        <v>1.576325576203658</v>
       </c>
       <c r="K23">
-        <v>1.217035551942222</v>
+        <v>2.087733859049822</v>
       </c>
       <c r="L23">
-        <v>9.146557630930028</v>
+        <v>15.69023848922837</v>
       </c>
       <c r="M23">
-        <v>5.755495996427255</v>
+        <v>9.873124781105266</v>
       </c>
       <c r="N23">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O23">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P23">
-        <v>31.68570141351578</v>
+        <v>54.35446120137681</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1532,49 +1532,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.90310545654434</v>
+        <v>3.26463569008271</v>
       </c>
       <c r="C24">
-        <v>8.559305220139059</v>
+        <v>14.68285071007897</v>
       </c>
       <c r="D24">
-        <v>0.004441079280250107</v>
+        <v>0.007618340786599254</v>
       </c>
       <c r="E24">
-        <v>0.4224257409587768</v>
+        <v>0.724639901378753</v>
       </c>
       <c r="F24">
-        <v>1.756022415016861</v>
+        <v>3.012325685334774</v>
       </c>
       <c r="G24">
-        <v>2.028846327898233</v>
+        <v>3.480334791208404</v>
       </c>
       <c r="H24">
-        <v>0.2649686707038528</v>
+        <v>0.4545340228829389</v>
       </c>
       <c r="I24">
-        <v>1.963845866955017</v>
+        <v>3.368831340920177</v>
       </c>
       <c r="J24">
-        <v>1.218767857988161</v>
+        <v>2.090705501070115</v>
       </c>
       <c r="K24">
-        <v>1.614173468891789</v>
+        <v>2.768994381476606</v>
       </c>
       <c r="L24">
-        <v>8.901560551530114</v>
+        <v>15.26996424398118</v>
       </c>
       <c r="M24">
-        <v>5.601330925094382</v>
+        <v>9.608666081611375</v>
       </c>
       <c r="N24">
-        <v>0.04233790259095137</v>
+        <v>0.07262751907224374</v>
       </c>
       <c r="O24">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="P24">
-        <v>34.45709030333335</v>
+        <v>59.10857246183514</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1582,49 +1582,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.232487343285858</v>
+        <v>2.114240256434516</v>
       </c>
       <c r="C25">
-        <v>5.543169094947205</v>
+        <v>9.508893793194002</v>
       </c>
       <c r="D25">
-        <v>0.002960719520166738</v>
+        <v>0.005078893857732835</v>
       </c>
       <c r="E25">
-        <v>0.2816171606391846</v>
+        <v>0.4830932675858352</v>
       </c>
       <c r="F25">
-        <v>1.835841615699445</v>
+        <v>3.149249580122718</v>
       </c>
       <c r="G25">
-        <v>2.12106661552997</v>
+        <v>3.638531827172423</v>
       </c>
       <c r="H25">
-        <v>0.1387931132258276</v>
+        <v>0.2380892500815394</v>
       </c>
       <c r="I25">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="J25">
-        <v>1.131713010989006</v>
+        <v>1.941369393850822</v>
       </c>
       <c r="K25">
-        <v>1.498875363970947</v>
+        <v>2.571209068513992</v>
       </c>
       <c r="L25">
-        <v>9.473220403463237</v>
+        <v>16.25060414955795</v>
       </c>
       <c r="M25">
-        <v>5.961049424871087</v>
+        <v>10.22573638043045</v>
       </c>
       <c r="N25">
-        <v>0.04838617438965873</v>
+        <v>0.08300287893970713</v>
       </c>
       <c r="O25">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="P25">
-        <v>30.49895700292696</v>
+        <v>52.31868953959545</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1632,49 +1632,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.013856775956657</v>
+        <v>1.739195799180967</v>
       </c>
       <c r="C26">
-        <v>4.559867959538369</v>
+        <v>7.822113919952791</v>
       </c>
       <c r="D26">
-        <v>0.003996971352225096</v>
+        <v>0.006856506707939326</v>
       </c>
       <c r="E26">
-        <v>0.3801831668628991</v>
+        <v>0.6521759112408776</v>
       </c>
       <c r="F26">
-        <v>1.556474413310399</v>
+        <v>2.670015948364913</v>
       </c>
       <c r="G26">
-        <v>1.798295608818888</v>
+        <v>3.084842201298359</v>
       </c>
       <c r="H26">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I26">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J26">
-        <v>1.392877551986469</v>
+        <v>2.389377715508704</v>
       </c>
       <c r="K26">
-        <v>1.844769678733474</v>
+        <v>3.164565007401836</v>
       </c>
       <c r="L26">
-        <v>7.758240847663858</v>
+        <v>13.30868443282763</v>
       </c>
       <c r="M26">
-        <v>4.881893925540976</v>
+        <v>8.374525483973216</v>
       </c>
       <c r="N26">
-        <v>0.04233790259095137</v>
+        <v>0.07262751907224374</v>
       </c>
       <c r="O26">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="P26">
-        <v>25.88635673730935</v>
+        <v>44.40611727543758</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1682,49 +1682,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.010458373355685</v>
+        <v>1.733366092591535</v>
       </c>
       <c r="C27">
-        <v>4.544583485930977</v>
+        <v>7.795894543684789</v>
       </c>
       <c r="D27">
-        <v>0.004589115256258443</v>
+        <v>0.007872285479485895</v>
       </c>
       <c r="E27">
-        <v>0.4365065989907361</v>
+        <v>0.7487945647580446</v>
       </c>
       <c r="F27">
-        <v>1.157378409897476</v>
+        <v>1.985396474425192</v>
       </c>
       <c r="G27">
-        <v>1.337194170660199</v>
+        <v>2.293857021478267</v>
       </c>
       <c r="H27">
-        <v>0.06939655661291382</v>
+        <v>0.1190446250407697</v>
       </c>
       <c r="I27">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="J27">
-        <v>1.518623442096359</v>
+        <v>2.605085425936573</v>
       </c>
       <c r="K27">
-        <v>2.011311385841357</v>
+        <v>3.450254903903391</v>
       </c>
       <c r="L27">
-        <v>7.839906540797161</v>
+        <v>13.44877584791003</v>
       </c>
       <c r="M27">
-        <v>4.933282282651931</v>
+        <v>8.462678383804512</v>
       </c>
       <c r="N27">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O27">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P27">
-        <v>25.50231193048357</v>
+        <v>43.74731700840932</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1732,49 +1732,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.9504199274051787</v>
+        <v>1.630374609511544</v>
       </c>
       <c r="C28">
-        <v>4.274557785533734</v>
+        <v>7.332685562950156</v>
       </c>
       <c r="D28">
-        <v>0.003996971352225096</v>
+        <v>0.006856506707939326</v>
       </c>
       <c r="E28">
-        <v>0.3801831668628991</v>
+        <v>0.6521759112408776</v>
       </c>
       <c r="F28">
-        <v>1.237197610580061</v>
+        <v>2.122320369213137</v>
       </c>
       <c r="G28">
-        <v>1.429414458291937</v>
+        <v>2.452054057442285</v>
       </c>
       <c r="H28">
-        <v>0.1072492238563214</v>
+        <v>0.1839780568811896</v>
       </c>
       <c r="I28">
-        <v>0.7948899937675069</v>
+        <v>1.363574590372453</v>
       </c>
       <c r="J28">
-        <v>1.131713010989006</v>
+        <v>1.941369393850822</v>
       </c>
       <c r="K28">
-        <v>1.498875363970947</v>
+        <v>2.571209068513992</v>
       </c>
       <c r="L28">
-        <v>6.124926984997783</v>
+        <v>10.5068561311797</v>
       </c>
       <c r="M28">
-        <v>3.854126783321822</v>
+        <v>6.611467487347278</v>
       </c>
       <c r="N28">
-        <v>0.04838617438965873</v>
+        <v>0.08300287893970713</v>
       </c>
       <c r="O28">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="P28">
-        <v>22.03703324930945</v>
+        <v>37.80288948352285</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1782,49 +1782,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.174714499069333</v>
+        <v>2.015135244414147</v>
       </c>
       <c r="C29">
-        <v>5.283333043621555</v>
+        <v>9.063164396638033</v>
       </c>
       <c r="D29">
-        <v>0.003848935376216759</v>
+        <v>0.006602562015052686</v>
       </c>
       <c r="E29">
-        <v>0.3661023088309399</v>
+        <v>0.6280212478615858</v>
       </c>
       <c r="F29">
-        <v>1.476655212627815</v>
+        <v>2.533092053576969</v>
       </c>
       <c r="G29">
-        <v>1.70607532118715</v>
+        <v>2.926645165334339</v>
       </c>
       <c r="H29">
-        <v>0.08201411236071635</v>
+        <v>0.1406891023209097</v>
       </c>
       <c r="I29">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="J29">
-        <v>1.267131661876579</v>
+        <v>2.173670005080835</v>
       </c>
       <c r="K29">
-        <v>1.678227971625591</v>
+        <v>2.878875110900282</v>
       </c>
       <c r="L29">
-        <v>7.758240847663858</v>
+        <v>13.30868443282763</v>
       </c>
       <c r="M29">
-        <v>4.881893925540976</v>
+        <v>8.374525483973216</v>
       </c>
       <c r="N29">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O29">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P29">
-        <v>26.47320637012325</v>
+        <v>45.41281411896142</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1832,49 +1832,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.024051983759573</v>
+        <v>1.756684918949267</v>
       </c>
       <c r="C30">
-        <v>4.605721380360541</v>
+        <v>7.900772048756783</v>
       </c>
       <c r="D30">
-        <v>0.005181259160291791</v>
+        <v>0.008888064251032462</v>
       </c>
       <c r="E30">
-        <v>0.4928300311185729</v>
+        <v>0.8454132182752118</v>
       </c>
       <c r="F30">
-        <v>1.39683601194523</v>
+        <v>2.396168158789025</v>
       </c>
       <c r="G30">
-        <v>1.613855033555412</v>
+        <v>2.768448129370321</v>
       </c>
       <c r="H30">
-        <v>0.07570533448681512</v>
+        <v>0.1298668636808397</v>
       </c>
       <c r="I30">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="J30">
-        <v>1.102694728655955</v>
+        <v>1.89159069144439</v>
       </c>
       <c r="K30">
-        <v>1.460442662330667</v>
+        <v>2.505280630859787</v>
       </c>
       <c r="L30">
-        <v>6.859918223197512</v>
+        <v>11.76767886692128</v>
       </c>
       <c r="M30">
-        <v>4.316621997320442</v>
+        <v>7.404843585828947</v>
       </c>
       <c r="N30">
-        <v>0.04838617438965873</v>
+        <v>0.08300287893970713</v>
       </c>
       <c r="O30">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="P30">
-        <v>23.76443943340104</v>
+        <v>40.76612615570127</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1882,49 +1882,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.281197780566457</v>
+        <v>2.197799384216397</v>
       </c>
       <c r="C31">
-        <v>5.762246549986481</v>
+        <v>9.884704853035313</v>
       </c>
       <c r="D31">
-        <v>0.005033223184283454</v>
+        <v>0.008634119558145819</v>
       </c>
       <c r="E31">
-        <v>0.4787491730866137</v>
+        <v>0.82125855489592</v>
       </c>
       <c r="F31">
-        <v>1.995480017064615</v>
+        <v>3.423097369698608</v>
       </c>
       <c r="G31">
-        <v>2.305507190793447</v>
+        <v>3.954925899100459</v>
       </c>
       <c r="H31">
-        <v>0.1072492238563214</v>
+        <v>0.1839780568811896</v>
       </c>
       <c r="I31">
-        <v>0.7948899937675069</v>
+        <v>1.363574590372453</v>
       </c>
       <c r="J31">
-        <v>1.025312642434484</v>
+        <v>1.75884748502724</v>
       </c>
       <c r="K31">
-        <v>1.357955457956585</v>
+        <v>2.329471463781907</v>
       </c>
       <c r="L31">
-        <v>6.124926984997783</v>
+        <v>10.5068561311797</v>
       </c>
       <c r="M31">
-        <v>3.854126783321822</v>
+        <v>6.611467487347278</v>
       </c>
       <c r="N31">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O31">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P31">
-        <v>25.1550455131114</v>
+        <v>43.15160732967248</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,49 +1932,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.593850819855884</v>
+        <v>2.734132390444271</v>
       </c>
       <c r="C32">
-        <v>7.168418121866465</v>
+        <v>12.29688746969114</v>
       </c>
       <c r="D32">
-        <v>0.003848935376216759</v>
+        <v>0.006602562015052686</v>
       </c>
       <c r="E32">
-        <v>0.3661023088309399</v>
+        <v>0.6280212478615858</v>
       </c>
       <c r="F32">
-        <v>2.673943222866584</v>
+        <v>4.586950475396137</v>
       </c>
       <c r="G32">
-        <v>3.089379635663218</v>
+        <v>5.299600704794615</v>
       </c>
       <c r="H32">
-        <v>0.1514106689736302</v>
+        <v>0.2597337273616793</v>
       </c>
       <c r="I32">
-        <v>1.12219763826001</v>
+        <v>1.925046480525815</v>
       </c>
       <c r="J32">
-        <v>1.083349207100587</v>
+        <v>1.858404889840102</v>
       </c>
       <c r="K32">
-        <v>1.434820861237146</v>
+        <v>2.461328339090318</v>
       </c>
       <c r="L32">
-        <v>4.899941587998224</v>
+        <v>8.405484904943771</v>
       </c>
       <c r="M32">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="N32">
-        <v>0.08467580518190275</v>
+        <v>0.1452550381444875</v>
       </c>
       <c r="O32">
-        <v>0.3519176394831318</v>
+        <v>0.6036885039005851</v>
       </c>
       <c r="P32">
-        <v>27.10715787935139</v>
+        <v>46.50031072388738</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1982,49 +1982,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.90310545654434</v>
+        <v>3.26463569008271</v>
       </c>
       <c r="C33">
-        <v>8.559305220139059</v>
+        <v>14.68285071007897</v>
       </c>
       <c r="D33">
-        <v>0.003848935376216759</v>
+        <v>0.006602562015052686</v>
       </c>
       <c r="E33">
-        <v>0.3661023088309399</v>
+        <v>0.6280212478615858</v>
       </c>
       <c r="F33">
-        <v>1.756022415016861</v>
+        <v>3.012325685334774</v>
       </c>
       <c r="G33">
-        <v>2.028846327898233</v>
+        <v>3.480334791208404</v>
       </c>
       <c r="H33">
-        <v>0.2271160034604453</v>
+        <v>0.389600591042519</v>
       </c>
       <c r="I33">
-        <v>1.683296457390015</v>
+        <v>2.887569720788723</v>
       </c>
       <c r="J33">
-        <v>0.7157842975486023</v>
+        <v>1.22787465935864</v>
       </c>
       <c r="K33">
-        <v>0.9480066404602573</v>
+        <v>1.626234795470388</v>
       </c>
       <c r="L33">
-        <v>3.756621884131974</v>
+        <v>6.444205093790222</v>
       </c>
       <c r="M33">
-        <v>2.36386442710405</v>
+        <v>4.055033392239663</v>
       </c>
       <c r="N33">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O33">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P33">
-        <v>24.436661358091</v>
+        <v>41.91927280842739</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2032,49 +2032,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.973339110297761</v>
+        <v>3.385116292930999</v>
       </c>
       <c r="C34">
-        <v>8.875184341358482</v>
+        <v>15.2247178196176</v>
       </c>
       <c r="D34">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E34">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F34">
-        <v>1.197288010238769</v>
+        <v>2.053858421819165</v>
       </c>
       <c r="G34">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="H34">
-        <v>0.2838950043255564</v>
+        <v>0.4870007388031491</v>
       </c>
       <c r="I34">
-        <v>2.104120571737519</v>
+        <v>3.609462150985903</v>
       </c>
       <c r="J34">
-        <v>0.4352742349957714</v>
+        <v>0.7466805360964698</v>
       </c>
       <c r="K34">
-        <v>0.5764905246042106</v>
+        <v>0.9889265648130738</v>
       </c>
       <c r="L34">
-        <v>4.328281736065101</v>
+        <v>7.424844999366995</v>
       </c>
       <c r="M34">
-        <v>2.723582926880754</v>
+        <v>4.672103691058742</v>
       </c>
       <c r="N34">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O34">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P34">
-        <v>24.11115053713904</v>
+        <v>41.36088323525181</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2082,49 +2082,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.324244213512102</v>
+        <v>2.27164233434922</v>
       </c>
       <c r="C35">
-        <v>5.955849882346763</v>
+        <v>10.21681695242996</v>
       </c>
       <c r="D35">
-        <v>0.00236857561613339</v>
+        <v>0.004063115086186268</v>
       </c>
       <c r="E35">
-        <v>0.2252937285113476</v>
+        <v>0.3864746140686682</v>
       </c>
       <c r="F35">
-        <v>0.5986440051193844</v>
+        <v>1.026929210909582</v>
       </c>
       <c r="G35">
-        <v>0.6916521572380339</v>
+        <v>1.186477769730138</v>
       </c>
       <c r="H35">
-        <v>0.2334247813343466</v>
+        <v>0.400422829682589</v>
       </c>
       <c r="I35">
-        <v>1.730054692317516</v>
+        <v>2.967779990810631</v>
       </c>
       <c r="J35">
-        <v>0.4546197565511391</v>
+        <v>0.7798663377007572</v>
       </c>
       <c r="K35">
-        <v>0.6021123256977309</v>
+        <v>1.032878856582544</v>
       </c>
       <c r="L35">
-        <v>4.899941587998224</v>
+        <v>8.405484904943771</v>
       </c>
       <c r="M35">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="N35">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O35">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P35">
-        <v>19.83269237894768</v>
+        <v>34.02150687346079</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2132,49 +2132,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.123738460054753</v>
+        <v>1.927689645572648</v>
       </c>
       <c r="C36">
-        <v>5.054065939510683</v>
+        <v>8.669873752618061</v>
       </c>
       <c r="D36">
-        <v>0.002664647568150064</v>
+        <v>0.00457100447195955</v>
       </c>
       <c r="E36">
-        <v>0.253455444575266</v>
+        <v>0.4347839408272517</v>
       </c>
       <c r="F36">
-        <v>0.9179208078497225</v>
+        <v>1.574624790061359</v>
       </c>
       <c r="G36">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="H36">
-        <v>0.195572114090939</v>
+        <v>0.3354893978421692</v>
       </c>
       <c r="I36">
-        <v>1.449505282752513</v>
+        <v>2.486518370679177</v>
       </c>
       <c r="J36">
-        <v>0.3675649095519846</v>
+        <v>0.6305302304814634</v>
       </c>
       <c r="K36">
-        <v>0.4868142207768889</v>
+        <v>0.8350935436199292</v>
       </c>
       <c r="L36">
-        <v>6.288258371264392</v>
+        <v>10.78703896134451</v>
       </c>
       <c r="M36">
-        <v>3.956903497543737</v>
+        <v>6.787773287009869</v>
       </c>
       <c r="N36">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O36">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P36">
-        <v>21.25055274144652</v>
+        <v>36.45374073998141</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2182,43 +2182,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.9583495334741139</v>
+        <v>1.643977258220221</v>
       </c>
       <c r="C37">
-        <v>4.310221557284311</v>
+        <v>7.393864107575484</v>
       </c>
       <c r="D37">
-        <v>0.002812683544158401</v>
+        <v>0.004824949164846193</v>
       </c>
       <c r="E37">
-        <v>0.2675363026072254</v>
+        <v>0.4589386042065435</v>
       </c>
       <c r="F37">
-        <v>0.8381016071671381</v>
+        <v>1.437700895273415</v>
       </c>
       <c r="G37">
-        <v>0.9683130201332473</v>
+        <v>1.661068877622193</v>
       </c>
       <c r="H37">
-        <v>0.08832289023461762</v>
+        <v>0.1515113409609796</v>
       </c>
       <c r="I37">
-        <v>0.6546152889850058</v>
+        <v>1.122943780306726</v>
       </c>
       <c r="J37">
-        <v>0.2321462586644115</v>
+        <v>0.3982296192514505</v>
       </c>
       <c r="K37">
-        <v>0.3074616131222456</v>
+        <v>0.5274275012336394</v>
       </c>
       <c r="L37">
-        <v>3.593290497865367</v>
+        <v>6.164022263625429</v>
       </c>
       <c r="M37">
-        <v>2.261087712882136</v>
+        <v>3.878727592577069</v>
       </c>
       <c r="P37">
-        <v>14.48225896596398</v>
+        <v>24.843236790018</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2226,43 +2226,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.398745905180719</v>
+        <v>0.6840189064935203</v>
       </c>
       <c r="C38">
-        <v>1.793378236600565</v>
+        <v>3.076406815445121</v>
       </c>
       <c r="D38">
-        <v>0.00236857561613339</v>
+        <v>0.004063115086186268</v>
       </c>
       <c r="E38">
-        <v>0.2252937285113476</v>
+        <v>0.3864746140686682</v>
       </c>
       <c r="F38">
-        <v>0.1197288010238769</v>
+        <v>0.2053858421819165</v>
       </c>
       <c r="G38">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H38">
-        <v>0.07570533448681512</v>
+        <v>0.1298668636808397</v>
       </c>
       <c r="I38">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="J38">
-        <v>0.1741096939983086</v>
+        <v>0.298672214438588</v>
       </c>
       <c r="K38">
-        <v>0.2305962098416842</v>
+        <v>0.3955706259252295</v>
       </c>
       <c r="L38">
-        <v>2.368305100865809</v>
+        <v>4.062651037389488</v>
       </c>
       <c r="M38">
-        <v>1.490262356217772</v>
+        <v>2.556434095107613</v>
       </c>
       <c r="P38">
-        <v>7.577923192920643</v>
+        <v>12.99936292402611</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2270,43 +2270,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.2560129959398931</v>
+        <v>0.4391712297373168</v>
       </c>
       <c r="C39">
-        <v>1.151430345090135</v>
+        <v>1.975193012189196</v>
       </c>
       <c r="D39">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E39">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F39">
-        <v>0.1197288010238769</v>
+        <v>0.2053858421819165</v>
       </c>
       <c r="G39">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H39">
-        <v>0.03785266724340756</v>
+        <v>0.06493343184041983</v>
       </c>
       <c r="I39">
-        <v>0.2805494095650025</v>
+        <v>0.4812616201314538</v>
       </c>
       <c r="J39">
-        <v>0.08705484699915429</v>
+        <v>0.149336107219294</v>
       </c>
       <c r="K39">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="L39">
-        <v>2.286639407732507</v>
+        <v>3.922559622307093</v>
       </c>
       <c r="M39">
-        <v>1.438873999106814</v>
+        <v>2.468281195276317</v>
       </c>
       <c r="P39">
-        <v>6.039831055140946</v>
+        <v>10.36088040044126</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.2582785976738748</v>
+        <v>0.4430577007969392</v>
       </c>
       <c r="C40">
-        <v>1.161619994161729</v>
+        <v>1.992672596367861</v>
       </c>
       <c r="D40">
-        <v>0.002664647568150064</v>
+        <v>0.00457100447195955</v>
       </c>
       <c r="E40">
-        <v>0.253455444575266</v>
+        <v>0.4347839408272517</v>
       </c>
       <c r="F40">
-        <v>0.07981920068258458</v>
+        <v>0.1369238947879443</v>
       </c>
       <c r="G40">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="H40">
-        <v>0.04416144511730881</v>
+        <v>0.07575567048048981</v>
       </c>
       <c r="I40">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="J40">
-        <v>0.1450914116652572</v>
+        <v>0.2488935120321566</v>
       </c>
       <c r="K40">
-        <v>0.1921635082014035</v>
+        <v>0.3296421882710247</v>
       </c>
       <c r="L40">
-        <v>3.348293418465455</v>
+        <v>5.743748018378244</v>
       </c>
       <c r="M40">
-        <v>2.106922641549263</v>
+        <v>3.614268893083176</v>
       </c>
       <c r="P40">
-        <v>8.011998241784536</v>
+        <v>13.74398634561443</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,43 +2358,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1223424936349932</v>
+        <v>0.2098694372196028</v>
       </c>
       <c r="C41">
-        <v>0.5502410498660824</v>
+        <v>0.9438975456479342</v>
       </c>
       <c r="D41">
-        <v>0.002516611592141727</v>
+        <v>0.004317059779072909</v>
       </c>
       <c r="E41">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="F41">
-        <v>0.03990960034129229</v>
+        <v>0.06846194739397216</v>
       </c>
       <c r="G41">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="H41">
-        <v>0.03154388936950629</v>
+        <v>0.05411119320034988</v>
       </c>
       <c r="I41">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="J41">
-        <v>0.1547641724429409</v>
+        <v>0.2654864128343004</v>
       </c>
       <c r="K41">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="L41">
-        <v>3.429959111598756</v>
+        <v>5.883839433460638</v>
       </c>
       <c r="M41">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="P41">
-        <v>7.213838241250775</v>
+        <v>12.37480230214562</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2402,31 +2402,31 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1200768919010119</v>
+        <v>0.2059829661599805</v>
       </c>
       <c r="C42">
-        <v>0.5400514007944883</v>
+        <v>0.9264179614692691</v>
       </c>
       <c r="D42">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E42">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="J42">
-        <v>0.1547641724429409</v>
+        <v>0.2654864128343004</v>
       </c>
       <c r="K42">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="L42">
-        <v>3.021630645932241</v>
+        <v>5.183382358048654</v>
       </c>
       <c r="M42">
-        <v>1.901369213105432</v>
+        <v>3.261657293757989</v>
       </c>
       <c r="P42">
-        <v>6.099384567011922</v>
+        <v>10.46304001521991</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2434,43 +2434,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.09968647629517974</v>
+        <v>0.1710047266233801</v>
       </c>
       <c r="C43">
-        <v>0.4483445591501413</v>
+        <v>0.7691017038612802</v>
       </c>
       <c r="D43">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E43">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F43">
-        <v>0.03990960034129229</v>
+        <v>0.06846194739397216</v>
       </c>
       <c r="G43">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="H43">
-        <v>0.01892633362170378</v>
+        <v>0.03246671592020992</v>
       </c>
       <c r="I43">
-        <v>0.1402747047825013</v>
+        <v>0.2406308100657269</v>
       </c>
       <c r="J43">
-        <v>0.1450914116652572</v>
+        <v>0.2488935120321566</v>
       </c>
       <c r="K43">
-        <v>0.1921635082014035</v>
+        <v>0.3296421882710247</v>
       </c>
       <c r="L43">
-        <v>4.083284656665189</v>
+        <v>7.004570754119806</v>
       </c>
       <c r="M43">
-        <v>2.569417855547881</v>
+        <v>4.40764499156485</v>
       </c>
       <c r="P43">
-        <v>7.911269296158126</v>
+        <v>13.57119334048402</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2478,43 +2478,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.161990523979667</v>
+        <v>0.2778826807629924</v>
       </c>
       <c r="C44">
-        <v>0.7285599086189796</v>
+        <v>1.24979026877458</v>
       </c>
       <c r="D44">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E44">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F44">
-        <v>0.1596384013651692</v>
+        <v>0.2738477895758886</v>
       </c>
       <c r="G44">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="H44">
-        <v>0.02523511149560503</v>
+        <v>0.04328895456027989</v>
       </c>
       <c r="I44">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="J44">
-        <v>0.2418190194420952</v>
+        <v>0.4148225200535943</v>
       </c>
       <c r="K44">
-        <v>0.3202725136690058</v>
+        <v>0.5494036471183743</v>
       </c>
       <c r="L44">
-        <v>5.634932826197962</v>
+        <v>9.666307640685334</v>
       </c>
       <c r="M44">
-        <v>3.545796640656077</v>
+        <v>6.082550088359494</v>
       </c>
       <c r="P44">
-        <v>11.27509182444584</v>
+        <v>19.34158039033928</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2522,49 +2522,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.4678467580671502</v>
+        <v>0.8025562738119992</v>
       </c>
       <c r="C45">
-        <v>2.104162533284186</v>
+        <v>3.609534132894415</v>
       </c>
       <c r="D45">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E45">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F45">
-        <v>0.5188248044367997</v>
+        <v>0.8900053161216378</v>
       </c>
       <c r="G45">
-        <v>0.5994318696062958</v>
+        <v>1.02828073376612</v>
       </c>
       <c r="H45">
-        <v>0.1135580017302226</v>
+        <v>0.1948002955212595</v>
       </c>
       <c r="I45">
-        <v>0.8416482286950077</v>
+        <v>1.443784860394361</v>
       </c>
       <c r="J45">
-        <v>0.4352742349957714</v>
+        <v>0.7466805360964698</v>
       </c>
       <c r="K45">
-        <v>0.5764905246042106</v>
+        <v>0.9889265648130738</v>
       </c>
       <c r="L45">
-        <v>11.84152550432905</v>
+        <v>20.31325518694744</v>
       </c>
       <c r="M45">
-        <v>7.451311781088859</v>
+        <v>12.78217047553806</v>
       </c>
       <c r="N45">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O45">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P45">
-        <v>25.06663285093286</v>
+        <v>42.99994199162685</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,49 +2572,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.060301611503275</v>
+        <v>1.818868455903225</v>
       </c>
       <c r="C46">
-        <v>4.76875576550605</v>
+        <v>8.180445395615429</v>
       </c>
       <c r="D46">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E46">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F46">
-        <v>1.237197610580061</v>
+        <v>2.122320369213137</v>
       </c>
       <c r="G46">
-        <v>1.429414458291937</v>
+        <v>2.452054057442285</v>
       </c>
       <c r="H46">
-        <v>0.3028213379472605</v>
+        <v>0.5194674547233586</v>
       </c>
       <c r="I46">
-        <v>2.24439527652002</v>
+        <v>3.85009296105163</v>
       </c>
       <c r="J46">
-        <v>0.9189122738799622</v>
+        <v>1.576325576203658</v>
       </c>
       <c r="K46">
-        <v>1.217035551942222</v>
+        <v>2.087733859049822</v>
       </c>
       <c r="L46">
-        <v>13.06651090132861</v>
+        <v>22.41462641318338</v>
       </c>
       <c r="M46">
-        <v>8.22213713775322</v>
+        <v>14.10446397300752</v>
       </c>
       <c r="N46">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O46">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P46">
-        <v>34.60372434541902</v>
+        <v>59.36011224147678</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2622,49 +2622,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.53721077650635</v>
+        <v>2.636970613953712</v>
       </c>
       <c r="C47">
-        <v>6.91367689507661</v>
+        <v>11.85989786522451</v>
       </c>
       <c r="D47">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E47">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F47">
-        <v>1.197288010238769</v>
+        <v>2.053858421819165</v>
       </c>
       <c r="G47">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="H47">
-        <v>0.2523511149560503</v>
+        <v>0.4328895456027991</v>
       </c>
       <c r="I47">
-        <v>1.870329397100017</v>
+        <v>3.208410800876358</v>
       </c>
       <c r="J47">
-        <v>0.8512029484361753</v>
+        <v>1.460175270588652</v>
       </c>
       <c r="K47">
-        <v>1.127359248114901</v>
+        <v>1.933900837856678</v>
       </c>
       <c r="L47">
-        <v>8.24823500646368</v>
+        <v>14.14923292332201</v>
       </c>
       <c r="M47">
-        <v>5.190224068206722</v>
+        <v>8.903442882960997</v>
       </c>
       <c r="N47">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O47">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P47">
-        <v>28.84093916187659</v>
+        <v>49.47448340268725</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2672,49 +2672,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.73884933083069</v>
+        <v>2.982866538260094</v>
       </c>
       <c r="C48">
-        <v>7.820555662448488</v>
+        <v>13.41558085712573</v>
       </c>
       <c r="D48">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E48">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F48">
-        <v>1.317016811262645</v>
+        <v>2.25924426400108</v>
       </c>
       <c r="G48">
-        <v>1.521634745923674</v>
+        <v>2.610251093406303</v>
       </c>
       <c r="H48">
-        <v>0.2018808919648403</v>
+        <v>0.3463116364822391</v>
       </c>
       <c r="I48">
-        <v>1.496263517680013</v>
+        <v>2.566728640701087</v>
       </c>
       <c r="J48">
-        <v>0.9769488385460648</v>
+        <v>1.675882981016521</v>
       </c>
       <c r="K48">
-        <v>1.293900955222784</v>
+        <v>2.219590734358232</v>
       </c>
       <c r="L48">
-        <v>7.431578075130644</v>
+        <v>12.74831877249805</v>
       </c>
       <c r="M48">
-        <v>4.676340497097144</v>
+        <v>8.021913884648027</v>
       </c>
       <c r="N48">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O48">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P48">
-        <v>28.73654433431354</v>
+        <v>49.29540185008573</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2722,49 +2722,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.248346555423727</v>
+        <v>2.141445553851873</v>
       </c>
       <c r="C49">
-        <v>5.614496638448361</v>
+        <v>9.631250882444663</v>
       </c>
       <c r="D49">
-        <v>0.002516611592141727</v>
+        <v>0.004317059779072909</v>
       </c>
       <c r="E49">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="F49">
-        <v>1.516564812969107</v>
+        <v>2.601554000970942</v>
       </c>
       <c r="G49">
-        <v>1.752185465003019</v>
+        <v>3.00574368331635</v>
       </c>
       <c r="H49">
-        <v>0.1387931132258276</v>
+        <v>0.2380892500815394</v>
       </c>
       <c r="I49">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="J49">
-        <v>1.228440618765844</v>
+        <v>2.10729840187226</v>
       </c>
       <c r="K49">
-        <v>1.62698436943855</v>
+        <v>2.790970527361342</v>
       </c>
       <c r="L49">
-        <v>10.04488025539636</v>
+        <v>17.23124405513473</v>
       </c>
       <c r="M49">
-        <v>6.320767924647789</v>
+        <v>10.84280667924953</v>
       </c>
       <c r="N49">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O49">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P49">
-        <v>30.82440261195405</v>
+        <v>52.87696724657013</v>
       </c>
     </row>
   </sheetData>
